--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D433CD-666A-4008-A931-1E0F178599CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B46EF-50B9-4232-B74E-B5BE58F5DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GANTT CHART" sheetId="8" r:id="rId1"/>
-    <sheet name="BURNDOWN CHART" sheetId="9" r:id="rId2"/>
+    <sheet name="TEAM" sheetId="10" r:id="rId1"/>
+    <sheet name="GANTT CHART" sheetId="8" r:id="rId2"/>
+    <sheet name="BURNDOWN CHART" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'GANTT CHART'!$A:$M</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
     <definedName name="color">'GANTT CHART'!$E1</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>TASK</t>
   </si>
@@ -112,9 +113,6 @@
     <t>Start Coding</t>
   </si>
   <si>
-    <t>2nd Delivery</t>
-  </si>
-  <si>
     <t>1st Delivery</t>
   </si>
   <si>
@@ -190,12 +188,6 @@
     <t>Tasks Assigned</t>
   </si>
   <si>
-    <t>Bernardo Carvalho: #X (Z hours) and #Y (W hours)</t>
-  </si>
-  <si>
-    <t>Estimate time for Bernardo should be Z+W hours</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -203,6 +195,60 @@
   </si>
   <si>
     <t>Ideal</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>João Félix (Product Owner)</t>
+  </si>
+  <si>
+    <t>Luís Lamy (Scrum Master)</t>
+  </si>
+  <si>
+    <t>Generate Sprint 1 Burndown Chart #3 (1 hour)</t>
+  </si>
+  <si>
+    <t>SysML diagram for 3 FR #4 (5 hours)</t>
+  </si>
+  <si>
+    <t>Model Main Business Process (BPMN) #5 (6 hours)</t>
+  </si>
+  <si>
+    <t>Implement Back-End Logic for Basic Features #8 (10 hours)</t>
+  </si>
+  <si>
+    <t>Design Front-End UI #6 (30 hours)</t>
+  </si>
+  <si>
+    <t>Implement Front-End #7 (7 hours)</t>
+  </si>
+  <si>
+    <t>Guilherme Santana (Quality Controller)</t>
+  </si>
+  <si>
+    <t>Gantt Chart and Task Dependencies #2 (3 hours)</t>
+  </si>
+  <si>
+    <t>Quality Check and Testing #9 (35 hours)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Define Team Roles and Responsibilities #1 (0.5 hours)</t>
+  </si>
+  <si>
+    <t>Yaroslav Hayduk (Team Member)</t>
+  </si>
+  <si>
+    <t>Bernardo Carvalho (Team Member)</t>
+  </si>
+  <si>
+    <t>Working Days</t>
+  </si>
+  <si>
+    <t>Work divided by the whole team</t>
   </si>
 </sst>
 </file>
@@ -213,9 +259,9 @@
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +350,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +404,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -533,21 +607,6 @@
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
@@ -574,20 +633,22 @@
       <top style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -599,7 +660,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -710,6 +771,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,39 +786,99 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2051,9 +2178,6 @@
               <c:f>'GANTT CHART'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2nd Delivery</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2142,12 +2266,6 @@
               <c:numCache>
                 <c:formatCode>dd/mm/yy;@</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>45808</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45808</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2157,12 +2275,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2483,6 +2595,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'BURNDOWN CHART'!$F$14:$Y$14</c:f>
@@ -2490,64 +2671,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,6 +2758,75 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
@@ -2584,61 +2834,61 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>42.75</c:v>
+                  <c:v>208.52500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.5</c:v>
+                  <c:v>197.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.25</c:v>
+                  <c:v>186.57499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>175.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.75</c:v>
+                  <c:v>164.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.5</c:v>
+                  <c:v>153.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.25</c:v>
+                  <c:v>142.67500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>131.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.75</c:v>
+                  <c:v>120.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.5</c:v>
+                  <c:v>109.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.25</c:v>
+                  <c:v>98.775000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>87.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.75</c:v>
+                  <c:v>76.824999999999989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.5</c:v>
+                  <c:v>65.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.25</c:v>
+                  <c:v>54.875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>43.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.75</c:v>
+                  <c:v>32.925000000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5</c:v>
+                  <c:v>21.949999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.25</c:v>
+                  <c:v>10.974999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3725,6 +3975,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF283FC5-4BF5-4EF5-8A21-CE5D1B5BCAD4}">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3732,7 +4027,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="M6" sqref="M6:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3750,7 +4045,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -3818,6 +4113,9 @@
       </c>
       <c r="L4" s="13" t="s">
         <v>9</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3835,11 +4133,11 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="34">
         <v>45755</v>
@@ -3855,7 +4153,7 @@
         <v>45755</v>
       </c>
       <c r="G6" s="31">
-        <f t="shared" ref="G6:L14" si="0">IF(ISBLANK($D6),0,IF($E6=G$4,$D6-$C6+1,0))</f>
+        <f t="shared" ref="G6:M14" si="0">IF(ISBLANK($D6),0,IF($E6=G$4,$D6-$C6+1,0))</f>
         <v>1</v>
       </c>
       <c r="H6" s="31">
@@ -3878,11 +4176,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="34">
         <v>45755</v>
@@ -3921,13 +4222,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>35</v>
+      <c r="A8" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="34">
         <v>45756</v>
@@ -3966,11 +4270,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M8" s="32">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="34">
         <v>45757</v>
@@ -4009,11 +4316,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M9" s="32">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="34">
         <v>45759</v>
@@ -4052,13 +4362,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M10" s="32">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>29</v>
+      <c r="A11" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="34">
         <v>45762</v>
@@ -4097,13 +4410,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M11" s="32">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>28</v>
+      <c r="A12" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="34">
         <v>45763</v>
@@ -4142,11 +4458,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M12" s="32">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="34">
         <v>45765</v>
@@ -4185,13 +4504,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M13" s="32">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>37</v>
+      <c r="A14" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="34">
         <v>45769</v>
@@ -4229,6 +4551,9 @@
       <c r="L14" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="M14" s="32">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
@@ -4246,6 +4571,10 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="55"/>
     </row>
     <row r="19" spans="2:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -4276,43 +4605,52 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="33">
+      <c r="B21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="44">
         <v>45774</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="45">
         <v>0.25</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="45">
         <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="33">
-        <v>45808</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="24">
-        <v>0.95</v>
-      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A13"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="E5:E14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$4:$L$4</formula1>
@@ -4325,12 +4663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4346,7 +4684,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -4417,1262 +4755,1433 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="62">
+        <v>45755</v>
+      </c>
+      <c r="G3" s="62">
+        <v>45756</v>
+      </c>
+      <c r="H3" s="62">
+        <v>45757</v>
+      </c>
+      <c r="I3" s="62">
+        <v>45758</v>
+      </c>
+      <c r="J3" s="62">
+        <v>45759</v>
+      </c>
+      <c r="K3" s="62">
+        <v>45760</v>
+      </c>
+      <c r="L3" s="62">
+        <v>45761</v>
+      </c>
+      <c r="M3" s="62">
+        <v>45762</v>
+      </c>
+      <c r="N3" s="62">
+        <v>45763</v>
+      </c>
+      <c r="O3" s="62">
+        <v>45764</v>
+      </c>
+      <c r="P3" s="62">
+        <v>45765</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>45766</v>
+      </c>
+      <c r="R3" s="62">
+        <v>45767</v>
+      </c>
+      <c r="S3" s="62">
+        <v>45768</v>
+      </c>
+      <c r="T3" s="62">
+        <v>45769</v>
+      </c>
+      <c r="U3" s="62">
+        <v>45770</v>
+      </c>
+      <c r="V3" s="62">
+        <v>45771</v>
+      </c>
+      <c r="W3" s="62">
+        <v>45772</v>
+      </c>
+      <c r="X3" s="62">
+        <v>45773</v>
+      </c>
+      <c r="Y3" s="62">
+        <v>45774</v>
+      </c>
+      <c r="Z3" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="65">
+        <v>45755</v>
+      </c>
+      <c r="D4" s="56">
+        <v>45755</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57">
+        <f>E4-SUM(F4:Y4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="65">
+        <v>45755</v>
+      </c>
+      <c r="D5" s="56">
+        <v>45755</v>
+      </c>
+      <c r="E5" s="57">
+        <v>3</v>
+      </c>
+      <c r="F5" s="58">
+        <v>3</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57">
+        <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="65">
+        <v>45756</v>
+      </c>
+      <c r="D6" s="56">
+        <v>45757</v>
+      </c>
+      <c r="E6" s="57">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58">
+        <v>1</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="65">
+        <v>45757</v>
+      </c>
+      <c r="D7" s="56">
+        <v>45762</v>
+      </c>
+      <c r="E7" s="59">
+        <v>35</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="65">
+        <v>45759</v>
+      </c>
+      <c r="D8" s="56">
+        <v>45763</v>
+      </c>
+      <c r="E8" s="59">
+        <v>30</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="65">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="56">
+        <v>45769</v>
+      </c>
+      <c r="E9" s="59">
+        <v>50</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="65">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="56">
+        <v>45767</v>
+      </c>
+      <c r="E10" s="59">
+        <v>30</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="65">
+        <v>45765</v>
+      </c>
+      <c r="D11" s="56">
+        <v>45770</v>
+      </c>
+      <c r="E11" s="59">
+        <v>35</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="65">
+        <v>45769</v>
+      </c>
+      <c r="D12" s="56">
+        <v>45774</v>
+      </c>
+      <c r="E12" s="59">
+        <v>35</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D13" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="70">
+        <f>SUM(E4:E12)</f>
+        <v>219.5</v>
+      </c>
+      <c r="F13" s="70">
+        <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="70">
+        <f>SUM(Z4:Z12)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="70">
+        <f>E13</f>
+        <v>219.5</v>
+      </c>
+      <c r="F14" s="70">
+        <f>E14-F13</f>
+        <v>215</v>
+      </c>
+      <c r="G14" s="70">
+        <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
+        <v>215</v>
+      </c>
+      <c r="H14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="I14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="J14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="K14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="L14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="M14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="N14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="O14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="P14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="Q14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="R14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="S14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="T14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="U14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="V14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="W14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="X14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="Y14" s="70">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="Z14" s="39"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D15" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="57">
+        <f>E13</f>
+        <v>219.5</v>
+      </c>
+      <c r="F15" s="57">
+        <f>$E$15-F2*$E$15/COUNT($F$3:$Y$3)</f>
+        <v>208.52500000000001</v>
+      </c>
+      <c r="G15" s="57">
+        <f t="shared" ref="G15:Y15" si="3">$E$15-G2*$E$15/COUNT($F$3:$Y$3)</f>
+        <v>197.55</v>
+      </c>
+      <c r="H15" s="57">
+        <f t="shared" si="3"/>
+        <v>186.57499999999999</v>
+      </c>
+      <c r="I15" s="57">
+        <f t="shared" si="3"/>
+        <v>175.6</v>
+      </c>
+      <c r="J15" s="57">
+        <f t="shared" si="3"/>
+        <v>164.625</v>
+      </c>
+      <c r="K15" s="57">
+        <f t="shared" si="3"/>
+        <v>153.65</v>
+      </c>
+      <c r="L15" s="57">
+        <f t="shared" si="3"/>
+        <v>142.67500000000001</v>
+      </c>
+      <c r="M15" s="57">
+        <f t="shared" si="3"/>
+        <v>131.69999999999999</v>
+      </c>
+      <c r="N15" s="57">
+        <f t="shared" si="3"/>
+        <v>120.72499999999999</v>
+      </c>
+      <c r="O15" s="57">
+        <f t="shared" si="3"/>
+        <v>109.75</v>
+      </c>
+      <c r="P15" s="57">
+        <f t="shared" si="3"/>
+        <v>98.775000000000006</v>
+      </c>
+      <c r="Q15" s="57">
+        <f t="shared" si="3"/>
+        <v>87.800000000000011</v>
+      </c>
+      <c r="R15" s="57">
+        <f t="shared" si="3"/>
+        <v>76.824999999999989</v>
+      </c>
+      <c r="S15" s="57">
+        <f t="shared" si="3"/>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="T15" s="57">
+        <f t="shared" si="3"/>
+        <v>54.875</v>
+      </c>
+      <c r="U15" s="57">
+        <f t="shared" si="3"/>
+        <v>43.900000000000006</v>
+      </c>
+      <c r="V15" s="57">
+        <f t="shared" si="3"/>
+        <v>32.925000000000011</v>
+      </c>
+      <c r="W15" s="57">
+        <f t="shared" si="3"/>
+        <v>21.949999999999989</v>
+      </c>
+      <c r="X15" s="57">
+        <f t="shared" si="3"/>
+        <v>10.974999999999994</v>
+      </c>
+      <c r="Y15" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="39"/>
+    </row>
+    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="D17" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="41">
+      <c r="E17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="62">
         <v>45755</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G17" s="62">
         <v>45756</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H17" s="62">
         <v>45757</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I17" s="62">
         <v>45758</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J17" s="62">
         <v>45759</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K17" s="62">
         <v>45760</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L17" s="62">
         <v>45761</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M17" s="62">
         <v>45762</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N17" s="62">
         <v>45763</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O17" s="62">
         <v>45764</v>
       </c>
-      <c r="P3" s="41">
+      <c r="P17" s="62">
         <v>45765</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q17" s="62">
         <v>45766</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R17" s="62">
         <v>45767</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S17" s="62">
         <v>45768</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T17" s="62">
         <v>45769</v>
       </c>
-      <c r="U3" s="41">
+      <c r="U17" s="62">
         <v>45770</v>
       </c>
-      <c r="V3" s="41">
+      <c r="V17" s="62">
         <v>45771</v>
       </c>
-      <c r="W3" s="41">
+      <c r="W17" s="62">
         <v>45772</v>
       </c>
-      <c r="X3" s="41">
+      <c r="X17" s="62">
         <v>45773</v>
       </c>
-      <c r="Y3" s="41">
+      <c r="Y17" s="62">
         <v>45774</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z17" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D18" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="57">
+        <v>30.1</v>
+      </c>
+      <c r="F18" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57">
+        <f>E18-SUM(F18:Y18)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="D19" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="57">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="F19" s="58">
+        <v>3.1</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57">
+        <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D20" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="57">
+        <v>30.1</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D21" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="57">
+        <v>61.1</v>
+      </c>
+      <c r="F21" s="58">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="57">
+        <v>30.1</v>
+      </c>
+      <c r="F22" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57">
+        <f>E22-SUM(F22:Y22)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D23" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="57">
+        <f>SUM(E18:E22)</f>
+        <v>219.49999999999997</v>
+      </c>
+      <c r="F23" s="57">
+        <f t="shared" ref="F23:Y23" si="5">SUM(F18:F22)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="57">
+        <f>SUM(Z18:Z22)</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D24" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="57">
+        <f>E23</f>
+        <v>219.49999999999997</v>
+      </c>
+      <c r="F24" s="57">
+        <f>E24-F23</f>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="G24" s="57">
+        <f t="shared" ref="G24:Y24" si="6">F24-G23</f>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="H24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="I24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="J24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="K24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="L24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="M24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="N24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="O24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="P24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="Q24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="R24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="S24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="T24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="U24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="V24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="W24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="X24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="Y24" s="57">
+        <f t="shared" si="6"/>
+        <v>214.99999999999997</v>
+      </c>
+      <c r="Z24" s="38"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D25" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="57">
+        <f>E23</f>
+        <v>219.49999999999997</v>
+      </c>
+      <c r="F25" s="57">
+        <f>$E$25-F2*$E$25/COUNT($F$3:$Y$3)</f>
+        <v>208.52499999999998</v>
+      </c>
+      <c r="G25" s="57">
+        <f t="shared" ref="G25:Y25" si="7">$E$25-G2*$E$25/COUNT($F$3:$Y$3)</f>
+        <v>197.54999999999998</v>
+      </c>
+      <c r="H25" s="57">
+        <f t="shared" si="7"/>
+        <v>186.57499999999999</v>
+      </c>
+      <c r="I25" s="57">
+        <f t="shared" si="7"/>
+        <v>175.59999999999997</v>
+      </c>
+      <c r="J25" s="57">
+        <f t="shared" si="7"/>
+        <v>164.625</v>
+      </c>
+      <c r="K25" s="57">
+        <f t="shared" si="7"/>
+        <v>153.64999999999998</v>
+      </c>
+      <c r="L25" s="57">
+        <f t="shared" si="7"/>
+        <v>142.67499999999998</v>
+      </c>
+      <c r="M25" s="57">
+        <f t="shared" si="7"/>
+        <v>131.69999999999999</v>
+      </c>
+      <c r="N25" s="57">
+        <f t="shared" si="7"/>
+        <v>120.72499999999998</v>
+      </c>
+      <c r="O25" s="57">
+        <f t="shared" si="7"/>
+        <v>109.75</v>
+      </c>
+      <c r="P25" s="57">
+        <f t="shared" si="7"/>
+        <v>98.774999999999991</v>
+      </c>
+      <c r="Q25" s="57">
+        <f t="shared" si="7"/>
+        <v>87.799999999999983</v>
+      </c>
+      <c r="R25" s="57">
+        <f t="shared" si="7"/>
+        <v>76.824999999999989</v>
+      </c>
+      <c r="S25" s="57">
+        <f t="shared" si="7"/>
+        <v>65.849999999999994</v>
+      </c>
+      <c r="T25" s="57">
+        <f t="shared" si="7"/>
+        <v>54.875</v>
+      </c>
+      <c r="U25" s="57">
+        <f t="shared" si="7"/>
+        <v>43.900000000000006</v>
+      </c>
+      <c r="V25" s="57">
+        <f t="shared" si="7"/>
+        <v>32.924999999999983</v>
+      </c>
+      <c r="W25" s="57">
+        <f t="shared" si="7"/>
+        <v>21.949999999999989</v>
+      </c>
+      <c r="X25" s="57">
+        <f t="shared" si="7"/>
+        <v>10.975000000000023</v>
+      </c>
+      <c r="Y25" s="57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="38"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+    </row>
+    <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="34">
-        <v>45755</v>
-      </c>
-      <c r="D4" s="35">
-        <v>45755</v>
-      </c>
-      <c r="E4" s="43">
-        <v>1</v>
-      </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="44">
-        <f>E4-SUM(F4:Y4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="34">
-        <v>45755</v>
-      </c>
-      <c r="D5" s="35">
-        <v>45755</v>
-      </c>
-      <c r="E5" s="43">
-        <v>2</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="44">
-        <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="34">
-        <v>45756</v>
-      </c>
-      <c r="D6" s="35">
-        <v>45757</v>
-      </c>
-      <c r="E6" s="43">
-        <v>3</v>
-      </c>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="34">
-        <v>45757</v>
-      </c>
-      <c r="D7" s="35">
-        <v>45762</v>
-      </c>
-      <c r="E7" s="43">
-        <v>4</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="44">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="34">
-        <v>45759</v>
-      </c>
-      <c r="D8" s="35">
-        <v>45763</v>
-      </c>
-      <c r="E8" s="43">
-        <v>5</v>
-      </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="34">
-        <v>45762</v>
-      </c>
-      <c r="D9" s="35">
-        <v>45769</v>
-      </c>
-      <c r="E9" s="43">
-        <v>6</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="34">
-        <v>45763</v>
-      </c>
-      <c r="D10" s="35">
-        <v>45767</v>
-      </c>
-      <c r="E10" s="43">
-        <v>7</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="44">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="34">
-        <v>45765</v>
-      </c>
-      <c r="D11" s="35">
-        <v>45770</v>
-      </c>
-      <c r="E11" s="43">
-        <v>8</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="44">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="34">
-        <v>45769</v>
-      </c>
-      <c r="D12" s="35">
-        <v>45774</v>
-      </c>
-      <c r="E12" s="43">
-        <v>9</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="44">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="49">
-        <f>SUM(E4:E12)</f>
-        <v>45</v>
-      </c>
-      <c r="F13" s="49">
-        <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="49">
-        <f>SUM(Z4:Z12)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D14" s="47" t="s">
+    <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="49">
-        <f>E13</f>
-        <v>45</v>
-      </c>
-      <c r="F14" s="49">
-        <f>E14-F13</f>
-        <v>44</v>
-      </c>
-      <c r="G14" s="49">
-        <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
-        <v>44</v>
-      </c>
-      <c r="H14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="I14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="J14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="K14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="L14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="M14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="N14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="O14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="P14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="Q14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="R14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="S14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="T14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="U14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="V14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="W14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="X14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="Y14" s="49">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="Z14" s="49"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="47" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="51">
-        <f>E13</f>
-        <v>45</v>
-      </c>
-      <c r="F15" s="51">
-        <f>$E$15-F2*$E$15/COUNT($F$3:$Y$3)</f>
-        <v>42.75</v>
-      </c>
-      <c r="G15" s="51">
-        <f t="shared" ref="G15:Y15" si="3">$E$15-G2*$E$15/COUNT($F$3:$Y$3)</f>
-        <v>40.5</v>
-      </c>
-      <c r="H15" s="51">
-        <f t="shared" si="3"/>
-        <v>38.25</v>
-      </c>
-      <c r="I15" s="51">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="J15" s="51">
-        <f t="shared" si="3"/>
-        <v>33.75</v>
-      </c>
-      <c r="K15" s="51">
-        <f t="shared" si="3"/>
-        <v>31.5</v>
-      </c>
-      <c r="L15" s="51">
-        <f t="shared" si="3"/>
-        <v>29.25</v>
-      </c>
-      <c r="M15" s="51">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="N15" s="51">
-        <f t="shared" si="3"/>
-        <v>24.75</v>
-      </c>
-      <c r="O15" s="51">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="P15" s="51">
-        <f t="shared" si="3"/>
-        <v>20.25</v>
-      </c>
-      <c r="Q15" s="51">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="R15" s="51">
-        <f t="shared" si="3"/>
-        <v>15.75</v>
-      </c>
-      <c r="S15" s="51">
-        <f t="shared" si="3"/>
-        <v>13.5</v>
-      </c>
-      <c r="T15" s="51">
-        <f t="shared" si="3"/>
-        <v>11.25</v>
-      </c>
-      <c r="U15" s="51">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="V15" s="51">
-        <f t="shared" si="3"/>
-        <v>6.75</v>
-      </c>
-      <c r="W15" s="51">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="X15" s="51">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="Y15" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="49"/>
-    </row>
-    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="41">
-        <v>45755</v>
-      </c>
-      <c r="G17" s="41">
-        <v>45756</v>
-      </c>
-      <c r="H17" s="41">
-        <v>45757</v>
-      </c>
-      <c r="I17" s="41">
-        <v>45758</v>
-      </c>
-      <c r="J17" s="41">
-        <v>45759</v>
-      </c>
-      <c r="K17" s="41">
-        <v>45760</v>
-      </c>
-      <c r="L17" s="41">
-        <v>45761</v>
-      </c>
-      <c r="M17" s="41">
-        <v>45762</v>
-      </c>
-      <c r="N17" s="41">
-        <v>45763</v>
-      </c>
-      <c r="O17" s="41">
-        <v>45764</v>
-      </c>
-      <c r="P17" s="41">
-        <v>45765</v>
-      </c>
-      <c r="Q17" s="41">
-        <v>45766</v>
-      </c>
-      <c r="R17" s="41">
-        <v>45767</v>
-      </c>
-      <c r="S17" s="41">
-        <v>45768</v>
-      </c>
-      <c r="T17" s="41">
-        <v>45769</v>
-      </c>
-      <c r="U17" s="41">
-        <v>45770</v>
-      </c>
-      <c r="V17" s="41">
-        <v>45771</v>
-      </c>
-      <c r="W17" s="41">
-        <v>45772</v>
-      </c>
-      <c r="X17" s="41">
-        <v>45773</v>
-      </c>
-      <c r="Y17" s="41">
-        <v>45774</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="43">
-        <v>9</v>
-      </c>
-      <c r="F18" s="43">
-        <v>1</v>
-      </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="44">
-        <f>E18-SUM(F18:Y18)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="43">
-        <v>9</v>
-      </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="44">
-        <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="43">
-        <v>9</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43">
-        <v>1</v>
-      </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="44">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="43">
-        <v>9</v>
-      </c>
-      <c r="F21" s="43">
-        <v>1</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="44">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="43">
-        <v>9</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="44">
-        <f>E22-SUM(F22:Y22)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="50">
-        <f>SUM(E18:E22)</f>
-        <v>45</v>
-      </c>
-      <c r="F23" s="50">
-        <f t="shared" ref="F23:Y23" si="5">SUM(F18:F22)</f>
-        <v>2</v>
-      </c>
-      <c r="G23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="50">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="50">
-        <f>SUM(Z18:Z22)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D24" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="51">
-        <f>E23</f>
-        <v>45</v>
-      </c>
-      <c r="F24" s="51">
-        <f>E24-F23</f>
-        <v>43</v>
-      </c>
-      <c r="G24" s="51">
-        <f t="shared" ref="G24:Y24" si="6">F24-G23</f>
-        <v>43</v>
-      </c>
-      <c r="H24" s="51">
-        <f t="shared" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="I24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="J24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="K24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="L24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="M24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="N24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="O24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="P24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="Q24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="R24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="S24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="T24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="U24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="V24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="W24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="X24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="Y24" s="51">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="Z24" s="42"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D25" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="51">
-        <f>E23</f>
-        <v>45</v>
-      </c>
-      <c r="F25" s="51">
-        <f>$E$25-F2*$E$25/COUNT($F$3:$Y$3)</f>
-        <v>42.75</v>
-      </c>
-      <c r="G25" s="51">
-        <f t="shared" ref="G25:Y25" si="7">$E$25-G2*$E$25/COUNT($F$3:$Y$3)</f>
-        <v>40.5</v>
-      </c>
-      <c r="H25" s="51">
-        <f t="shared" si="7"/>
-        <v>38.25</v>
-      </c>
-      <c r="I25" s="51">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="J25" s="51">
-        <f t="shared" si="7"/>
-        <v>33.75</v>
-      </c>
-      <c r="K25" s="51">
-        <f t="shared" si="7"/>
-        <v>31.5</v>
-      </c>
-      <c r="L25" s="51">
-        <f t="shared" si="7"/>
-        <v>29.25</v>
-      </c>
-      <c r="M25" s="51">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="N25" s="51">
-        <f t="shared" si="7"/>
-        <v>24.75</v>
-      </c>
-      <c r="O25" s="51">
-        <f t="shared" si="7"/>
-        <v>22.5</v>
-      </c>
-      <c r="P25" s="51">
-        <f t="shared" si="7"/>
-        <v>20.25</v>
-      </c>
-      <c r="Q25" s="51">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="R25" s="51">
-        <f t="shared" si="7"/>
-        <v>15.75</v>
-      </c>
-      <c r="S25" s="51">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
-      </c>
-      <c r="T25" s="51">
-        <f t="shared" si="7"/>
-        <v>11.25</v>
-      </c>
-      <c r="U25" s="51">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="V25" s="51">
-        <f t="shared" si="7"/>
-        <v>6.75</v>
-      </c>
-      <c r="W25" s="51">
-        <f t="shared" si="7"/>
-        <v>4.5</v>
-      </c>
-      <c r="X25" s="51">
-        <f t="shared" si="7"/>
-        <v>2.25</v>
-      </c>
-      <c r="Y25" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="42"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="54"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5681,7 +6190,7 @@
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D18:D22 E4:Z12 E25 E18:Z24 E15:Y15 F25:Z26" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
+    <dataValidation type="list" allowBlank="1" sqref="D18:D22 F25:Z26 E25 E4:E6 E15:Y15 F4:Z12 E18:Z24" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
       <formula1>$G$3:$L$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0B46EF-50B9-4232-B74E-B5BE58F5DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71607B6-4E74-4AD1-8301-F3792795DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>TASK</t>
   </si>
@@ -660,7 +660,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -777,15 +777,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -795,23 +786,16 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,33 +836,39 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2686,49 +2676,49 @@
                   <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>215</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3990,27 +3980,27 @@
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="65" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="65" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="65" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="65" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4026,7 +4016,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A2" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:M14"/>
     </sheetView>
   </sheetViews>
@@ -4114,7 +4104,7 @@
       <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="66" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4133,7 +4123,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4153,7 +4143,7 @@
         <v>45755</v>
       </c>
       <c r="G6" s="31">
-        <f t="shared" ref="G6:M14" si="0">IF(ISBLANK($D6),0,IF($E6=G$4,$D6-$C6+1,0))</f>
+        <f t="shared" ref="G6:L14" si="0">IF(ISBLANK($D6),0,IF($E6=G$4,$D6-$C6+1,0))</f>
         <v>1</v>
       </c>
       <c r="H6" s="31">
@@ -4181,7 +4171,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4227,7 +4217,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="69" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4275,7 +4265,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4321,7 +4311,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
@@ -4415,7 +4405,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4463,7 +4453,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4574,7 +4564,7 @@
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="55"/>
+      <c r="D16" s="49"/>
     </row>
     <row r="19" spans="2:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -4605,42 +4595,30 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="41">
         <v>45774</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="42">
         <v>0.25</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
@@ -4665,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4755,724 +4733,728 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="56">
         <v>45755</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="56">
         <v>45756</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="56">
         <v>45757</v>
       </c>
-      <c r="I3" s="62">
+      <c r="I3" s="56">
         <v>45758</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="56">
         <v>45759</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="56">
         <v>45760</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="56">
         <v>45761</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="56">
         <v>45762</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="56">
         <v>45763</v>
       </c>
-      <c r="O3" s="62">
+      <c r="O3" s="56">
         <v>45764</v>
       </c>
-      <c r="P3" s="62">
+      <c r="P3" s="56">
         <v>45765</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="56">
         <v>45766</v>
       </c>
-      <c r="R3" s="62">
+      <c r="R3" s="56">
         <v>45767</v>
       </c>
-      <c r="S3" s="62">
+      <c r="S3" s="56">
         <v>45768</v>
       </c>
-      <c r="T3" s="62">
+      <c r="T3" s="56">
         <v>45769</v>
       </c>
-      <c r="U3" s="62">
+      <c r="U3" s="56">
         <v>45770</v>
       </c>
-      <c r="V3" s="62">
+      <c r="V3" s="56">
         <v>45771</v>
       </c>
-      <c r="W3" s="62">
+      <c r="W3" s="56">
         <v>45772</v>
       </c>
-      <c r="X3" s="62">
+      <c r="X3" s="56">
         <v>45773</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="56">
         <v>45774</v>
       </c>
-      <c r="Z3" s="61" t="s">
+      <c r="Z3" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="59">
         <v>45755</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="50">
         <v>45755</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="51">
         <v>0.5</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="52">
         <v>0.5</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51">
         <f>E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="59">
         <v>45755</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="50">
         <v>45755</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="51">
         <v>3</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="52">
         <v>3</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51">
         <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="59">
         <v>45756</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="50">
         <v>45757</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="51">
         <v>1</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="52">
         <v>1</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="72"/>
+      <c r="B7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="59">
         <v>45757</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="50">
         <v>45762</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="53">
         <v>35</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52">
+        <v>3</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="59">
+        <v>45759</v>
+      </c>
+      <c r="D8" s="50">
+        <v>45763</v>
+      </c>
+      <c r="E8" s="53">
+        <v>30</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="59">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="50">
+        <v>45769</v>
+      </c>
+      <c r="E9" s="53">
+        <v>50</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="59">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="50">
+        <v>45767</v>
+      </c>
+      <c r="E10" s="53">
+        <v>30</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="59">
+        <v>45765</v>
+      </c>
+      <c r="D11" s="50">
+        <v>45770</v>
+      </c>
+      <c r="E11" s="53">
+        <v>35</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="65">
-        <v>45759</v>
-      </c>
-      <c r="D8" s="56">
-        <v>45763</v>
-      </c>
-      <c r="E8" s="59">
-        <v>30</v>
-      </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="65">
-        <v>45762</v>
-      </c>
-      <c r="D9" s="56">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="59">
         <v>45769</v>
       </c>
-      <c r="E9" s="59">
-        <v>50</v>
-      </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="65">
-        <v>45763</v>
-      </c>
-      <c r="D10" s="56">
-        <v>45767</v>
-      </c>
-      <c r="E10" s="59">
-        <v>30</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="65">
-        <v>45765</v>
-      </c>
-      <c r="D11" s="56">
-        <v>45770</v>
-      </c>
-      <c r="E11" s="59">
+      <c r="D12" s="50">
+        <v>45774</v>
+      </c>
+      <c r="E12" s="53">
         <v>35</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57">
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="65">
-        <v>45769</v>
-      </c>
-      <c r="D12" s="56">
-        <v>45774</v>
-      </c>
-      <c r="E12" s="59">
-        <v>35</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="62">
         <f>SUM(E4:E12)</f>
         <v>219.5</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="62">
         <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
         <v>4.5</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="70">
+        <v>1</v>
+      </c>
+      <c r="L13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="70">
+        <v>3</v>
+      </c>
+      <c r="M13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="70">
+      <c r="N13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="70">
+      <c r="O13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="70">
+      <c r="P13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="70">
+      <c r="Q13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="70">
+      <c r="R13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="70">
+      <c r="S13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="70">
+      <c r="T13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="70">
+      <c r="U13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="70">
+      <c r="V13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="70">
+      <c r="W13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="70">
+      <c r="X13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="70">
+      <c r="Y13" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="70">
+      <c r="Z13" s="62">
         <f>SUM(Z4:Z12)</f>
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="68"/>
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="62">
         <f>E13</f>
         <v>219.5</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="62">
         <f>E14-F13</f>
         <v>215</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="62">
         <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
         <v>215</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="62">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="62">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="62">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="L14" s="70">
+        <v>214</v>
+      </c>
+      <c r="L14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="M14" s="70">
+        <v>211</v>
+      </c>
+      <c r="M14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="N14" s="70">
+        <v>211</v>
+      </c>
+      <c r="N14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="O14" s="70">
+        <v>211</v>
+      </c>
+      <c r="O14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="P14" s="70">
+        <v>211</v>
+      </c>
+      <c r="P14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="Q14" s="70">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="R14" s="70">
+        <v>211</v>
+      </c>
+      <c r="R14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="S14" s="70">
+        <v>211</v>
+      </c>
+      <c r="S14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="T14" s="70">
+        <v>211</v>
+      </c>
+      <c r="T14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="U14" s="70">
+        <v>211</v>
+      </c>
+      <c r="U14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="V14" s="70">
+        <v>211</v>
+      </c>
+      <c r="V14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="W14" s="70">
+        <v>211</v>
+      </c>
+      <c r="W14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="X14" s="70">
+        <v>211</v>
+      </c>
+      <c r="X14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="Y14" s="70">
+        <v>211</v>
+      </c>
+      <c r="Y14" s="62">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="51">
         <f>E13</f>
         <v>219.5</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="51">
         <f>$E$15-F2*$E$15/COUNT($F$3:$Y$3)</f>
         <v>208.52500000000001</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="51">
         <f t="shared" ref="G15:Y15" si="3">$E$15-G2*$E$15/COUNT($F$3:$Y$3)</f>
         <v>197.55</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="51">
         <f t="shared" si="3"/>
         <v>186.57499999999999</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="51">
         <f t="shared" si="3"/>
         <v>175.6</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="51">
         <f t="shared" si="3"/>
         <v>164.625</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="51">
         <f t="shared" si="3"/>
         <v>153.65</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="51">
         <f t="shared" si="3"/>
         <v>142.67500000000001</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="51">
         <f t="shared" si="3"/>
         <v>131.69999999999999</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="51">
         <f t="shared" si="3"/>
         <v>120.72499999999999</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="51">
         <f t="shared" si="3"/>
         <v>109.75</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="51">
         <f t="shared" si="3"/>
         <v>98.775000000000006</v>
       </c>
-      <c r="Q15" s="57">
+      <c r="Q15" s="51">
         <f t="shared" si="3"/>
         <v>87.800000000000011</v>
       </c>
-      <c r="R15" s="57">
+      <c r="R15" s="51">
         <f t="shared" si="3"/>
         <v>76.824999999999989</v>
       </c>
-      <c r="S15" s="57">
+      <c r="S15" s="51">
         <f t="shared" si="3"/>
         <v>65.849999999999994</v>
       </c>
-      <c r="T15" s="57">
+      <c r="T15" s="51">
         <f t="shared" si="3"/>
         <v>54.875</v>
       </c>
-      <c r="U15" s="57">
+      <c r="U15" s="51">
         <f t="shared" si="3"/>
         <v>43.900000000000006</v>
       </c>
-      <c r="V15" s="57">
+      <c r="V15" s="51">
         <f t="shared" si="3"/>
         <v>32.925000000000011</v>
       </c>
-      <c r="W15" s="57">
+      <c r="W15" s="51">
         <f t="shared" si="3"/>
         <v>21.949999999999989</v>
       </c>
-      <c r="X15" s="57">
+      <c r="X15" s="51">
         <f t="shared" si="3"/>
         <v>10.974999999999994</v>
       </c>
-      <c r="Y15" s="57">
+      <c r="Y15" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5480,515 +5462,518 @@
     </row>
     <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="56">
         <v>45755</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="56">
         <v>45756</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="56">
         <v>45757</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="56">
         <v>45758</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="56">
         <v>45759</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="56">
         <v>45760</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="56">
         <v>45761</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="56">
         <v>45762</v>
       </c>
-      <c r="N17" s="62">
+      <c r="N17" s="56">
         <v>45763</v>
       </c>
-      <c r="O17" s="62">
+      <c r="O17" s="56">
         <v>45764</v>
       </c>
-      <c r="P17" s="62">
+      <c r="P17" s="56">
         <v>45765</v>
       </c>
-      <c r="Q17" s="62">
+      <c r="Q17" s="56">
         <v>45766</v>
       </c>
-      <c r="R17" s="62">
+      <c r="R17" s="56">
         <v>45767</v>
       </c>
-      <c r="S17" s="62">
+      <c r="S17" s="56">
         <v>45768</v>
       </c>
-      <c r="T17" s="62">
+      <c r="T17" s="56">
         <v>45769</v>
       </c>
-      <c r="U17" s="62">
+      <c r="U17" s="56">
         <v>45770</v>
       </c>
-      <c r="V17" s="62">
+      <c r="V17" s="56">
         <v>45771</v>
       </c>
-      <c r="W17" s="62">
+      <c r="W17" s="56">
         <v>45772</v>
       </c>
-      <c r="X17" s="62">
+      <c r="X17" s="56">
         <v>45773</v>
       </c>
-      <c r="Y17" s="62">
+      <c r="Y17" s="56">
         <v>45774</v>
       </c>
-      <c r="Z17" s="61" t="s">
+      <c r="Z17" s="55" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="51">
         <v>30.1</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="52">
         <v>0.1</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57">
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51">
         <f>E18-SUM(F18:Y18)</f>
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="51">
         <v>68.099999999999994</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="52">
         <v>3.1</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57">
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="51">
         <v>30.1</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="52">
         <v>0.1</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="51">
         <v>61.1</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57">
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="51">
         <v>30.1</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="52">
         <v>0.1</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57">
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52">
+        <v>1</v>
+      </c>
+      <c r="L22" s="52">
+        <v>3</v>
+      </c>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51">
         <f>E22-SUM(F22:Y22)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="51">
         <f>SUM(E18:E22)</f>
         <v>219.49999999999997</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="51">
         <f t="shared" ref="F23:Y23" si="5">SUM(F18:F22)</f>
         <v>4.5</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="57">
+      <c r="J23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="57">
+      <c r="K23" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="57">
+        <v>1</v>
+      </c>
+      <c r="L23" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="57">
+        <v>3</v>
+      </c>
+      <c r="M23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P23" s="57">
+      <c r="P23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="57">
+      <c r="Q23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R23" s="57">
+      <c r="R23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S23" s="57">
+      <c r="S23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="57">
+      <c r="T23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="57">
+      <c r="U23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V23" s="57">
+      <c r="V23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23" s="57">
+      <c r="W23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X23" s="57">
+      <c r="X23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="57">
+      <c r="Y23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="57">
+      <c r="Z23" s="51">
         <f>SUM(Z18:Z22)</f>
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="51">
         <f>E23</f>
         <v>219.49999999999997</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="51">
         <f>E24-F23</f>
         <v>214.99999999999997</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="51">
         <f t="shared" ref="G24:Y24" si="6">F24-G23</f>
         <v>214.99999999999997</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="51">
         <f t="shared" si="6"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="51">
         <f t="shared" si="6"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="51">
         <f t="shared" si="6"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="L24" s="57">
+        <v>213.99999999999997</v>
+      </c>
+      <c r="L24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="M24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="M24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="N24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="N24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="O24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="O24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="P24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="P24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="Q24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="Q24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="R24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="R24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="S24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="S24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="T24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="T24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="U24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="U24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="V24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="V24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="W24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="W24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="X24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="X24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
-      </c>
-      <c r="Y24" s="57">
+        <v>210.99999999999997</v>
+      </c>
+      <c r="Y24" s="51">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
+        <v>210.99999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="51">
         <f>E23</f>
         <v>219.49999999999997</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="51">
         <f>$E$25-F2*$E$25/COUNT($F$3:$Y$3)</f>
         <v>208.52499999999998</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="51">
         <f t="shared" ref="G25:Y25" si="7">$E$25-G2*$E$25/COUNT($F$3:$Y$3)</f>
         <v>197.54999999999998</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="51">
         <f t="shared" si="7"/>
         <v>186.57499999999999</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="51">
         <f t="shared" si="7"/>
         <v>175.59999999999997</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="51">
         <f t="shared" si="7"/>
         <v>164.625</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="51">
         <f t="shared" si="7"/>
         <v>153.64999999999998</v>
       </c>
-      <c r="L25" s="57">
+      <c r="L25" s="51">
         <f t="shared" si="7"/>
         <v>142.67499999999998</v>
       </c>
-      <c r="M25" s="57">
+      <c r="M25" s="51">
         <f t="shared" si="7"/>
         <v>131.69999999999999</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N25" s="51">
         <f t="shared" si="7"/>
         <v>120.72499999999998</v>
       </c>
-      <c r="O25" s="57">
+      <c r="O25" s="51">
         <f t="shared" si="7"/>
         <v>109.75</v>
       </c>
-      <c r="P25" s="57">
+      <c r="P25" s="51">
         <f t="shared" si="7"/>
         <v>98.774999999999991</v>
       </c>
-      <c r="Q25" s="57">
+      <c r="Q25" s="51">
         <f t="shared" si="7"/>
         <v>87.799999999999983</v>
       </c>
-      <c r="R25" s="57">
+      <c r="R25" s="51">
         <f t="shared" si="7"/>
         <v>76.824999999999989</v>
       </c>
-      <c r="S25" s="57">
+      <c r="S25" s="51">
         <f t="shared" si="7"/>
         <v>65.849999999999994</v>
       </c>
-      <c r="T25" s="57">
+      <c r="T25" s="51">
         <f t="shared" si="7"/>
         <v>54.875</v>
       </c>
-      <c r="U25" s="57">
+      <c r="U25" s="51">
         <f t="shared" si="7"/>
         <v>43.900000000000006</v>
       </c>
-      <c r="V25" s="57">
+      <c r="V25" s="51">
         <f t="shared" si="7"/>
         <v>32.924999999999983</v>
       </c>
-      <c r="W25" s="57">
+      <c r="W25" s="51">
         <f t="shared" si="7"/>
         <v>21.949999999999989</v>
       </c>
-      <c r="X25" s="57">
+      <c r="X25" s="51">
         <f t="shared" si="7"/>
         <v>10.975000000000023</v>
       </c>
-      <c r="Y25" s="57">
+      <c r="Y25" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6023,7 +6008,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="65" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6033,7 +6018,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6058,7 +6043,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="65" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6093,7 +6078,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="65" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6119,67 +6104,66 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="54"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="74" t="s">
+      <c r="E53" s="48"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="65" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="68"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B56" s="73"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="74" t="s">
+    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="65" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71607B6-4E74-4AD1-8301-F3792795DC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4BB7C-A38B-43DF-B810-9920EC0D21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -868,7 +868,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2682,43 +2681,43 @@
                   <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>211</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,8 +4644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4964,7 +4963,9 @@
       <c r="L7" s="52">
         <v>3</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="52">
+        <v>1</v>
+      </c>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
@@ -4979,7 +4980,7 @@
       <c r="Y7" s="51"/>
       <c r="Z7" s="51">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -5221,7 +5222,7 @@
       </c>
       <c r="M13" s="62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="62">
         <f t="shared" si="1"/>
@@ -5273,7 +5274,7 @@
       </c>
       <c r="Z13" s="62">
         <f>SUM(Z4:Z12)</f>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5318,55 +5319,55 @@
       </c>
       <c r="M14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y14" s="62">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5650,7 +5651,9 @@
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="M21" s="52">
+        <v>1</v>
+      </c>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
@@ -5665,7 +5668,7 @@
       <c r="Y21" s="51"/>
       <c r="Z21" s="51">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5744,7 +5747,7 @@
       </c>
       <c r="M23" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="51">
         <f t="shared" si="5"/>
@@ -5796,7 +5799,7 @@
       </c>
       <c r="Z23" s="51">
         <f>SUM(Z18:Z22)</f>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5837,55 +5840,55 @@
       </c>
       <c r="M24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="N24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="O24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="P24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="R24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="S24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="T24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="U24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="V24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="W24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="X24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="Y24" s="51">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
@@ -6022,72 +6025,73 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="68"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -6130,7 +6134,6 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="73"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C4BB7C-A38B-43DF-B810-9920EC0D21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382006B-5B94-4E9D-B0FE-EA2416B0DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -809,9 +809,6 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,6 +864,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2684,40 +2687,40 @@
                   <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>210</c:v>
+                  <c:v>209.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,27 +3982,27 @@
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4103,7 +4106,7 @@
       <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="65" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4122,7 +4125,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4170,7 +4173,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4216,7 +4219,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4264,7 +4267,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4310,7 +4313,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
@@ -4404,7 +4407,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4452,7 +4455,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4644,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4732,93 +4735,93 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>45755</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="55">
         <v>45756</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="55">
         <v>45757</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="55">
         <v>45758</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="55">
         <v>45759</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="55">
         <v>45760</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="55">
         <v>45761</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="55">
         <v>45762</v>
       </c>
-      <c r="N3" s="56">
+      <c r="N3" s="55">
         <v>45763</v>
       </c>
-      <c r="O3" s="56">
+      <c r="O3" s="55">
         <v>45764</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="55">
         <v>45765</v>
       </c>
-      <c r="Q3" s="56">
+      <c r="Q3" s="55">
         <v>45766</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="55">
         <v>45767</v>
       </c>
-      <c r="S3" s="56">
+      <c r="S3" s="55">
         <v>45768</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="55">
         <v>45769</v>
       </c>
-      <c r="U3" s="56">
+      <c r="U3" s="55">
         <v>45770</v>
       </c>
-      <c r="V3" s="56">
+      <c r="V3" s="55">
         <v>45771</v>
       </c>
-      <c r="W3" s="56">
+      <c r="W3" s="55">
         <v>45772</v>
       </c>
-      <c r="X3" s="56">
+      <c r="X3" s="55">
         <v>45773</v>
       </c>
-      <c r="Y3" s="56">
+      <c r="Y3" s="55">
         <v>45774</v>
       </c>
-      <c r="Z3" s="55" t="s">
+      <c r="Z3" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="58">
         <v>45755</v>
       </c>
       <c r="D4" s="50">
@@ -4827,39 +4830,39 @@
       <c r="E4" s="51">
         <v>0.5</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="72">
         <v>0.5</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
       <c r="Z4" s="51">
         <f>E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="58">
         <v>45755</v>
       </c>
       <c r="D5" s="50">
@@ -4868,41 +4871,41 @@
       <c r="E5" s="51">
         <v>3</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="72">
         <v>3</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
       <c r="Z5" s="51">
         <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="58">
         <v>45756</v>
       </c>
       <c r="D6" s="50">
@@ -4911,468 +4914,470 @@
       <c r="E6" s="51">
         <v>1</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="72">
         <v>1</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
       <c r="Z6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="58">
         <v>45757</v>
       </c>
       <c r="D7" s="50">
         <v>45762</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>35</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="72">
         <v>1</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="72">
         <v>3</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="72">
         <v>1</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="N7" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
       <c r="Z7" s="51">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="58">
         <v>45759</v>
       </c>
       <c r="D8" s="50">
         <v>45763</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <v>30</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
       <c r="Z8" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="58">
         <v>45762</v>
       </c>
       <c r="D9" s="50">
         <v>45769</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>50</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
       <c r="Z9" s="51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="58">
         <v>45763</v>
       </c>
       <c r="D10" s="50">
         <v>45767</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>30</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
       <c r="Z10" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="58">
         <v>45765</v>
       </c>
       <c r="D11" s="50">
         <v>45770</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="52">
         <v>35</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
       <c r="Z11" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="58">
         <v>45769</v>
       </c>
       <c r="D12" s="50">
         <v>45774</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="52">
         <v>35</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
       <c r="Z12" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="61">
         <f>SUM(E4:E12)</f>
         <v>219.5</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="61">
         <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
         <v>4.5</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="61">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="62">
+      <c r="P13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="62">
+      <c r="R13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="62">
+      <c r="S13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="62">
+      <c r="T13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="62">
+      <c r="U13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="62">
+      <c r="V13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="62">
+      <c r="W13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="62">
+      <c r="X13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="62">
+      <c r="Y13" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="62">
+      <c r="Z13" s="61">
         <f>SUM(Z4:Z12)</f>
-        <v>210</v>
+        <v>209.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+      <c r="A14" s="67"/>
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="61">
         <f>E13</f>
         <v>219.5</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="61">
         <f>E14-F13</f>
         <v>215</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="61">
         <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
         <v>215</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="61">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="61">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="61">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="61">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="61">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="N14" s="62">
+      <c r="N14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="O14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="O14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="P14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="P14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="Q14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="Q14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="R14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="R14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="S14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="S14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="T14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="T14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="U14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="U14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="V14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="V14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="W14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="W14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="X14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="X14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="Y14" s="62">
+        <v>209.75</v>
+      </c>
+      <c r="Y14" s="61">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>209.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="60" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="51">
@@ -5463,254 +5468,256 @@
     </row>
     <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="55">
         <v>45755</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="55">
         <v>45756</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="55">
         <v>45757</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="55">
         <v>45758</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="55">
         <v>45759</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="55">
         <v>45760</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="55">
         <v>45761</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="55">
         <v>45762</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="55">
         <v>45763</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="55">
         <v>45764</v>
       </c>
-      <c r="P17" s="56">
+      <c r="P17" s="55">
         <v>45765</v>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="55">
         <v>45766</v>
       </c>
-      <c r="R17" s="56">
+      <c r="R17" s="55">
         <v>45767</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="55">
         <v>45768</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="55">
         <v>45769</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="55">
         <v>45770</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="55">
         <v>45771</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="55">
         <v>45772</v>
       </c>
-      <c r="X17" s="56">
+      <c r="X17" s="55">
         <v>45773</v>
       </c>
-      <c r="Y17" s="56">
+      <c r="Y17" s="55">
         <v>45774</v>
       </c>
-      <c r="Z17" s="55" t="s">
+      <c r="Z17" s="54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="51">
         <v>30.1</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="72">
         <v>0.1</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
       <c r="Z18" s="51">
         <f>E18-SUM(F18:Y18)</f>
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="62" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="51">
         <v>68.099999999999994</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="72">
         <v>3.1</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="51">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="51">
         <v>30.1</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="72">
         <v>0.1</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
       <c r="Z20" s="51">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="51">
         <v>61.1</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="72">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="52">
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="72">
         <v>1</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
+      <c r="N21" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
       <c r="Z21" s="51">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="62" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="51">
         <v>30.1</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="72">
         <v>0.1</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52">
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="72">
         <v>1</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="72">
         <v>3</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
       <c r="Z22" s="51">
         <f>E22-SUM(F22:Y22)</f>
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="51">
@@ -5751,7 +5758,7 @@
       </c>
       <c r="N23" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O23" s="51">
         <f t="shared" si="5"/>
@@ -5799,11 +5806,11 @@
       </c>
       <c r="Z23" s="51">
         <f>SUM(Z18:Z22)</f>
-        <v>210</v>
+        <v>209.75</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="51">
@@ -5844,56 +5851,56 @@
       </c>
       <c r="N24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="O24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="P24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="R24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="S24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="T24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="U24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="V24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="W24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="X24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="Y24" s="51">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
+        <v>209.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="51">
@@ -6011,7 +6018,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6021,7 +6028,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="64" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6046,7 +6053,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="64" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6056,10 +6063,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="68"/>
+      <c r="B40" s="67"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6082,7 +6089,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6120,15 +6127,15 @@
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="68"/>
+      <c r="B55" s="67"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -6146,7 +6153,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="64" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C382006B-5B94-4E9D-B0FE-EA2416B0DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E2B22-CA4D-4CDC-AC32-7D573809401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,6 +853,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,12 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2690,37 +2690,37 @@
                   <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>209.75</c:v>
+                  <c:v>208.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,7 +4125,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="70" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4173,7 +4173,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4267,7 +4267,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
@@ -4407,7 +4407,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4455,7 +4455,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
@@ -4647,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="66" t="s">
@@ -4830,35 +4830,35 @@
       <c r="E4" s="51">
         <v>0.5</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="68">
         <v>0.5</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
       <c r="Z4" s="51">
         <f>E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>25</v>
       </c>
@@ -4871,35 +4871,35 @@
       <c r="E5" s="51">
         <v>3</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="68">
         <v>3</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
       <c r="Z5" s="51">
         <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="66" t="s">
@@ -4914,35 +4914,35 @@
       <c r="E6" s="51">
         <v>1</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="68">
         <v>1</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
       <c r="Z6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="59" t="s">
         <v>24</v>
       </c>
@@ -4955,41 +4955,43 @@
       <c r="E7" s="52">
         <v>35</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="72">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="68">
         <v>1</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="68">
         <v>3</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="68">
         <v>1</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="68">
         <v>0.25</v>
       </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
+      <c r="O7" s="68">
+        <v>1</v>
+      </c>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
       <c r="Z7" s="51">
         <f t="shared" si="0"/>
-        <v>29.75</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="59" t="s">
         <v>26</v>
       </c>
@@ -5002,26 +5004,26 @@
       <c r="E8" s="52">
         <v>30</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
       <c r="Z8" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5043,33 +5045,33 @@
       <c r="E9" s="52">
         <v>50</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
       <c r="Z9" s="51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="57" t="s">
@@ -5084,33 +5086,33 @@
       <c r="E10" s="52">
         <v>30</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
       <c r="Z10" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="59" t="s">
         <v>30</v>
       </c>
@@ -5123,26 +5125,26 @@
       <c r="E11" s="52">
         <v>35</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
       <c r="Z11" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5164,26 +5166,26 @@
       <c r="E12" s="52">
         <v>35</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
       <c r="Z12" s="51">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5235,7 +5237,7 @@
       </c>
       <c r="O13" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="61">
         <f t="shared" si="1"/>
@@ -5279,7 +5281,7 @@
       </c>
       <c r="Z13" s="61">
         <f>SUM(Z4:Z12)</f>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5332,47 +5334,47 @@
       </c>
       <c r="O14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="P14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="Q14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="R14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="S14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="T14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="U14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="V14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="W14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="X14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="Y14" s="61">
         <f t="shared" si="2"/>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5545,28 +5547,28 @@
       <c r="E18" s="51">
         <v>30.1</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="68">
         <v>0.1</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
       <c r="Z18" s="51">
         <f>E18-SUM(F18:Y18)</f>
         <v>30</v>
@@ -5579,28 +5581,28 @@
       <c r="E19" s="51">
         <v>68.099999999999994</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="68">
         <v>3.1</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
       <c r="Z19" s="51">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
         <v>65</v>
@@ -5613,28 +5615,28 @@
       <c r="E20" s="51">
         <v>30.1</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="68">
         <v>0.1</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
       <c r="Z20" s="51">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -5647,35 +5649,37 @@
       <c r="E21" s="51">
         <v>61.1</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="72">
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="68">
         <v>1</v>
       </c>
-      <c r="N21" s="72">
+      <c r="N21" s="68">
         <v>0.25</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="O21" s="68">
+        <v>1</v>
+      </c>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
       <c r="Z21" s="51">
         <f t="shared" si="4"/>
-        <v>58.75</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5685,32 +5689,32 @@
       <c r="E22" s="51">
         <v>30.1</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="68">
         <v>0.1</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="72">
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="68">
         <v>1</v>
       </c>
-      <c r="L22" s="72">
+      <c r="L22" s="68">
         <v>3</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
       <c r="Z22" s="51">
         <f>E22-SUM(F22:Y22)</f>
         <v>26</v>
@@ -5762,7 +5766,7 @@
       </c>
       <c r="O23" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="51">
         <f t="shared" si="5"/>
@@ -5806,7 +5810,7 @@
       </c>
       <c r="Z23" s="51">
         <f>SUM(Z18:Z22)</f>
-        <v>209.75</v>
+        <v>208.75</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5855,47 +5859,47 @@
       </c>
       <c r="O24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="P24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="R24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="S24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="T24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="U24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="V24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="W24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="X24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="Y24" s="51">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
+        <v>208.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4E2B22-CA4D-4CDC-AC32-7D573809401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BCB7D-8363-4196-893B-3E6AC031D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Gantt Chart and Task Dependencies #2</t>
   </si>
   <si>
-    <t>Model Main Business Process (BPMN) #5</t>
-  </si>
-  <si>
     <t>Front End</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Work divided by the whole team</t>
+  </si>
+  <si>
+    <t>Model Main Business Process and Features (BPMN) #5</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -1209,7 +1209,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -1329,7 +1329,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -1449,7 +1449,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -1569,7 +1569,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -1689,7 +1689,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -1809,7 +1809,7 @@
                     <c:v>SysML diagram for 15 FR. #4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Model Main Business Process (BPMN) #5</c:v>
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Implement Back-End Logic for Basic Features #8</c:v>
@@ -3978,32 +3978,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4018,14 +4018,14 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A2" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.69921875" customWidth="1"/>
     <col min="3" max="3" width="9.69921875" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.69921875" customWidth="1"/>
     <col min="5" max="5" width="11.3984375" customWidth="1"/>
@@ -4037,7 +4037,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -4107,7 +4107,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>23</v>
@@ -4315,7 +4315,7 @@
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71"/>
       <c r="B10" s="21" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C10" s="34">
         <v>45759</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="34">
         <v>45762</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="34">
         <v>45763</v>
@@ -4457,7 +4457,7 @@
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71"/>
       <c r="B13" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="34">
         <v>45765</v>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="34">
         <v>45769</v>
@@ -4647,14 +4647,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.8984375" customWidth="1"/>
-    <col min="2" max="2" width="43.09765625" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" customWidth="1"/>
     <col min="3" max="3" width="17.296875" customWidth="1"/>
     <col min="4" max="4" width="17.8984375" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
@@ -4664,7 +4664,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -4748,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="55">
         <v>45755</v>
@@ -4811,7 +4811,7 @@
         <v>45774</v>
       </c>
       <c r="Z3" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="66" t="s">
         <v>23</v>
@@ -4993,7 +4993,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="73"/>
       <c r="B8" s="59" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C8" s="58">
         <v>45759</v>
@@ -5031,10 +5031,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="58">
         <v>45762</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="58">
         <v>45763</v>
@@ -5114,7 +5114,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
       <c r="B11" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="58">
         <v>45765</v>
@@ -5152,10 +5152,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="58">
         <v>45769</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D13" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="61">
         <f>SUM(E4:E12)</f>
@@ -5287,10 +5287,10 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="67"/>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="61">
         <f>E13</f>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D15" s="60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="51">
         <f>E13</f>
@@ -5471,10 +5471,10 @@
     <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="D17" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="55">
         <v>45755</v>
@@ -5537,12 +5537,12 @@
         <v>45774</v>
       </c>
       <c r="Z17" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D18" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="51">
         <v>30.1</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D19" s="62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="51">
         <v>68.099999999999994</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D20" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="51">
         <v>30.1</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D21" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="51">
         <v>61.1</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D22" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="51">
         <v>30.1</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D23" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="51">
         <f>SUM(E18:E22)</f>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D24" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="51">
         <f>E23</f>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D25" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="51">
         <f>E23</f>
@@ -6018,113 +6018,113 @@
     </row>
     <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="67"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -6132,53 +6132,53 @@
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="67"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BCB7D-8363-4196-893B-3E6AC031D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C857E3-9834-471E-9EA7-875DD219405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -2690,37 +2690,37 @@
                   <c:v>209.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.75</c:v>
+                  <c:v>208.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,7 +4018,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -4647,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4973,7 +4973,7 @@
         <v>0.25</v>
       </c>
       <c r="O7" s="68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P7" s="69"/>
       <c r="Q7" s="69"/>
@@ -4987,7 +4987,7 @@
       <c r="Y7" s="69"/>
       <c r="Z7" s="51">
         <f t="shared" si="0"/>
-        <v>28.75</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="O13" s="61">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P13" s="61">
         <f t="shared" si="1"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="Z13" s="61">
         <f>SUM(Z4:Z12)</f>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5334,47 +5334,47 @@
       </c>
       <c r="O14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="P14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="Q14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="R14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="S14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="T14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="U14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="V14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="W14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="X14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="Y14" s="61">
         <f t="shared" si="2"/>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5665,7 +5665,7 @@
         <v>0.25</v>
       </c>
       <c r="O21" s="68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P21" s="69"/>
       <c r="Q21" s="69"/>
@@ -5679,7 +5679,7 @@
       <c r="Y21" s="69"/>
       <c r="Z21" s="51">
         <f t="shared" si="4"/>
-        <v>57.75</v>
+        <v>57.25</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="O23" s="51">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P23" s="51">
         <f t="shared" si="5"/>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="Z23" s="51">
         <f>SUM(Z18:Z22)</f>
-        <v>208.75</v>
+        <v>208.25</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5859,47 +5859,47 @@
       </c>
       <c r="O24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="P24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="Q24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="R24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="S24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="T24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="U24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="V24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="W24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="X24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="Y24" s="51">
         <f t="shared" si="6"/>
-        <v>208.74999999999997</v>
+        <v>208.24999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C857E3-9834-471E-9EA7-875DD219405A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7C9AA-CF44-4E67-B34F-7F9444A9B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,12 +806,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -835,9 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,6 +861,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2660,7 +2658,7 @@
             <c:numRef>
               <c:f>'BURNDOWN CHART'!$F$14:$Y$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>215</c:v>
@@ -2678,49 +2676,49 @@
                   <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>214</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>211</c:v>
+                  <c:v>205.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>209.75</c:v>
+                  <c:v>197.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.25</c:v>
+                  <c:v>194.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,7 +2821,7 @@
             <c:numRef>
               <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>208.52500000000001</c:v>
@@ -2978,7 +2976,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3982,27 +3980,27 @@
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="61" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4106,7 +4104,7 @@
       <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4125,7 +4123,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="67" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4173,7 +4171,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4219,7 +4217,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="67" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4267,7 +4265,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4313,7 +4311,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="21" t="s">
         <v>66</v>
       </c>
@@ -4407,7 +4405,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="67" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4455,7 +4453,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4647,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4735,734 +4733,740 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="53">
         <v>45755</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="53">
         <v>45756</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="53">
         <v>45757</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="53">
         <v>45758</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="53">
         <v>45759</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="53">
         <v>45760</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="53">
         <v>45761</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="53">
         <v>45762</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="53">
         <v>45763</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="53">
         <v>45764</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="53">
         <v>45765</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="53">
         <v>45766</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="53">
         <v>45767</v>
       </c>
-      <c r="S3" s="55">
+      <c r="S3" s="53">
         <v>45768</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="53">
         <v>45769</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="53">
         <v>45770</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="53">
         <v>45771</v>
       </c>
-      <c r="W3" s="55">
+      <c r="W3" s="53">
         <v>45772</v>
       </c>
-      <c r="X3" s="55">
+      <c r="X3" s="53">
         <v>45773</v>
       </c>
-      <c r="Y3" s="55">
+      <c r="Y3" s="53">
         <v>45774</v>
       </c>
-      <c r="Z3" s="54" t="s">
+      <c r="Z3" s="52" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="56">
         <v>45755</v>
       </c>
       <c r="D4" s="50">
         <v>45755</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="66">
         <v>0.5</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="65">
         <v>0.5</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="51">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66">
         <f>E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="56">
         <v>45755</v>
       </c>
       <c r="D5" s="50">
         <v>45755</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="66">
         <v>3</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="65">
         <v>3</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="51">
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66">
         <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="56">
         <v>45756</v>
       </c>
       <c r="D6" s="50">
         <v>45757</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="66">
         <v>1</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="65">
         <v>1</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="51">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="70"/>
+      <c r="B7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="56">
         <v>45757</v>
       </c>
       <c r="D7" s="50">
         <v>45762</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="73">
         <v>35</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="68">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="65">
         <v>1</v>
       </c>
-      <c r="L7" s="68">
-        <v>3</v>
-      </c>
-      <c r="M7" s="68">
-        <v>1</v>
-      </c>
-      <c r="N7" s="68">
+      <c r="L7" s="65">
+        <v>5.5</v>
+      </c>
+      <c r="M7" s="65">
+        <v>3.5</v>
+      </c>
+      <c r="N7" s="65">
         <v>0.25</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="65">
         <v>1.5</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="51">
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66">
         <f t="shared" si="0"/>
-        <v>28.25</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="56">
         <v>45759</v>
       </c>
       <c r="D8" s="50">
         <v>45763</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="73">
         <v>30</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="51">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="65">
+        <v>3</v>
+      </c>
+      <c r="L8" s="66"/>
+      <c r="M8" s="65">
+        <v>4</v>
+      </c>
+      <c r="N8" s="66"/>
+      <c r="O8" s="65">
+        <v>2</v>
+      </c>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="56">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="50">
+        <v>45769</v>
+      </c>
+      <c r="E9" s="73">
+        <v>50</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="56">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="50">
+        <v>45767</v>
+      </c>
+      <c r="E10" s="73">
+        <v>30</v>
+      </c>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="58">
-        <v>45762</v>
-      </c>
-      <c r="D9" s="50">
-        <v>45769</v>
-      </c>
-      <c r="E9" s="52">
-        <v>50</v>
-      </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="58">
-        <v>45763</v>
-      </c>
-      <c r="D10" s="50">
-        <v>45767</v>
-      </c>
-      <c r="E10" s="52">
-        <v>30</v>
-      </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="51">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="59" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>45765</v>
       </c>
       <c r="D11" s="50">
         <v>45770</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="73">
         <v>35</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="51">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="56">
         <v>45769</v>
       </c>
       <c r="D12" s="50">
         <v>45774</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="73">
         <v>35</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="51">
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="72">
         <f>SUM(E4:E12)</f>
         <v>219.5</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="72">
         <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
         <v>4.5</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="61">
+        <v>4</v>
+      </c>
+      <c r="L13" s="72">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M13" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="M13" s="72">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="61">
+        <v>7.5</v>
+      </c>
+      <c r="N13" s="72">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13" s="72">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="P13" s="61">
+        <v>3.5</v>
+      </c>
+      <c r="P13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="61">
+      <c r="Q13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="61">
+      <c r="R13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="61">
+      <c r="S13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="61">
+      <c r="T13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="61">
+      <c r="U13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="61">
+      <c r="V13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="61">
+      <c r="W13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="61">
+      <c r="X13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="61">
+      <c r="Y13" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="61">
+      <c r="Z13" s="72">
         <f>SUM(Z4:Z12)</f>
-        <v>208.25</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="64"/>
       <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="72">
         <f>E13</f>
         <v>219.5</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="72">
         <f>E14-F13</f>
         <v>215</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="72">
         <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
         <v>215</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="72">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="72">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="72">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="K14" s="61">
-        <f t="shared" si="2"/>
-        <v>214</v>
-      </c>
-      <c r="L14" s="61">
+      <c r="K14" s="72">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="M14" s="61">
+      <c r="L14" s="72">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="N14" s="61">
+        <v>205.5</v>
+      </c>
+      <c r="M14" s="72">
         <f t="shared" si="2"/>
-        <v>209.75</v>
-      </c>
-      <c r="O14" s="61">
+        <v>198</v>
+      </c>
+      <c r="N14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="P14" s="61">
+        <v>197.75</v>
+      </c>
+      <c r="O14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="Q14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="P14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="R14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="Q14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="S14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="R14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="T14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="S14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="U14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="T14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="V14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="U14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="W14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="V14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="X14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="W14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
-      </c>
-      <c r="Y14" s="61">
+        <v>194.25</v>
+      </c>
+      <c r="X14" s="72">
         <f t="shared" si="2"/>
-        <v>208.25</v>
+        <v>194.25</v>
+      </c>
+      <c r="Y14" s="72">
+        <f t="shared" si="2"/>
+        <v>194.25</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="66">
         <f>E13</f>
         <v>219.5</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="66">
         <f>$E$15-F2*$E$15/COUNT($F$3:$Y$3)</f>
         <v>208.52500000000001</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="66">
         <f t="shared" ref="G15:Y15" si="3">$E$15-G2*$E$15/COUNT($F$3:$Y$3)</f>
         <v>197.55</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="66">
         <f t="shared" si="3"/>
         <v>186.57499999999999</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="66">
         <f t="shared" si="3"/>
         <v>175.6</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="66">
         <f t="shared" si="3"/>
         <v>164.625</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="66">
         <f t="shared" si="3"/>
         <v>153.65</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="66">
         <f t="shared" si="3"/>
         <v>142.67500000000001</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="66">
         <f t="shared" si="3"/>
         <v>131.69999999999999</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="66">
         <f t="shared" si="3"/>
         <v>120.72499999999999</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="66">
         <f t="shared" si="3"/>
         <v>109.75</v>
       </c>
-      <c r="P15" s="51">
+      <c r="P15" s="66">
         <f t="shared" si="3"/>
         <v>98.775000000000006</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="66">
         <f t="shared" si="3"/>
         <v>87.800000000000011</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="66">
         <f t="shared" si="3"/>
         <v>76.824999999999989</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="66">
         <f t="shared" si="3"/>
         <v>65.849999999999994</v>
       </c>
-      <c r="T15" s="51">
+      <c r="T15" s="66">
         <f t="shared" si="3"/>
         <v>54.875</v>
       </c>
-      <c r="U15" s="51">
+      <c r="U15" s="66">
         <f t="shared" si="3"/>
         <v>43.900000000000006</v>
       </c>
-      <c r="V15" s="51">
+      <c r="V15" s="66">
         <f t="shared" si="3"/>
         <v>32.925000000000011</v>
       </c>
-      <c r="W15" s="51">
+      <c r="W15" s="66">
         <f t="shared" si="3"/>
         <v>21.949999999999989</v>
       </c>
-      <c r="X15" s="51">
+      <c r="X15" s="66">
         <f t="shared" si="3"/>
         <v>10.974999999999994</v>
       </c>
-      <c r="Y15" s="51">
+      <c r="Y15" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5470,524 +5474,536 @@
     </row>
     <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="53">
         <v>45755</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="53">
         <v>45756</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <v>45757</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>45758</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="53">
         <v>45759</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="53">
         <v>45760</v>
       </c>
-      <c r="L17" s="55">
+      <c r="L17" s="53">
         <v>45761</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="53">
         <v>45762</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="53">
         <v>45763</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="53">
         <v>45764</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="53">
         <v>45765</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="Q17" s="53">
         <v>45766</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="53">
         <v>45767</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="53">
         <v>45768</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="53">
         <v>45769</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="53">
         <v>45770</v>
       </c>
-      <c r="V17" s="55">
+      <c r="V17" s="53">
         <v>45771</v>
       </c>
-      <c r="W17" s="55">
+      <c r="W17" s="53">
         <v>45772</v>
       </c>
-      <c r="X17" s="55">
+      <c r="X17" s="53">
         <v>45773</v>
       </c>
-      <c r="Y17" s="55">
+      <c r="Y17" s="53">
         <v>45774</v>
       </c>
-      <c r="Z17" s="54" t="s">
+      <c r="Z17" s="52" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="66">
         <v>30.1</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="65">
         <v>0.1</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="51">
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="65">
+        <v>2.5</v>
+      </c>
+      <c r="M18" s="65">
+        <v>2.5</v>
+      </c>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66">
         <f>E18-SUM(F18:Y18)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="66">
         <v>68.099999999999994</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="65">
         <v>3.1</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="51">
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="66">
         <v>30.1</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="65">
         <v>0.1</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="51">
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="65">
+        <v>3</v>
+      </c>
+      <c r="L20" s="66"/>
+      <c r="M20" s="65">
+        <v>2</v>
+      </c>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="66">
         <v>61.1</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="65">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="68">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="65">
         <v>1</v>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="65">
         <v>0.25</v>
       </c>
-      <c r="O21" s="68">
+      <c r="O21" s="65">
         <v>1.5</v>
       </c>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="51">
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66">
         <f t="shared" si="4"/>
         <v>57.25</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="66">
         <v>30.1</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="65">
         <v>0.1</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="68">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="65">
         <v>1</v>
       </c>
-      <c r="L22" s="68">
+      <c r="L22" s="65">
         <v>3</v>
       </c>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="51">
+      <c r="M22" s="65">
+        <v>2</v>
+      </c>
+      <c r="N22" s="66"/>
+      <c r="O22" s="65">
+        <v>2</v>
+      </c>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66">
         <f>E22-SUM(F22:Y22)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="66">
         <f>SUM(E18:E22)</f>
         <v>219.49999999999997</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="66">
         <f t="shared" ref="F23:Y23" si="5">SUM(F18:F22)</f>
         <v>4.5</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="66">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="51">
+        <v>4</v>
+      </c>
+      <c r="L23" s="66">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="M23" s="51">
+        <v>5.5</v>
+      </c>
+      <c r="M23" s="66">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="51">
+        <v>7.5</v>
+      </c>
+      <c r="N23" s="66">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="66">
         <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="P23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R23" s="51">
+      <c r="R23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S23" s="51">
+      <c r="S23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="51">
+      <c r="T23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="51">
+      <c r="U23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V23" s="51">
+      <c r="V23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23" s="51">
+      <c r="W23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X23" s="51">
+      <c r="X23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="51">
+      <c r="Y23" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="51">
+      <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>208.25</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="66">
         <f>E23</f>
         <v>219.49999999999997</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="66">
         <f>E24-F23</f>
         <v>214.99999999999997</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="66">
         <f t="shared" ref="G24:Y24" si="6">F24-G23</f>
         <v>214.99999999999997</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="66">
         <f t="shared" si="6"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="66">
         <f t="shared" si="6"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="66">
         <f t="shared" si="6"/>
         <v>214.99999999999997</v>
       </c>
-      <c r="K24" s="51">
-        <f t="shared" si="6"/>
-        <v>213.99999999999997</v>
-      </c>
-      <c r="L24" s="51">
+      <c r="K24" s="66">
         <f t="shared" si="6"/>
         <v>210.99999999999997</v>
       </c>
-      <c r="M24" s="51">
+      <c r="L24" s="66">
         <f t="shared" si="6"/>
-        <v>209.99999999999997</v>
-      </c>
-      <c r="N24" s="51">
+        <v>205.49999999999997</v>
+      </c>
+      <c r="M24" s="66">
         <f t="shared" si="6"/>
-        <v>209.74999999999997</v>
-      </c>
-      <c r="O24" s="51">
+        <v>197.99999999999997</v>
+      </c>
+      <c r="N24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="P24" s="51">
+        <v>197.74999999999997</v>
+      </c>
+      <c r="O24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="Q24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="P24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="R24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="Q24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="S24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="R24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="T24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="U24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="V24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="W24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="X24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
-      </c>
-      <c r="Y24" s="51">
+        <v>194.24999999999997</v>
+      </c>
+      <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>208.24999999999997</v>
+        <v>194.24999999999997</v>
+      </c>
+      <c r="Y24" s="66">
+        <f t="shared" si="6"/>
+        <v>194.24999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="66">
         <f>E23</f>
         <v>219.49999999999997</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="66">
         <f>$E$25-F2*$E$25/COUNT($F$3:$Y$3)</f>
         <v>208.52499999999998</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="66">
         <f t="shared" ref="G25:Y25" si="7">$E$25-G2*$E$25/COUNT($F$3:$Y$3)</f>
         <v>197.54999999999998</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="66">
         <f t="shared" si="7"/>
         <v>186.57499999999999</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="66">
         <f t="shared" si="7"/>
         <v>175.59999999999997</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="66">
         <f t="shared" si="7"/>
         <v>164.625</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="66">
         <f t="shared" si="7"/>
         <v>153.64999999999998</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="66">
         <f t="shared" si="7"/>
         <v>142.67499999999998</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="66">
         <f t="shared" si="7"/>
         <v>131.69999999999999</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="66">
         <f t="shared" si="7"/>
         <v>120.72499999999998</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="66">
         <f t="shared" si="7"/>
         <v>109.75</v>
       </c>
-      <c r="P25" s="51">
+      <c r="P25" s="66">
         <f t="shared" si="7"/>
         <v>98.774999999999991</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="66">
         <f t="shared" si="7"/>
         <v>87.799999999999983</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R25" s="66">
         <f t="shared" si="7"/>
         <v>76.824999999999989</v>
       </c>
-      <c r="S25" s="51">
+      <c r="S25" s="66">
         <f t="shared" si="7"/>
         <v>65.849999999999994</v>
       </c>
-      <c r="T25" s="51">
+      <c r="T25" s="66">
         <f t="shared" si="7"/>
         <v>54.875</v>
       </c>
-      <c r="U25" s="51">
+      <c r="U25" s="66">
         <f t="shared" si="7"/>
         <v>43.900000000000006</v>
       </c>
-      <c r="V25" s="51">
+      <c r="V25" s="66">
         <f t="shared" si="7"/>
         <v>32.924999999999983</v>
       </c>
-      <c r="W25" s="51">
+      <c r="W25" s="66">
         <f t="shared" si="7"/>
         <v>21.949999999999989</v>
       </c>
-      <c r="X25" s="51">
+      <c r="X25" s="66">
         <f t="shared" si="7"/>
         <v>10.975000000000023</v>
       </c>
-      <c r="Y25" s="51">
+      <c r="Y25" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6022,7 +6038,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="61" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6032,7 +6048,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="61" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6042,9 +6058,10 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="64" t="s">
         <v>53</v>
       </c>
+      <c r="B34" s="64"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -6057,20 +6074,21 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="71" t="s">
         <v>51</v>
       </c>
+      <c r="B39" s="71"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="67"/>
+      <c r="B40" s="64"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6083,9 +6101,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="64" t="s">
         <v>55</v>
       </c>
+      <c r="B43" s="64"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -6093,14 +6112,15 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="71" t="s">
         <v>58</v>
       </c>
+      <c r="B47" s="71"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6131,20 +6151,21 @@
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="67"/>
+      <c r="B55" s="64"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="64" t="s">
         <v>53</v>
       </c>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -6157,7 +6178,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="61" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B7C9AA-CF44-4E67-B34F-7F9444A9B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A2A072-C409-42BC-B6B1-89D905DECB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,24 +850,24 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2688,37 +2688,37 @@
                   <c:v>197.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>194.25</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4123,7 +4123,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="70" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4171,7 +4171,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4217,7 +4217,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4265,7 +4265,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="21" t="s">
         <v>66</v>
       </c>
@@ -4405,7 +4405,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4453,7 +4453,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4813,7 +4813,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -4856,7 +4856,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="63" t="s">
         <v>25</v>
       </c>
@@ -4897,7 +4897,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="73" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -4940,7 +4940,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="57" t="s">
         <v>24</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="D7" s="50">
         <v>45762</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="69">
         <v>35</v>
       </c>
       <c r="F7" s="66"/>
@@ -4989,7 +4989,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="57" t="s">
         <v>66</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="D8" s="50">
         <v>45763</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="69">
         <v>30</v>
       </c>
       <c r="F8" s="66"/>
@@ -5046,7 +5046,7 @@
       <c r="D9" s="50">
         <v>45769</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="69">
         <v>50</v>
       </c>
       <c r="F9" s="66"/>
@@ -5075,7 +5075,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -5087,7 +5087,7 @@
       <c r="D10" s="50">
         <v>45767</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="69">
         <v>30</v>
       </c>
       <c r="F10" s="66"/>
@@ -5099,7 +5099,9 @@
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
+      <c r="O10" s="65">
+        <v>0.5</v>
+      </c>
       <c r="P10" s="66"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="66"/>
@@ -5112,11 +5114,11 @@
       <c r="Y10" s="66"/>
       <c r="Z10" s="66">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
@@ -5126,7 +5128,7 @@
       <c r="D11" s="50">
         <v>45770</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="69">
         <v>35</v>
       </c>
       <c r="F11" s="66"/>
@@ -5167,7 +5169,7 @@
       <c r="D12" s="50">
         <v>45774</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="69">
         <v>35</v>
       </c>
       <c r="F12" s="66"/>
@@ -5199,93 +5201,93 @@
       <c r="D13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="68">
         <f>SUM(E4:E12)</f>
         <v>219.5</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="68">
         <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
         <v>4.5</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="68">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="68">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="68">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="68">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="O13" s="72">
+      <c r="O13" s="68">
         <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="P13" s="72">
+        <v>4</v>
+      </c>
+      <c r="P13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="72">
+      <c r="Q13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="72">
+      <c r="R13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="72">
+      <c r="S13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="72">
+      <c r="T13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="72">
+      <c r="U13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V13" s="72">
+      <c r="V13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W13" s="72">
+      <c r="W13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X13" s="72">
+      <c r="X13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="72">
+      <c r="Y13" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="72">
+      <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>194.25</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5296,89 +5298,89 @@
       <c r="D14" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="68">
         <f>E13</f>
         <v>219.5</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="68">
         <f>E14-F13</f>
         <v>215</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="68">
         <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
         <v>215</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="68">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="68">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="68">
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="68">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="68">
         <f t="shared" si="2"/>
         <v>205.5</v>
       </c>
-      <c r="M14" s="72">
+      <c r="M14" s="68">
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="68">
         <f t="shared" si="2"/>
         <v>197.75</v>
       </c>
-      <c r="O14" s="72">
+      <c r="O14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="P14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="P14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="Q14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="Q14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="R14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="R14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="S14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="S14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="T14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="U14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="V14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="W14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="X14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
-      </c>
-      <c r="Y14" s="72">
+        <v>193.75</v>
+      </c>
+      <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>194.25</v>
+        <v>193.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5677,7 +5679,7 @@
         <v>0.25</v>
       </c>
       <c r="O21" s="65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P21" s="66"/>
       <c r="Q21" s="66"/>
@@ -5691,7 +5693,7 @@
       <c r="Y21" s="66"/>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>57.25</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5782,7 +5784,7 @@
       </c>
       <c r="O23" s="66">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P23" s="66">
         <f t="shared" si="5"/>
@@ -5826,7 +5828,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>194.25</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5875,47 +5877,47 @@
       </c>
       <c r="O24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="P24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="Q24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="R24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>194.24999999999997</v>
+        <v>193.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
@@ -6043,9 +6045,10 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="67" t="s">
         <v>61</v>
       </c>
+      <c r="B30" s="67"/>
     </row>
     <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
@@ -6079,10 +6082,10 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="71"/>
+      <c r="B39" s="67"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
@@ -6117,10 +6120,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="71"/>
+      <c r="B47" s="67"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6183,14 +6186,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="64" t="s">
         <v>52</v>
       </c>
+      <c r="B61" s="64"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="64" t="s">
         <v>53</v>
       </c>
+      <c r="B62" s="64"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A2A072-C409-42BC-B6B1-89D905DECB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A45EEB-B667-43E1-8312-2124C38A699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2691,34 +2691,34 @@
                   <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5018,7 +5018,9 @@
       <c r="O8" s="65">
         <v>2</v>
       </c>
-      <c r="P8" s="66"/>
+      <c r="P8" s="65">
+        <v>1</v>
+      </c>
       <c r="Q8" s="66"/>
       <c r="R8" s="66"/>
       <c r="S8" s="66"/>
@@ -5030,7 +5032,7 @@
       <c r="Y8" s="66"/>
       <c r="Z8" s="66">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -5247,7 +5249,7 @@
       </c>
       <c r="P13" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="68">
         <f t="shared" si="1"/>
@@ -5287,7 +5289,7 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5344,43 +5346,43 @@
       </c>
       <c r="P14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="Q14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="R14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="S14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5681,7 +5683,9 @@
       <c r="O21" s="65">
         <v>2</v>
       </c>
-      <c r="P21" s="66"/>
+      <c r="P21" s="65">
+        <v>1</v>
+      </c>
       <c r="Q21" s="66"/>
       <c r="R21" s="66"/>
       <c r="S21" s="66"/>
@@ -5693,7 +5697,7 @@
       <c r="Y21" s="66"/>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>56.75</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5788,7 +5792,7 @@
       </c>
       <c r="P23" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="66">
         <f t="shared" si="5"/>
@@ -5828,7 +5832,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5881,43 +5885,43 @@
       </c>
       <c r="P24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="Q24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="R24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A45EEB-B667-43E1-8312-2124C38A699A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1831EB16-5337-4697-842A-7601CEC2EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6098,9 +6098,10 @@
       <c r="B40" s="64"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="64" t="s">
         <v>53</v>
       </c>
+      <c r="B41" s="64"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfel\OneDrive\Desktop\MSP-24-25\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1831EB16-5337-4697-842A-7601CEC2EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA7E188-C46F-4582-BCD0-44C99DF5FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="BURNDOWN CHART" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="color">'GANTT CHART'!$E1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
-    <definedName name="color">'GANTT CHART'!$E1</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"project-timeline.xlsx"</definedName>
@@ -37,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -367,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6ADD6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +664,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -869,11 +873,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -983,6 +991,11 @@
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF6ADD6A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -997,7 +1010,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2495,7 +2508,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2685,40 +2698,40 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>197.75</c:v>
+                  <c:v>196.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>193.75</c:v>
+                  <c:v>192.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>192.75</c:v>
+                  <c:v>187.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4968,12 +4981,14 @@
         <v>3.5</v>
       </c>
       <c r="N7" s="65">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="O7" s="65">
         <v>1.5</v>
       </c>
-      <c r="P7" s="66"/>
+      <c r="P7" s="75">
+        <v>4</v>
+      </c>
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
       <c r="S7" s="66"/>
@@ -4985,7 +5000,7 @@
       <c r="Y7" s="66"/>
       <c r="Z7" s="66">
         <f t="shared" si="0"/>
-        <v>23.25</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -5241,7 +5256,7 @@
       </c>
       <c r="N13" s="68">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="O13" s="68">
         <f t="shared" si="1"/>
@@ -5249,7 +5264,7 @@
       </c>
       <c r="P13" s="68">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="68">
         <f t="shared" si="1"/>
@@ -5289,7 +5304,7 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5338,51 +5353,51 @@
       </c>
       <c r="N14" s="68">
         <f t="shared" si="2"/>
-        <v>197.75</v>
+        <v>196.75</v>
       </c>
       <c r="O14" s="68">
         <f t="shared" si="2"/>
-        <v>193.75</v>
+        <v>192.75</v>
       </c>
       <c r="P14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="Q14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="R14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="S14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5641,9 +5656,13 @@
       <c r="M20" s="65">
         <v>2</v>
       </c>
-      <c r="N20" s="66"/>
+      <c r="N20" s="75">
+        <v>1</v>
+      </c>
       <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
+      <c r="P20" s="75">
+        <v>4</v>
+      </c>
       <c r="Q20" s="66"/>
       <c r="R20" s="66"/>
       <c r="S20" s="66"/>
@@ -5655,7 +5674,7 @@
       <c r="Y20" s="66"/>
       <c r="Z20" s="66">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -5784,7 +5803,7 @@
       </c>
       <c r="N23" s="66">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="O23" s="66">
         <f t="shared" si="5"/>
@@ -5792,7 +5811,7 @@
       </c>
       <c r="P23" s="66">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="66">
         <f t="shared" si="5"/>
@@ -5832,7 +5851,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>192.75</v>
+        <v>187.75</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5877,51 +5896,51 @@
       </c>
       <c r="N24" s="66">
         <f t="shared" si="6"/>
-        <v>197.74999999999997</v>
+        <v>196.74999999999997</v>
       </c>
       <c r="O24" s="66">
         <f t="shared" si="6"/>
-        <v>193.74999999999997</v>
+        <v>192.74999999999997</v>
       </c>
       <c r="P24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="Q24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="R24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>187.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
@@ -6060,15 +6079,16 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="74" t="s">
         <v>52</v>
       </c>
+      <c r="B33" s="74"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="74"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfel\OneDrive\Desktop\MSP-24-25\msp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guipi\Documents\eu\SST_FCT_UNL_MIEI\5Ano\MSP\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA7E188-C46F-4582-BCD0-44C99DF5FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DE6C5-C1C9-46BE-A320-B30DD2BE8008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="BURNDOWN CHART" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
     <definedName name="color">'GANTT CHART'!$E1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"project-timeline.xlsx"</definedName>
@@ -861,27 +861,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1010,7 +1010,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2508,7 +2508,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2707,31 +2707,31 @@
                   <c:v>187.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.75</c:v>
+                  <c:v>187.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187.75</c:v>
+                  <c:v>185.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3985,34 +3985,34 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="61" t="s">
         <v>63</v>
       </c>
@@ -4033,20 +4033,20 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="47.69921875" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.8984375" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
     <col min="8" max="13" width="6" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -4135,8 +4135,8 @@
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4183,8 +4183,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4229,8 +4229,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4277,8 +4277,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="74"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4323,8 +4323,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="73"/>
       <c r="B10" s="21" t="s">
         <v>66</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>27</v>
       </c>
@@ -4417,8 +4417,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4465,8 +4465,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
@@ -4576,10 +4576,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="49"/>
     </row>
-    <row r="19" spans="2:5" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="40" t="s">
         <v>21</v>
       </c>
@@ -4621,19 +4621,19 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -4658,22 +4658,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
-    <col min="2" max="2" width="48.8984375" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" customWidth="1"/>
-    <col min="4" max="4" width="17.8984375" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="25" width="8.69921875" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="25" width="8.75" customWidth="1"/>
     <col min="26" max="26" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
       <c r="F2">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
@@ -4825,8 +4825,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -4868,8 +4868,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="75"/>
       <c r="B5" s="63" t="s">
         <v>25</v>
       </c>
@@ -4909,8 +4909,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -4952,8 +4952,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="75"/>
       <c r="B7" s="57" t="s">
         <v>24</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="O7" s="65">
         <v>1.5</v>
       </c>
-      <c r="P7" s="75">
+      <c r="P7" s="71">
         <v>4</v>
       </c>
       <c r="Q7" s="66"/>
@@ -5003,8 +5003,8 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
       <c r="B8" s="57" t="s">
         <v>66</v>
       </c>
@@ -5036,8 +5036,12 @@
       <c r="P8" s="65">
         <v>1</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="Q8" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="71">
+        <v>2</v>
+      </c>
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
       <c r="U8" s="66"/>
@@ -5047,10 +5051,10 @@
       <c r="Y8" s="66"/>
       <c r="Z8" s="66">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="54" t="s">
         <v>27</v>
       </c>
@@ -5091,8 +5095,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -5134,8 +5138,8 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
       <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
         <v>35</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D13" s="58" t="s">
         <v>45</v>
       </c>
@@ -5268,11 +5272,11 @@
       </c>
       <c r="Q13" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R13" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="68">
         <f t="shared" si="1"/>
@@ -5304,10 +5308,10 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>187.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="64"/>
       <c r="B14" t="s">
         <v>65</v>
@@ -5365,43 +5369,43 @@
       </c>
       <c r="Q14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>187.25</v>
       </c>
       <c r="R14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="S14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>185.25</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D15" s="58" t="s">
         <v>47</v>
       </c>
@@ -5491,7 +5495,7 @@
       </c>
       <c r="Z15" s="39"/>
     </row>
-    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="D17" s="52" t="s">
         <v>37</v>
@@ -5563,7 +5567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D18" s="59" t="s">
         <v>38</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D19" s="59" t="s">
         <v>39</v>
       </c>
@@ -5621,8 +5625,12 @@
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
       <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
+      <c r="Q19" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="71">
+        <v>2</v>
+      </c>
       <c r="S19" s="66"/>
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
@@ -5632,10 +5640,10 @@
       <c r="Y19" s="66"/>
       <c r="Z19" s="66">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>62.499999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D20" s="59" t="s">
         <v>40</v>
       </c>
@@ -5656,11 +5664,11 @@
       <c r="M20" s="65">
         <v>2</v>
       </c>
-      <c r="N20" s="75">
+      <c r="N20" s="71">
         <v>1</v>
       </c>
       <c r="O20" s="66"/>
-      <c r="P20" s="75">
+      <c r="P20" s="71">
         <v>4</v>
       </c>
       <c r="Q20" s="66"/>
@@ -5677,7 +5685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D21" s="59" t="s">
         <v>41</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D22" s="59" t="s">
         <v>42</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D23" s="60" t="s">
         <v>45</v>
       </c>
@@ -5815,11 +5823,11 @@
       </c>
       <c r="Q23" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="66">
         <f t="shared" si="5"/>
@@ -5851,10 +5859,10 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>187.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D24" s="60" t="s">
         <v>46</v>
       </c>
@@ -5908,43 +5916,43 @@
       </c>
       <c r="Q24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>187.24999999999997</v>
       </c>
       <c r="R24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>185.24999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D25" s="60" t="s">
         <v>47</v>
       </c>
@@ -6034,7 +6042,7 @@
       </c>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -6057,177 +6065,178 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="67" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="67"/>
     </row>
-    <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="74"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="B33" s="70"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="74"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="70"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="67" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="67"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="64"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="64"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="64" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="64"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="67" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="67"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="64"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
     </row>
-    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="64"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="64"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="64"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="64"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>56</v>
       </c>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guipi\Documents\eu\SST_FCT_UNL_MIEI\5Ano\MSP\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6DE6C5-C1C9-46BE-A320-B30DD2BE8008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFAA03-E139-4815-BAE9-FDAFA94D5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2713,25 +2713,25 @@
                   <c:v>185.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>185.25</c:v>
+                  <c:v>179.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,8 +4658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4991,7 +4991,9 @@
       </c>
       <c r="Q7" s="66"/>
       <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
+      <c r="S7" s="71">
+        <v>5.5</v>
+      </c>
       <c r="T7" s="66"/>
       <c r="U7" s="66"/>
       <c r="V7" s="66"/>
@@ -5000,7 +5002,7 @@
       <c r="Y7" s="66"/>
       <c r="Z7" s="66">
         <f t="shared" si="0"/>
-        <v>18.25</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -5280,7 +5282,7 @@
       </c>
       <c r="S13" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T13" s="68">
         <f t="shared" si="1"/>
@@ -5308,7 +5310,7 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -5377,31 +5379,31 @@
       </c>
       <c r="S14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5631,7 +5633,9 @@
       <c r="R19" s="71">
         <v>2</v>
       </c>
-      <c r="S19" s="66"/>
+      <c r="S19" s="71">
+        <v>5.5</v>
+      </c>
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
@@ -5640,7 +5644,7 @@
       <c r="Y19" s="66"/>
       <c r="Z19" s="66">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
-        <v>62.499999999999993</v>
+        <v>56.999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -5831,7 +5835,7 @@
       </c>
       <c r="S23" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T23" s="66">
         <f t="shared" si="5"/>
@@ -5859,7 +5863,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>185.25</v>
+        <v>179.75</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -5924,31 +5928,31 @@
       </c>
       <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>179.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guipi\Documents\eu\SST_FCT_UNL_MIEI\5Ano\MSP\msp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFAA03-E139-4815-BAE9-FDAFA94D5535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43395FA-6D70-481A-A1F8-4CD8EACDB7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -1400,7 +1400,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
@@ -2674,64 +2674,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>215</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>215</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>211</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>205.5</c:v>
+                  <c:v>176.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>196.75</c:v>
+                  <c:v>167.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>192.75</c:v>
+                  <c:v>163.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>187.75</c:v>
+                  <c:v>151.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.25</c:v>
+                  <c:v>150.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>185.25</c:v>
+                  <c:v>148.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>179.75</c:v>
+                  <c:v>141.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,61 +2837,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>208.52500000000001</c:v>
+                  <c:v>180.97499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.55</c:v>
+                  <c:v>171.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186.57499999999999</c:v>
+                  <c:v>161.92500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>175.6</c:v>
+                  <c:v>152.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164.625</c:v>
+                  <c:v>142.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153.65</c:v>
+                  <c:v>133.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.67500000000001</c:v>
+                  <c:v>123.825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131.69999999999999</c:v>
+                  <c:v>114.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120.72499999999999</c:v>
+                  <c:v>104.77500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.75</c:v>
+                  <c:v>95.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98.775000000000006</c:v>
+                  <c:v>85.724999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87.800000000000011</c:v>
+                  <c:v>76.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.824999999999989</c:v>
+                  <c:v>66.674999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65.849999999999994</c:v>
+                  <c:v>57.150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.875</c:v>
+                  <c:v>47.625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.900000000000006</c:v>
+                  <c:v>38.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.925000000000011</c:v>
+                  <c:v>28.574999999999989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.949999999999989</c:v>
+                  <c:v>19.050000000000011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.974999999999994</c:v>
+                  <c:v>9.5250000000000057</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3985,34 +3985,34 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="61" t="s">
         <v>63</v>
       </c>
@@ -4030,23 +4030,23 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="47.75" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="47.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="6.8984375" customWidth="1"/>
     <col min="8" max="13" width="6" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -4135,7 +4135,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
         <v>19</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>33</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
@@ -4323,7 +4323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
       <c r="B10" s="21" t="s">
         <v>66</v>
@@ -4369,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>27</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
@@ -4442,8 +4442,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="31">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="31">
         <f t="shared" si="0"/>
@@ -4462,10 +4461,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
@@ -4511,7 +4510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>35</v>
       </c>
@@ -4559,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
@@ -4576,10 +4575,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" s="49"/>
     </row>
-    <row r="19" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
         <v>21</v>
       </c>
@@ -4621,19 +4620,19 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="36" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -4658,22 +4657,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="48.875" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="25" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="25" width="8.69921875" customWidth="1"/>
     <col min="26" max="26" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -4682,7 +4681,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
       <c r="F2">
         <v>1</v>
@@ -4745,7 +4744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>19</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="63" t="s">
         <v>25</v>
@@ -4909,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>33</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="75"/>
       <c r="B7" s="57" t="s">
         <v>24</v>
@@ -5005,7 +5004,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
       <c r="B8" s="57" t="s">
         <v>66</v>
@@ -5036,10 +5035,10 @@
         <v>2</v>
       </c>
       <c r="P8" s="65">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="Q8" s="71">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R8" s="71">
         <v>2</v>
@@ -5053,10 +5052,10 @@
       <c r="Y8" s="66"/>
       <c r="Z8" s="66">
         <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>27</v>
       </c>
@@ -5097,11 +5096,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="63" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="56">
@@ -5111,7 +5110,7 @@
         <v>45767</v>
       </c>
       <c r="E10" s="69">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -5123,7 +5122,7 @@
       <c r="M10" s="66"/>
       <c r="N10" s="66"/>
       <c r="O10" s="65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P10" s="66"/>
       <c r="Q10" s="66"/>
@@ -5137,10 +5136,10 @@
       <c r="Y10" s="66"/>
       <c r="Z10" s="66">
         <f t="shared" si="0"/>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="75"/>
       <c r="B11" s="57" t="s">
         <v>29</v>
@@ -5167,7 +5166,9 @@
       <c r="P11" s="66"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
+      <c r="S11" s="65">
+        <v>1.5</v>
+      </c>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
@@ -5176,10 +5177,10 @@
       <c r="Y11" s="66"/>
       <c r="Z11" s="66">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
         <v>35</v>
       </c>
@@ -5220,13 +5221,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D13" s="58" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="68">
         <f>SUM(E4:E12)</f>
-        <v>219.5</v>
+        <v>190.5</v>
       </c>
       <c r="F13" s="68">
         <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
@@ -5266,15 +5267,15 @@
       </c>
       <c r="O13" s="68">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P13" s="68">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="Q13" s="68">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R13" s="68">
         <f t="shared" si="1"/>
@@ -5282,7 +5283,7 @@
       </c>
       <c r="S13" s="68">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T13" s="68">
         <f t="shared" si="1"/>
@@ -5310,10 +5311,10 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>179.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>141.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" t="s">
         <v>65</v>
@@ -5323,173 +5324,173 @@
       </c>
       <c r="E14" s="68">
         <f>E13</f>
-        <v>219.5</v>
+        <v>190.5</v>
       </c>
       <c r="F14" s="68">
         <f>E14-F13</f>
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="G14" s="68">
         <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="H14" s="68">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="I14" s="68">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="J14" s="68">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="K14" s="68">
         <f t="shared" si="2"/>
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="L14" s="68">
         <f t="shared" si="2"/>
-        <v>205.5</v>
+        <v>176.5</v>
       </c>
       <c r="M14" s="68">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="N14" s="68">
         <f t="shared" si="2"/>
-        <v>196.75</v>
+        <v>167.75</v>
       </c>
       <c r="O14" s="68">
         <f t="shared" si="2"/>
-        <v>192.75</v>
+        <v>163.25</v>
       </c>
       <c r="P14" s="68">
         <f t="shared" si="2"/>
-        <v>187.75</v>
+        <v>151.75</v>
       </c>
       <c r="Q14" s="68">
         <f t="shared" si="2"/>
-        <v>187.25</v>
+        <v>150.25</v>
       </c>
       <c r="R14" s="68">
         <f t="shared" si="2"/>
-        <v>185.25</v>
+        <v>148.25</v>
       </c>
       <c r="S14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>179.75</v>
+        <v>141.25</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D15" s="58" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="66">
         <f>E13</f>
-        <v>219.5</v>
+        <v>190.5</v>
       </c>
       <c r="F15" s="66">
         <f>$E$15-F2*$E$15/COUNT($F$3:$Y$3)</f>
-        <v>208.52500000000001</v>
+        <v>180.97499999999999</v>
       </c>
       <c r="G15" s="66">
         <f t="shared" ref="G15:Y15" si="3">$E$15-G2*$E$15/COUNT($F$3:$Y$3)</f>
-        <v>197.55</v>
+        <v>171.45</v>
       </c>
       <c r="H15" s="66">
         <f t="shared" si="3"/>
-        <v>186.57499999999999</v>
+        <v>161.92500000000001</v>
       </c>
       <c r="I15" s="66">
         <f t="shared" si="3"/>
-        <v>175.6</v>
+        <v>152.4</v>
       </c>
       <c r="J15" s="66">
         <f t="shared" si="3"/>
-        <v>164.625</v>
+        <v>142.875</v>
       </c>
       <c r="K15" s="66">
         <f t="shared" si="3"/>
-        <v>153.65</v>
+        <v>133.35</v>
       </c>
       <c r="L15" s="66">
         <f t="shared" si="3"/>
-        <v>142.67500000000001</v>
+        <v>123.825</v>
       </c>
       <c r="M15" s="66">
         <f t="shared" si="3"/>
-        <v>131.69999999999999</v>
+        <v>114.3</v>
       </c>
       <c r="N15" s="66">
         <f t="shared" si="3"/>
-        <v>120.72499999999999</v>
+        <v>104.77500000000001</v>
       </c>
       <c r="O15" s="66">
         <f t="shared" si="3"/>
-        <v>109.75</v>
+        <v>95.25</v>
       </c>
       <c r="P15" s="66">
         <f t="shared" si="3"/>
-        <v>98.775000000000006</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="Q15" s="66">
         <f t="shared" si="3"/>
-        <v>87.800000000000011</v>
+        <v>76.2</v>
       </c>
       <c r="R15" s="66">
         <f t="shared" si="3"/>
-        <v>76.824999999999989</v>
+        <v>66.674999999999997</v>
       </c>
       <c r="S15" s="66">
         <f t="shared" si="3"/>
-        <v>65.849999999999994</v>
+        <v>57.150000000000006</v>
       </c>
       <c r="T15" s="66">
         <f t="shared" si="3"/>
-        <v>54.875</v>
+        <v>47.625</v>
       </c>
       <c r="U15" s="66">
         <f t="shared" si="3"/>
-        <v>43.900000000000006</v>
+        <v>38.099999999999994</v>
       </c>
       <c r="V15" s="66">
         <f t="shared" si="3"/>
-        <v>32.925000000000011</v>
+        <v>28.574999999999989</v>
       </c>
       <c r="W15" s="66">
         <f t="shared" si="3"/>
-        <v>21.949999999999989</v>
+        <v>19.050000000000011</v>
       </c>
       <c r="X15" s="66">
         <f t="shared" si="3"/>
-        <v>10.974999999999994</v>
+        <v>9.5250000000000057</v>
       </c>
       <c r="Y15" s="66">
         <f t="shared" si="3"/>
@@ -5497,7 +5498,7 @@
       </c>
       <c r="Z15" s="39"/>
     </row>
-    <row r="17" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="D17" s="52" t="s">
         <v>37</v>
@@ -5569,7 +5570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D18" s="59" t="s">
         <v>38</v>
       </c>
@@ -5592,7 +5593,9 @@
       </c>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
+      <c r="P18" s="65">
+        <v>4.5</v>
+      </c>
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
       <c r="S18" s="66"/>
@@ -5604,10 +5607,10 @@
       <c r="Y18" s="66"/>
       <c r="Z18" s="66">
         <f>E18-SUM(F18:Y18)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D19" s="59" t="s">
         <v>39</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>56.999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D20" s="59" t="s">
         <v>40</v>
       </c>
@@ -5677,7 +5680,9 @@
       </c>
       <c r="Q20" s="66"/>
       <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
+      <c r="S20" s="65">
+        <v>1.5</v>
+      </c>
       <c r="T20" s="66"/>
       <c r="U20" s="66"/>
       <c r="V20" s="66"/>
@@ -5686,15 +5691,15 @@
       <c r="Y20" s="66"/>
       <c r="Z20" s="66">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D21" s="59" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="66">
-        <v>61.1</v>
+        <v>32.1</v>
       </c>
       <c r="F21" s="65">
         <v>1.1000000000000001</v>
@@ -5712,7 +5717,7 @@
         <v>0.25</v>
       </c>
       <c r="O21" s="65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P21" s="65">
         <v>1</v>
@@ -5728,10 +5733,10 @@
       <c r="Y21" s="66"/>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>55.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D22" s="59" t="s">
         <v>42</v>
       </c>
@@ -5758,8 +5763,12 @@
       <c r="O22" s="65">
         <v>2</v>
       </c>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
+      <c r="P22" s="65">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="65">
+        <v>1</v>
+      </c>
       <c r="R22" s="66"/>
       <c r="S22" s="66"/>
       <c r="T22" s="66"/>
@@ -5770,16 +5779,16 @@
       <c r="Y22" s="66"/>
       <c r="Z22" s="66">
         <f>E22-SUM(F22:Y22)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D23" s="60" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="66">
         <f>SUM(E18:E22)</f>
-        <v>219.49999999999997</v>
+        <v>190.49999999999997</v>
       </c>
       <c r="F23" s="66">
         <f t="shared" ref="F23:Y23" si="5">SUM(F18:F22)</f>
@@ -5819,15 +5828,15 @@
       </c>
       <c r="O23" s="66">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P23" s="66">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="Q23" s="66">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R23" s="66">
         <f t="shared" si="5"/>
@@ -5835,7 +5844,7 @@
       </c>
       <c r="S23" s="66">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T23" s="66">
         <f t="shared" si="5"/>
@@ -5863,182 +5872,182 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>179.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>141.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D24" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="66">
         <f>E23</f>
-        <v>219.49999999999997</v>
+        <v>190.49999999999997</v>
       </c>
       <c r="F24" s="66">
         <f>E24-F23</f>
-        <v>214.99999999999997</v>
+        <v>185.99999999999997</v>
       </c>
       <c r="G24" s="66">
         <f t="shared" ref="G24:Y24" si="6">F24-G23</f>
-        <v>214.99999999999997</v>
+        <v>185.99999999999997</v>
       </c>
       <c r="H24" s="66">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
+        <v>185.99999999999997</v>
       </c>
       <c r="I24" s="66">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
+        <v>185.99999999999997</v>
       </c>
       <c r="J24" s="66">
         <f t="shared" si="6"/>
-        <v>214.99999999999997</v>
+        <v>185.99999999999997</v>
       </c>
       <c r="K24" s="66">
         <f t="shared" si="6"/>
-        <v>210.99999999999997</v>
+        <v>181.99999999999997</v>
       </c>
       <c r="L24" s="66">
         <f t="shared" si="6"/>
-        <v>205.49999999999997</v>
+        <v>176.49999999999997</v>
       </c>
       <c r="M24" s="66">
         <f t="shared" si="6"/>
-        <v>197.99999999999997</v>
+        <v>168.99999999999997</v>
       </c>
       <c r="N24" s="66">
         <f t="shared" si="6"/>
-        <v>196.74999999999997</v>
+        <v>167.74999999999997</v>
       </c>
       <c r="O24" s="66">
         <f t="shared" si="6"/>
-        <v>192.74999999999997</v>
+        <v>163.24999999999997</v>
       </c>
       <c r="P24" s="66">
         <f t="shared" si="6"/>
-        <v>187.74999999999997</v>
+        <v>151.74999999999997</v>
       </c>
       <c r="Q24" s="66">
         <f t="shared" si="6"/>
-        <v>187.24999999999997</v>
+        <v>150.24999999999997</v>
       </c>
       <c r="R24" s="66">
         <f t="shared" si="6"/>
-        <v>185.24999999999997</v>
+        <v>148.24999999999997</v>
       </c>
       <c r="S24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>179.74999999999997</v>
+        <v>141.24999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D25" s="60" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="66">
         <f>E23</f>
-        <v>219.49999999999997</v>
+        <v>190.49999999999997</v>
       </c>
       <c r="F25" s="66">
         <f>$E$25-F2*$E$25/COUNT($F$3:$Y$3)</f>
-        <v>208.52499999999998</v>
+        <v>180.97499999999997</v>
       </c>
       <c r="G25" s="66">
         <f t="shared" ref="G25:Y25" si="7">$E$25-G2*$E$25/COUNT($F$3:$Y$3)</f>
-        <v>197.54999999999998</v>
+        <v>171.45</v>
       </c>
       <c r="H25" s="66">
         <f t="shared" si="7"/>
-        <v>186.57499999999999</v>
+        <v>161.92499999999998</v>
       </c>
       <c r="I25" s="66">
         <f t="shared" si="7"/>
-        <v>175.59999999999997</v>
+        <v>152.39999999999998</v>
       </c>
       <c r="J25" s="66">
         <f t="shared" si="7"/>
-        <v>164.625</v>
+        <v>142.87499999999997</v>
       </c>
       <c r="K25" s="66">
         <f t="shared" si="7"/>
-        <v>153.64999999999998</v>
+        <v>133.34999999999997</v>
       </c>
       <c r="L25" s="66">
         <f t="shared" si="7"/>
-        <v>142.67499999999998</v>
+        <v>123.82499999999999</v>
       </c>
       <c r="M25" s="66">
         <f t="shared" si="7"/>
-        <v>131.69999999999999</v>
+        <v>114.29999999999998</v>
       </c>
       <c r="N25" s="66">
         <f t="shared" si="7"/>
-        <v>120.72499999999998</v>
+        <v>104.77499999999998</v>
       </c>
       <c r="O25" s="66">
         <f t="shared" si="7"/>
-        <v>109.75</v>
+        <v>95.249999999999986</v>
       </c>
       <c r="P25" s="66">
         <f t="shared" si="7"/>
-        <v>98.774999999999991</v>
+        <v>85.724999999999994</v>
       </c>
       <c r="Q25" s="66">
         <f t="shared" si="7"/>
-        <v>87.799999999999983</v>
+        <v>76.199999999999989</v>
       </c>
       <c r="R25" s="66">
         <f t="shared" si="7"/>
-        <v>76.824999999999989</v>
+        <v>66.674999999999997</v>
       </c>
       <c r="S25" s="66">
         <f t="shared" si="7"/>
-        <v>65.849999999999994</v>
+        <v>57.150000000000006</v>
       </c>
       <c r="T25" s="66">
         <f t="shared" si="7"/>
-        <v>54.875</v>
+        <v>47.625</v>
       </c>
       <c r="U25" s="66">
         <f t="shared" si="7"/>
-        <v>43.900000000000006</v>
+        <v>38.099999999999994</v>
       </c>
       <c r="V25" s="66">
         <f t="shared" si="7"/>
-        <v>32.924999999999983</v>
+        <v>28.574999999999989</v>
       </c>
       <c r="W25" s="66">
         <f t="shared" si="7"/>
-        <v>21.949999999999989</v>
+        <v>19.049999999999983</v>
       </c>
       <c r="X25" s="66">
         <f t="shared" si="7"/>
-        <v>10.975000000000023</v>
+        <v>9.5250000000000057</v>
       </c>
       <c r="Y25" s="66">
         <f t="shared" si="7"/>
@@ -6046,7 +6055,7 @@
       </c>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -6069,178 +6078,178 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="67"/>
     </row>
-    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="70" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="70"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="70"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="67" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="67"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="64"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="64"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="64"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="67" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="67"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="64"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
     </row>
-    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B55" s="64"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="64"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="64"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="64"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43395FA-6D70-481A-A1F8-4CD8EACDB7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E1572-FB01-4312-9B89-E689E44E7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2716,22 +2716,22 @@
                   <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>141.25</c:v>
+                  <c:v>139.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>141.25</c:v>
+                  <c:v>139.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>141.25</c:v>
+                  <c:v>139.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>141.25</c:v>
+                  <c:v>139.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>141.25</c:v>
+                  <c:v>139.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.25</c:v>
+                  <c:v>139.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5210,7 +5210,9 @@
       <c r="Q12" s="66"/>
       <c r="R12" s="66"/>
       <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
+      <c r="T12" s="65">
+        <v>2</v>
+      </c>
       <c r="U12" s="66"/>
       <c r="V12" s="66"/>
       <c r="W12" s="66"/>
@@ -5218,7 +5220,7 @@
       <c r="Y12" s="66"/>
       <c r="Z12" s="66">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -5287,7 +5289,7 @@
       </c>
       <c r="T13" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" s="68">
         <f t="shared" si="1"/>
@@ -5311,7 +5313,7 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5384,27 +5386,27 @@
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>141.25</v>
+        <v>139.25</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5599,7 +5601,9 @@
       <c r="Q18" s="66"/>
       <c r="R18" s="66"/>
       <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
+      <c r="T18" s="65">
+        <v>0.4</v>
+      </c>
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
       <c r="W18" s="66"/>
@@ -5607,7 +5611,7 @@
       <c r="Y18" s="66"/>
       <c r="Z18" s="66">
         <f>E18-SUM(F18:Y18)</f>
-        <v>20.5</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -5639,7 +5643,9 @@
       <c r="S19" s="71">
         <v>5.5</v>
       </c>
-      <c r="T19" s="66"/>
+      <c r="T19" s="65">
+        <v>0.4</v>
+      </c>
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
       <c r="W19" s="66"/>
@@ -5647,7 +5653,7 @@
       <c r="Y19" s="66"/>
       <c r="Z19" s="66">
         <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
-        <v>56.999999999999993</v>
+        <v>56.599999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -5683,7 +5689,9 @@
       <c r="S20" s="65">
         <v>1.5</v>
       </c>
-      <c r="T20" s="66"/>
+      <c r="T20" s="65">
+        <v>0.4</v>
+      </c>
       <c r="U20" s="66"/>
       <c r="V20" s="66"/>
       <c r="W20" s="66"/>
@@ -5691,7 +5699,7 @@
       <c r="Y20" s="66"/>
       <c r="Z20" s="66">
         <f t="shared" si="4"/>
-        <v>18.5</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -5725,7 +5733,9 @@
       <c r="Q21" s="66"/>
       <c r="R21" s="66"/>
       <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
+      <c r="T21" s="65">
+        <v>0.4</v>
+      </c>
       <c r="U21" s="66"/>
       <c r="V21" s="66"/>
       <c r="W21" s="66"/>
@@ -5733,7 +5743,7 @@
       <c r="Y21" s="66"/>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>26.25</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5771,7 +5781,9 @@
       </c>
       <c r="R22" s="66"/>
       <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
+      <c r="T22" s="65">
+        <v>0.4</v>
+      </c>
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
       <c r="W22" s="66"/>
@@ -5779,7 +5791,7 @@
       <c r="Y22" s="66"/>
       <c r="Z22" s="66">
         <f>E22-SUM(F22:Y22)</f>
-        <v>19</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -5848,7 +5860,7 @@
       </c>
       <c r="T23" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23" s="66">
         <f t="shared" si="5"/>
@@ -5872,7 +5884,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>141.25</v>
+        <v>139.24999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5941,27 +5953,27 @@
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
+        <v>139.24999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
+        <v>139.24999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
+        <v>139.24999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
+        <v>139.24999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
+        <v>139.24999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
+        <v>139.24999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E1572-FB01-4312-9B89-E689E44E7C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4CEC5-7765-4B15-9045-2E773CB4BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2716,22 +2716,22 @@
                   <c:v>141.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139.25</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139.25</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>139.25</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>139.25</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>139.25</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.25</c:v>
+                  <c:v>138.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5169,7 +5169,9 @@
       <c r="S11" s="65">
         <v>1.5</v>
       </c>
-      <c r="T11" s="66"/>
+      <c r="T11" s="65">
+        <v>1</v>
+      </c>
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
@@ -5177,7 +5179,7 @@
       <c r="Y11" s="66"/>
       <c r="Z11" s="66">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -5289,7 +5291,7 @@
       </c>
       <c r="T13" s="68">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13" s="68">
         <f t="shared" si="1"/>
@@ -5313,7 +5315,7 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5386,27 +5388,27 @@
       </c>
       <c r="T14" s="68">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="U14" s="68">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="V14" s="68">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>139.25</v>
+        <v>138.25</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5734,7 +5736,7 @@
       <c r="R21" s="66"/>
       <c r="S21" s="66"/>
       <c r="T21" s="65">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="U21" s="66"/>
       <c r="V21" s="66"/>
@@ -5743,7 +5745,7 @@
       <c r="Y21" s="66"/>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>25.85</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5860,7 +5862,7 @@
       </c>
       <c r="T23" s="66">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" s="66">
         <f t="shared" si="5"/>
@@ -5884,7 +5886,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5953,27 +5955,27 @@
       </c>
       <c r="T24" s="66">
         <f t="shared" si="6"/>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
       <c r="U24" s="66">
         <f t="shared" si="6"/>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
       <c r="V24" s="66">
         <f t="shared" si="6"/>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>139.24999999999997</v>
+        <v>138.24999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4CEC5-7765-4B15-9045-2E773CB4BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE35EA5-06E6-4007-A530-2307DD6E4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +359,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -664,7 +672,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -877,6 +885,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2725,13 +2734,13 @@
                   <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>138.25</c:v>
+                  <c:v>137.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>138.25</c:v>
+                  <c:v>137.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>138.25</c:v>
+                  <c:v>137.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5131,12 +5140,14 @@
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
       <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
+      <c r="W10" s="65">
+        <v>0.5</v>
+      </c>
       <c r="X10" s="66"/>
       <c r="Y10" s="66"/>
       <c r="Z10" s="66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -5303,7 +5314,7 @@
       </c>
       <c r="W13" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X13" s="68">
         <f t="shared" si="1"/>
@@ -5315,7 +5326,7 @@
       </c>
       <c r="Z13" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>138.25</v>
+        <v>137.75</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -5400,15 +5411,15 @@
       </c>
       <c r="W14" s="68">
         <f t="shared" si="2"/>
-        <v>138.25</v>
+        <v>137.75</v>
       </c>
       <c r="X14" s="68">
         <f t="shared" si="2"/>
-        <v>138.25</v>
+        <v>137.75</v>
       </c>
       <c r="Y14" s="68">
         <f t="shared" si="2"/>
-        <v>138.25</v>
+        <v>137.75</v>
       </c>
       <c r="Z14" s="39"/>
     </row>
@@ -5740,12 +5751,14 @@
       </c>
       <c r="U21" s="66"/>
       <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
+      <c r="W21" s="65">
+        <v>0.5</v>
+      </c>
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>24.85</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -5874,7 +5887,7 @@
       </c>
       <c r="W23" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="66">
         <f t="shared" si="5"/>
@@ -5886,7 +5899,7 @@
       </c>
       <c r="Z23" s="66">
         <f>SUM(Z18:Z22)</f>
-        <v>138.24999999999997</v>
+        <v>137.74999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -5967,15 +5980,15 @@
       </c>
       <c r="W24" s="66">
         <f t="shared" si="6"/>
-        <v>138.24999999999997</v>
+        <v>137.74999999999997</v>
       </c>
       <c r="X24" s="66">
         <f t="shared" si="6"/>
-        <v>138.24999999999997</v>
+        <v>137.74999999999997</v>
       </c>
       <c r="Y24" s="66">
         <f t="shared" si="6"/>
-        <v>138.24999999999997</v>
+        <v>137.74999999999997</v>
       </c>
       <c r="Z24" s="38"/>
     </row>
@@ -6101,6 +6114,7 @@
       <c r="A29" s="61" t="s">
         <v>60</v>
       </c>
+      <c r="V29" s="76"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfel\OneDrive\Desktop\MSP-24-25\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE35EA5-06E6-4007-A530-2307DD6E4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE06C6A-C278-4316-A92D-E309831C921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="BURNDOWN CHART" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="color">'GANTT CHART'!$E1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
-    <definedName name="color">'GANTT CHART'!$E1</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"project-timeline.xlsx"</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>TASK</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Model Main Business Process and Features (BPMN) #5</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Write a report on the project</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +374,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -672,7 +684,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -873,6 +885,10 @@
     <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,12 +901,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1019,7 +1037,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2517,7 +2535,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2678,7 +2696,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$14:$Y$14</c:f>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2728,19 +2746,19 @@
                   <c:v>138.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138.25</c:v>
+                  <c:v>137.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>138.25</c:v>
+                  <c:v>134.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.75</c:v>
+                  <c:v>134.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>137.75</c:v>
+                  <c:v>133.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>137.75</c:v>
+                  <c:v>131.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,7 +2859,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3696,7 +3714,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>293613</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>146808</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3994,34 +4012,34 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="18">
       <c r="B3" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" ht="18">
       <c r="B4" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" ht="18">
       <c r="B5" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" ht="18">
       <c r="B6" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" ht="18">
       <c r="B7" s="61" t="s">
         <v>63</v>
       </c>
@@ -4042,20 +4060,20 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="47.69921875" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.8984375" customWidth="1"/>
+    <col min="7" max="7" width="6.875" customWidth="1"/>
     <col min="8" max="13" width="6" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4072,7 +4090,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -4089,7 +4107,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4130,7 +4148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="15" hidden="1">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -4144,8 +4162,8 @@
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:13" s="3" customFormat="1">
+      <c r="A6" s="74" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4192,8 +4210,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73"/>
+    <row r="7" spans="1:13" s="3" customFormat="1">
+      <c r="A7" s="75"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4238,8 +4256,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:13" s="3" customFormat="1">
+      <c r="A8" s="74" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4286,8 +4304,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
+    <row r="9" spans="1:13" s="3" customFormat="1">
+      <c r="A9" s="76"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4332,8 +4350,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+    <row r="10" spans="1:13" s="3" customFormat="1">
+      <c r="A10" s="75"/>
       <c r="B10" s="21" t="s">
         <v>66</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="15">
       <c r="A11" s="37" t="s">
         <v>27</v>
       </c>
@@ -4426,8 +4444,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+    <row r="12" spans="1:13" s="3" customFormat="1">
+      <c r="A12" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4473,8 +4491,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
+    <row r="13" spans="1:13" s="3" customFormat="1">
+      <c r="A13" s="75"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4519,7 +4537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="15">
       <c r="A14" s="37" t="s">
         <v>35</v>
       </c>
@@ -4567,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
@@ -4584,10 +4602,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15">
       <c r="D16" s="49"/>
     </row>
-    <row r="19" spans="2:5" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="24">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4601,7 +4619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -4615,7 +4633,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="40" t="s">
         <v>21</v>
       </c>
@@ -4629,19 +4647,19 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="45"/>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="3"/>
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" ht="26.25">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -4664,24 +4682,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
-    <col min="2" max="2" width="48.8984375" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.8984375" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="25" width="8.69921875" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="25" width="8.75" customWidth="1"/>
     <col min="26" max="26" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -4690,7 +4708,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="C2" s="5"/>
       <c r="F2">
         <v>1</v>
@@ -4753,7 +4771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
@@ -4833,8 +4851,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:26">
+      <c r="A4" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -4876,8 +4894,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+    <row r="5" spans="1:26">
+      <c r="A5" s="77"/>
       <c r="B5" s="63" t="s">
         <v>25</v>
       </c>
@@ -4917,8 +4935,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:26">
+      <c r="A6" s="77" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -4960,8 +4978,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:26">
+      <c r="A7" s="77"/>
       <c r="B7" s="57" t="s">
         <v>24</v>
       </c>
@@ -5004,17 +5022,19 @@
       </c>
       <c r="T7" s="66"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
+      <c r="V7" s="66">
+        <v>0.5</v>
+      </c>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66">
         <f t="shared" si="0"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="77"/>
       <c r="B8" s="57" t="s">
         <v>66</v>
       </c>
@@ -5055,16 +5075,18 @@
       <c r="S8" s="66"/>
       <c r="T8" s="66"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
+      <c r="V8" s="66">
+        <v>0.5</v>
+      </c>
       <c r="W8" s="66"/>
       <c r="X8" s="66"/>
       <c r="Y8" s="66"/>
       <c r="Z8" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15">
       <c r="A9" s="54" t="s">
         <v>27</v>
       </c>
@@ -5105,8 +5127,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:26">
+      <c r="A10" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="63" t="s">
@@ -5150,8 +5172,8 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+    <row r="11" spans="1:26">
+      <c r="A11" s="77"/>
       <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
@@ -5183,17 +5205,21 @@
       <c r="T11" s="65">
         <v>1</v>
       </c>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
+      <c r="U11" s="66">
+        <v>1</v>
+      </c>
+      <c r="V11" s="66">
+        <v>0.5</v>
+      </c>
       <c r="W11" s="66"/>
       <c r="X11" s="66"/>
       <c r="Y11" s="66"/>
       <c r="Z11" s="66">
         <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15">
       <c r="A12" s="54" t="s">
         <v>35</v>
       </c>
@@ -5227,435 +5253,435 @@
         <v>2</v>
       </c>
       <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
+      <c r="V12" s="66">
+        <v>1</v>
+      </c>
       <c r="W12" s="66"/>
       <c r="X12" s="66"/>
       <c r="Y12" s="66"/>
       <c r="Z12" s="66">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15">
+      <c r="A13" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="56">
+        <v>45770</v>
+      </c>
+      <c r="D13" s="50">
+        <v>45774</v>
+      </c>
+      <c r="E13" s="69"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="71">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="66"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="D14" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E14" s="68">
         <f>SUM(E4:E12)</f>
         <v>190.5</v>
       </c>
-      <c r="F13" s="68">
-        <f t="shared" ref="F13:Y13" si="1">SUM(F4:F12)</f>
+      <c r="F14" s="68">
+        <f>SUM(F4:F13)</f>
         <v>4.5</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G14" s="68">
+        <f>SUM(G4:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="68">
+        <f>SUM(H4:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="68">
+        <f t="shared" ref="I14:Y14" si="1">SUM(I4:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="68">
+      <c r="K14" s="68">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L14" s="68">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M14" s="68">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N14" s="68">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O14" s="68">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P14" s="68">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q14" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R14" s="68">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S14" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T14" s="68">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U13" s="68">
+      <c r="U14" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="68">
+        <v>1</v>
+      </c>
+      <c r="V14" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="68">
+        <v>2.5</v>
+      </c>
+      <c r="W14" s="68">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="X13" s="68">
+      <c r="X14" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="68">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="68">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="68">
         <f>SUM(Z4:Z12)</f>
-        <v>137.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" t="s">
+        <v>134.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="64"/>
+      <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D15" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="68">
-        <f>E13</f>
+      <c r="E15" s="68">
+        <f>E14</f>
         <v>190.5</v>
       </c>
-      <c r="F14" s="68">
-        <f>E14-F13</f>
+      <c r="F15" s="68">
+        <f>E15-F14</f>
         <v>186</v>
       </c>
-      <c r="G14" s="68">
-        <f t="shared" ref="G14:Y14" si="2">F14-G13</f>
+      <c r="G15" s="68">
+        <f t="shared" ref="G15:Y15" si="2">F15-G14</f>
         <v>186</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H15" s="68">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I15" s="68">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J15" s="68">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K15" s="68">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L15" s="68">
         <f t="shared" si="2"/>
         <v>176.5</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M15" s="68">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N15" s="68">
         <f t="shared" si="2"/>
         <v>167.75</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O15" s="68">
         <f t="shared" si="2"/>
         <v>163.25</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P15" s="68">
         <f t="shared" si="2"/>
         <v>151.75</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q15" s="68">
         <f t="shared" si="2"/>
         <v>150.25</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R15" s="68">
         <f t="shared" si="2"/>
         <v>148.25</v>
       </c>
-      <c r="S14" s="68">
+      <c r="S15" s="68">
         <f t="shared" si="2"/>
         <v>141.25</v>
       </c>
-      <c r="T14" s="68">
+      <c r="T15" s="68">
         <f t="shared" si="2"/>
         <v>138.25</v>
       </c>
-      <c r="U14" s="68">
+      <c r="U15" s="68">
         <f t="shared" si="2"/>
-        <v>138.25</v>
-      </c>
-      <c r="V14" s="68">
+        <v>137.25</v>
+      </c>
+      <c r="V15" s="68">
         <f t="shared" si="2"/>
-        <v>138.25</v>
-      </c>
-      <c r="W14" s="68">
+        <v>134.75</v>
+      </c>
+      <c r="W15" s="68">
         <f t="shared" si="2"/>
-        <v>137.75</v>
-      </c>
-      <c r="X14" s="68">
+        <v>134.25</v>
+      </c>
+      <c r="X15" s="68">
         <f t="shared" si="2"/>
-        <v>137.75</v>
-      </c>
-      <c r="Y14" s="68">
+        <v>133.25</v>
+      </c>
+      <c r="Y15" s="68">
         <f t="shared" si="2"/>
-        <v>137.75</v>
-      </c>
-      <c r="Z14" s="39"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D15" s="58" t="s">
+        <v>131.25</v>
+      </c>
+      <c r="Z15" s="39"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="D16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="66">
-        <f>E13</f>
+      <c r="E16" s="66">
+        <f>E14</f>
         <v>190.5</v>
       </c>
-      <c r="F15" s="66">
-        <f>$E$15-F2*$E$15/COUNT($F$3:$Y$3)</f>
+      <c r="F16" s="66">
+        <f>$E$16-F2*$E$16/COUNT($F$3:$Y$3)</f>
         <v>180.97499999999999</v>
       </c>
-      <c r="G15" s="66">
-        <f t="shared" ref="G15:Y15" si="3">$E$15-G2*$E$15/COUNT($F$3:$Y$3)</f>
+      <c r="G16" s="66">
+        <f t="shared" ref="G16:Y16" si="3">$E$16-G2*$E$16/COUNT($F$3:$Y$3)</f>
         <v>171.45</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H16" s="66">
         <f t="shared" si="3"/>
         <v>161.92500000000001</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I16" s="66">
         <f t="shared" si="3"/>
         <v>152.4</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J16" s="66">
         <f t="shared" si="3"/>
         <v>142.875</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K16" s="66">
         <f t="shared" si="3"/>
         <v>133.35</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L16" s="66">
         <f t="shared" si="3"/>
         <v>123.825</v>
       </c>
-      <c r="M15" s="66">
+      <c r="M16" s="66">
         <f t="shared" si="3"/>
         <v>114.3</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N16" s="66">
         <f t="shared" si="3"/>
         <v>104.77500000000001</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O16" s="66">
         <f t="shared" si="3"/>
         <v>95.25</v>
       </c>
-      <c r="P15" s="66">
+      <c r="P16" s="66">
         <f t="shared" si="3"/>
         <v>85.724999999999994</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="Q16" s="66">
         <f t="shared" si="3"/>
         <v>76.2</v>
       </c>
-      <c r="R15" s="66">
+      <c r="R16" s="66">
         <f t="shared" si="3"/>
         <v>66.674999999999997</v>
       </c>
-      <c r="S15" s="66">
+      <c r="S16" s="66">
         <f t="shared" si="3"/>
         <v>57.150000000000006</v>
       </c>
-      <c r="T15" s="66">
+      <c r="T16" s="66">
         <f t="shared" si="3"/>
         <v>47.625</v>
       </c>
-      <c r="U15" s="66">
+      <c r="U16" s="66">
         <f t="shared" si="3"/>
         <v>38.099999999999994</v>
       </c>
-      <c r="V15" s="66">
+      <c r="V16" s="66">
         <f t="shared" si="3"/>
         <v>28.574999999999989</v>
       </c>
-      <c r="W15" s="66">
+      <c r="W16" s="66">
         <f t="shared" si="3"/>
         <v>19.050000000000011</v>
       </c>
-      <c r="X15" s="66">
+      <c r="X16" s="66">
         <f t="shared" si="3"/>
         <v>9.5250000000000057</v>
       </c>
-      <c r="Y15" s="66">
+      <c r="Y16" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="39"/>
-    </row>
-    <row r="17" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="D17" s="52" t="s">
+      <c r="Z16" s="39"/>
+    </row>
+    <row r="18" spans="1:26" ht="26.25">
+      <c r="A18" s="1"/>
+      <c r="D18" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E18" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F18" s="53">
         <v>45755</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G18" s="53">
         <v>45756</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H18" s="53">
         <v>45757</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I18" s="53">
         <v>45758</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J18" s="53">
         <v>45759</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K18" s="53">
         <v>45760</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L18" s="53">
         <v>45761</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M18" s="53">
         <v>45762</v>
       </c>
-      <c r="N17" s="53">
+      <c r="N18" s="53">
         <v>45763</v>
       </c>
-      <c r="O17" s="53">
+      <c r="O18" s="53">
         <v>45764</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P18" s="53">
         <v>45765</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q18" s="53">
         <v>45766</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R18" s="53">
         <v>45767</v>
       </c>
-      <c r="S17" s="53">
+      <c r="S18" s="53">
         <v>45768</v>
       </c>
-      <c r="T17" s="53">
+      <c r="T18" s="53">
         <v>45769</v>
       </c>
-      <c r="U17" s="53">
+      <c r="U18" s="53">
         <v>45770</v>
       </c>
-      <c r="V17" s="53">
+      <c r="V18" s="53">
         <v>45771</v>
       </c>
-      <c r="W17" s="53">
+      <c r="W18" s="53">
         <v>45772</v>
       </c>
-      <c r="X17" s="53">
+      <c r="X18" s="53">
         <v>45773</v>
       </c>
-      <c r="Y17" s="53">
+      <c r="Y18" s="53">
         <v>45774</v>
       </c>
-      <c r="Z17" s="52" t="s">
+      <c r="Z18" s="52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D18" s="59" t="s">
+    <row r="19" spans="1:26">
+      <c r="D19" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E19" s="66">
         <v>30.1</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F19" s="65">
         <v>0.1</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="65">
-        <v>2.5</v>
-      </c>
-      <c r="M18" s="65">
-        <v>2.5</v>
-      </c>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="65">
-        <v>4.5</v>
-      </c>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="65">
-        <v>0.4</v>
-      </c>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66">
-        <f>E18-SUM(F18:Y18)</f>
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D19" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="66">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="F19" s="65">
-        <v>3.1</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
+      <c r="L19" s="65">
+        <v>2.5</v>
+      </c>
+      <c r="M19" s="65">
+        <v>2.5</v>
+      </c>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="71">
-        <v>2</v>
-      </c>
-      <c r="S19" s="71">
-        <v>5.5</v>
-      </c>
+      <c r="P19" s="65">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
       <c r="T19" s="65">
         <v>0.4</v>
       </c>
@@ -5665,42 +5691,38 @@
       <c r="X19" s="66"/>
       <c r="Y19" s="66"/>
       <c r="Z19" s="66">
-        <f t="shared" ref="Z19:Z21" si="4">E19-SUM(F19:Y19)</f>
-        <v>56.599999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <f>E19-SUM(F19:Y19)</f>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="D20" s="59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="66">
-        <v>30.1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="F20" s="65">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
-      <c r="K20" s="65">
-        <v>3</v>
-      </c>
+      <c r="K20" s="66"/>
       <c r="L20" s="66"/>
-      <c r="M20" s="65">
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="71">
         <v>2</v>
       </c>
-      <c r="N20" s="71">
-        <v>1</v>
-      </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="71">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="65">
-        <v>1.5</v>
+      <c r="S20" s="71">
+        <v>5.5</v>
       </c>
       <c r="T20" s="65">
         <v>0.4</v>
@@ -5711,574 +5733,630 @@
       <c r="X20" s="66"/>
       <c r="Y20" s="66"/>
       <c r="Z20" s="66">
-        <f t="shared" si="4"/>
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z20:Z22" si="4">E20-SUM(F20:Y20)</f>
+        <v>56.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="D21" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="66">
-        <v>32.1</v>
+        <v>30.1</v>
       </c>
       <c r="F21" s="65">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
+      <c r="K21" s="65">
+        <v>3</v>
+      </c>
       <c r="L21" s="66"/>
       <c r="M21" s="65">
+        <v>2</v>
+      </c>
+      <c r="N21" s="71">
         <v>1</v>
       </c>
-      <c r="N21" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="O21" s="65">
-        <v>2.5</v>
-      </c>
-      <c r="P21" s="65">
-        <v>1</v>
+      <c r="O21" s="66"/>
+      <c r="P21" s="71">
+        <v>4</v>
       </c>
       <c r="Q21" s="66"/>
       <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="S21" s="65">
+        <v>1.5</v>
+      </c>
       <c r="T21" s="65">
-        <v>1.4</v>
-      </c>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
+        <v>0.4</v>
+      </c>
+      <c r="U21" s="71">
+        <v>1</v>
+      </c>
+      <c r="V21" s="71">
+        <v>2.5</v>
+      </c>
+      <c r="W21" s="71">
+        <v>2</v>
+      </c>
+      <c r="X21" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="71">
+        <v>2</v>
+      </c>
       <c r="Z21" s="66">
         <f t="shared" si="4"/>
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="D22" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="66">
-        <v>30.1</v>
+        <v>32.1</v>
       </c>
       <c r="F22" s="65">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
-      <c r="K22" s="65">
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="65">
         <v>1</v>
       </c>
-      <c r="L22" s="65">
-        <v>3</v>
-      </c>
-      <c r="M22" s="65">
-        <v>2</v>
-      </c>
-      <c r="N22" s="66"/>
+      <c r="N22" s="65">
+        <v>0.25</v>
+      </c>
       <c r="O22" s="65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P22" s="65">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="65">
         <v>1</v>
       </c>
+      <c r="Q22" s="66"/>
       <c r="R22" s="66"/>
       <c r="S22" s="66"/>
       <c r="T22" s="65">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
+      <c r="W22" s="65">
+        <v>0.5</v>
+      </c>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
       <c r="Z22" s="66">
-        <f>E22-SUM(F22:Y22)</f>
+        <f t="shared" si="4"/>
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="D23" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="66">
+        <v>30.1</v>
+      </c>
+      <c r="F23" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="65">
+        <v>1</v>
+      </c>
+      <c r="L23" s="65">
+        <v>3</v>
+      </c>
+      <c r="M23" s="65">
+        <v>2</v>
+      </c>
+      <c r="N23" s="66"/>
+      <c r="O23" s="65">
+        <v>2</v>
+      </c>
+      <c r="P23" s="65">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="65">
+        <v>1</v>
+      </c>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="65">
+        <v>0.4</v>
+      </c>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66">
+        <f>E23-SUM(F23:Y23)</f>
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D23" s="60" t="s">
+    <row r="24" spans="1:26">
+      <c r="D24" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="66">
-        <f>SUM(E18:E22)</f>
+      <c r="E24" s="66">
+        <f>SUM(E19:E23)</f>
         <v>190.49999999999997</v>
       </c>
-      <c r="F23" s="66">
-        <f t="shared" ref="F23:Y23" si="5">SUM(F18:F22)</f>
+      <c r="F24" s="66">
+        <f t="shared" ref="F24:Y24" si="5">SUM(F19:F23)</f>
         <v>4.5</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G24" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H24" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I24" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J24" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K23" s="66">
+      <c r="K24" s="66">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L24" s="66">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="M23" s="66">
+      <c r="M24" s="66">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="N23" s="66">
+      <c r="N24" s="66">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="O23" s="66">
+      <c r="O24" s="66">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="P23" s="66">
+      <c r="P24" s="66">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q24" s="66">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="R23" s="66">
+      <c r="R24" s="66">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S23" s="66">
+      <c r="S24" s="66">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="T23" s="66">
+      <c r="T24" s="66">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U23" s="66">
+      <c r="U24" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="66">
+        <v>1</v>
+      </c>
+      <c r="V24" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="W24" s="66">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="X23" s="66">
+        <v>2.5</v>
+      </c>
+      <c r="X24" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="66">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="66">
-        <f>SUM(Z18:Z22)</f>
-        <v>137.74999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D24" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="66">
+        <f>SUM(Z19:Z23)</f>
+        <v>129.24999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="D25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="66">
-        <f>E23</f>
+      <c r="E25" s="66">
+        <f>E24</f>
         <v>190.49999999999997</v>
       </c>
-      <c r="F24" s="66">
-        <f>E24-F23</f>
+      <c r="F25" s="66">
+        <f>E25-F24</f>
         <v>185.99999999999997</v>
       </c>
-      <c r="G24" s="66">
-        <f t="shared" ref="G24:Y24" si="6">F24-G23</f>
+      <c r="G25" s="66">
+        <f t="shared" ref="G25:Y25" si="6">F25-G24</f>
         <v>185.99999999999997</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H25" s="66">
         <f t="shared" si="6"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I25" s="66">
         <f t="shared" si="6"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J25" s="66">
         <f t="shared" si="6"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K25" s="66">
         <f t="shared" si="6"/>
         <v>181.99999999999997</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L25" s="66">
         <f t="shared" si="6"/>
         <v>176.49999999999997</v>
       </c>
-      <c r="M24" s="66">
+      <c r="M25" s="66">
         <f t="shared" si="6"/>
         <v>168.99999999999997</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N25" s="66">
         <f t="shared" si="6"/>
         <v>167.74999999999997</v>
       </c>
-      <c r="O24" s="66">
+      <c r="O25" s="66">
         <f t="shared" si="6"/>
         <v>163.24999999999997</v>
       </c>
-      <c r="P24" s="66">
+      <c r="P25" s="66">
         <f t="shared" si="6"/>
         <v>151.74999999999997</v>
       </c>
-      <c r="Q24" s="66">
+      <c r="Q25" s="66">
         <f t="shared" si="6"/>
         <v>150.24999999999997</v>
       </c>
-      <c r="R24" s="66">
+      <c r="R25" s="66">
         <f t="shared" si="6"/>
         <v>148.24999999999997</v>
       </c>
-      <c r="S24" s="66">
+      <c r="S25" s="66">
         <f t="shared" si="6"/>
         <v>141.24999999999997</v>
       </c>
-      <c r="T24" s="66">
+      <c r="T25" s="66">
         <f t="shared" si="6"/>
         <v>138.24999999999997</v>
       </c>
-      <c r="U24" s="66">
+      <c r="U25" s="66">
         <f t="shared" si="6"/>
-        <v>138.24999999999997</v>
-      </c>
-      <c r="V24" s="66">
+        <v>137.24999999999997</v>
+      </c>
+      <c r="V25" s="66">
         <f t="shared" si="6"/>
-        <v>138.24999999999997</v>
-      </c>
-      <c r="W24" s="66">
+        <v>134.74999999999997</v>
+      </c>
+      <c r="W25" s="66">
         <f t="shared" si="6"/>
-        <v>137.74999999999997</v>
-      </c>
-      <c r="X24" s="66">
+        <v>132.24999999999997</v>
+      </c>
+      <c r="X25" s="66">
         <f t="shared" si="6"/>
-        <v>137.74999999999997</v>
-      </c>
-      <c r="Y24" s="66">
+        <v>131.24999999999997</v>
+      </c>
+      <c r="Y25" s="66">
         <f t="shared" si="6"/>
-        <v>137.74999999999997</v>
-      </c>
-      <c r="Z24" s="38"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D25" s="60" t="s">
+        <v>129.24999999999997</v>
+      </c>
+      <c r="Z25" s="38"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="D26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="66">
-        <f>E23</f>
+      <c r="E26" s="66">
+        <f>E24</f>
         <v>190.49999999999997</v>
       </c>
-      <c r="F25" s="66">
-        <f>$E$25-F2*$E$25/COUNT($F$3:$Y$3)</f>
+      <c r="F26" s="66">
+        <f>$E$26-F2*$E$26/COUNT($F$3:$Y$3)</f>
         <v>180.97499999999997</v>
       </c>
-      <c r="G25" s="66">
-        <f t="shared" ref="G25:Y25" si="7">$E$25-G2*$E$25/COUNT($F$3:$Y$3)</f>
+      <c r="G26" s="66">
+        <f t="shared" ref="G26:Y26" si="7">$E$26-G2*$E$26/COUNT($F$3:$Y$3)</f>
         <v>171.45</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H26" s="66">
         <f t="shared" si="7"/>
         <v>161.92499999999998</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I26" s="66">
         <f t="shared" si="7"/>
         <v>152.39999999999998</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J26" s="66">
         <f t="shared" si="7"/>
         <v>142.87499999999997</v>
       </c>
-      <c r="K25" s="66">
+      <c r="K26" s="66">
         <f t="shared" si="7"/>
         <v>133.34999999999997</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L26" s="66">
         <f t="shared" si="7"/>
         <v>123.82499999999999</v>
       </c>
-      <c r="M25" s="66">
+      <c r="M26" s="66">
         <f t="shared" si="7"/>
         <v>114.29999999999998</v>
       </c>
-      <c r="N25" s="66">
+      <c r="N26" s="66">
         <f t="shared" si="7"/>
         <v>104.77499999999998</v>
       </c>
-      <c r="O25" s="66">
+      <c r="O26" s="66">
         <f t="shared" si="7"/>
         <v>95.249999999999986</v>
       </c>
-      <c r="P25" s="66">
+      <c r="P26" s="66">
         <f t="shared" si="7"/>
         <v>85.724999999999994</v>
       </c>
-      <c r="Q25" s="66">
+      <c r="Q26" s="66">
         <f t="shared" si="7"/>
         <v>76.199999999999989</v>
       </c>
-      <c r="R25" s="66">
+      <c r="R26" s="66">
         <f t="shared" si="7"/>
         <v>66.674999999999997</v>
       </c>
-      <c r="S25" s="66">
+      <c r="S26" s="66">
         <f t="shared" si="7"/>
         <v>57.150000000000006</v>
       </c>
-      <c r="T25" s="66">
+      <c r="T26" s="66">
         <f t="shared" si="7"/>
         <v>47.625</v>
       </c>
-      <c r="U25" s="66">
+      <c r="U26" s="66">
         <f t="shared" si="7"/>
         <v>38.099999999999994</v>
       </c>
-      <c r="V25" s="66">
+      <c r="V26" s="66">
         <f t="shared" si="7"/>
         <v>28.574999999999989</v>
       </c>
-      <c r="W25" s="66">
+      <c r="W26" s="66">
         <f t="shared" si="7"/>
         <v>19.049999999999983</v>
       </c>
-      <c r="X25" s="66">
+      <c r="X26" s="66">
         <f t="shared" si="7"/>
         <v>9.5250000000000057</v>
       </c>
-      <c r="Y25" s="66">
+      <c r="Y26" s="66">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="38"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:26">
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+    </row>
+    <row r="28" spans="1:26" ht="26.25">
+      <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+    <row r="30" spans="1:26" ht="18">
+      <c r="A30" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="V29" s="76"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="V30" s="73"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="67"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+      <c r="B31" s="67"/>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="70"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="B34" s="70"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="70"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" s="70"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
+    <row r="39" spans="1:2" ht="18">
+      <c r="A39" s="61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="67"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+      <c r="B40" s="67"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="64"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="B41" s="64"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="64"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" s="64"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="64"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" s="64"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
+    <row r="47" spans="1:2" ht="18">
+      <c r="A47" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="67" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="67"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" s="67"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="64"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="64"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="48"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
+    <row r="54" spans="1:5" ht="15">
+      <c r="E54" s="48"/>
+    </row>
+    <row r="55" spans="1:5" ht="18">
+      <c r="A55" s="61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="64"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+      <c r="B56" s="64"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="64"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B57" s="64"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="61" t="s">
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="64"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
+      <c r="B62" s="64"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="64"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B63" s="64"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6288,8 +6366,9 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D18:D22 F25:Z26 E25 E4:E6 E15:Y15 F4:Z12 E18:Z24" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
+    <dataValidation type="list" allowBlank="1" sqref="D19:D23 F26:Z27 E26 E4:E6 E16:Y16 F4:Z13 E19:Z25" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
       <formula1>$G$3:$L$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfel\OneDrive\Desktop\MSP-24-25\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE06C6A-C278-4316-A92D-E309831C921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D74923-4928-4AB3-8C55-3B434F162B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -842,9 +842,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,6 +886,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,9 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2749,16 +2746,16 @@
                   <c:v>137.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>135.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>134.75</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>134.25</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.25</c:v>
+                  <c:v>133.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131.25</c:v>
+                  <c:v>131.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,27 +4017,27 @@
       </c>
     </row>
     <row r="3" spans="2:2" ht="18">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="18">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="18">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="18">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="18">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="60" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4144,7 +4141,7 @@
       <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="61" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4684,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4855,82 +4852,82 @@
       <c r="A4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="55">
         <v>45755</v>
       </c>
       <c r="D4" s="50">
         <v>45755</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="65">
         <v>0.5</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="64">
         <v>0.5</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65">
         <f>E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="77"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <v>45755</v>
       </c>
       <c r="D5" s="50">
         <v>45755</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="65">
         <v>3</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="64">
         <v>3</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66">
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65">
         <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
         <v>0</v>
       </c>
@@ -4939,149 +4936,149 @@
       <c r="A6" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="55">
         <v>45756</v>
       </c>
       <c r="D6" s="50">
         <v>45757</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="65">
         <v>1</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="64">
         <v>1</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66">
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="77"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>45757</v>
       </c>
       <c r="D7" s="50">
         <v>45762</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="68">
         <v>35</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="65">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="64">
         <v>1</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="64">
         <v>5.5</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="64">
         <v>3.5</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="64">
         <v>1.25</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="64">
         <v>1.5</v>
       </c>
-      <c r="P7" s="71">
+      <c r="P7" s="70">
         <v>4</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="71">
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="70">
         <v>5.5</v>
       </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66">
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="70">
         <v>0.5</v>
       </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66">
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65">
         <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="77"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>45759</v>
       </c>
       <c r="D8" s="50">
         <v>45763</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <v>30</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="65">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="64">
         <v>3</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="65">
+      <c r="L8" s="65"/>
+      <c r="M8" s="64">
         <v>4</v>
       </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="65">
+      <c r="N8" s="65"/>
+      <c r="O8" s="64">
         <v>2</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="64">
         <v>7.5</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="70">
         <v>1.5</v>
       </c>
-      <c r="R8" s="71">
+      <c r="R8" s="70">
         <v>2</v>
       </c>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66">
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="70">
         <v>0.5</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66">
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="65">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -5090,39 +5087,39 @@
       <c r="A9" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <v>45762</v>
       </c>
       <c r="D9" s="50">
         <v>45769</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <v>50</v>
       </c>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -5131,90 +5128,90 @@
       <c r="A10" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>45763</v>
       </c>
       <c r="D10" s="50">
         <v>45767</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="68">
         <v>1</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="65">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="64">
         <v>1</v>
       </c>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="65">
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="64">
         <v>0.5</v>
       </c>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="77"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="55">
         <v>45765</v>
       </c>
       <c r="D11" s="50">
         <v>45770</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="68">
         <v>35</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="65">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="64">
         <v>1.5</v>
       </c>
-      <c r="T11" s="65">
+      <c r="T11" s="64">
         <v>1</v>
       </c>
-      <c r="U11" s="66">
+      <c r="U11" s="65">
         <v>1</v>
       </c>
-      <c r="V11" s="66">
+      <c r="V11" s="70">
         <v>0.5</v>
       </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66">
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -5223,359 +5220,359 @@
       <c r="A12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="55">
         <v>45769</v>
       </c>
       <c r="D12" s="50">
         <v>45774</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="68">
         <v>35</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="65">
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="64">
         <v>2</v>
       </c>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66">
-        <v>1</v>
-      </c>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66">
+      <c r="U12" s="65"/>
+      <c r="V12" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="55">
         <v>45770</v>
       </c>
       <c r="D13" s="50">
         <v>45774</v>
       </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="71">
+      <c r="E13" s="68"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="70">
         <v>1</v>
       </c>
-      <c r="Y13" s="71">
+      <c r="Y13" s="70">
         <v>2</v>
       </c>
-      <c r="Z13" s="66"/>
+      <c r="Z13" s="65"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <f>SUM(E4:E12)</f>
         <v>190.5</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="67">
         <f>SUM(F4:F13)</f>
         <v>4.5</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <f>SUM(G4:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="67">
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="67">
         <f t="shared" ref="I14:Y14" si="1">SUM(I4:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="67">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="67">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="67">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="67">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="67">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="67">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="67">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S14" s="68">
+      <c r="S14" s="67">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T14" s="68">
+      <c r="T14" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U14" s="68">
+      <c r="U14" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V14" s="68">
+      <c r="V14" s="67">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="W14" s="68">
+        <v>2</v>
+      </c>
+      <c r="W14" s="67">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="X14" s="68">
+      <c r="X14" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="68">
+      <c r="Y14" s="67">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Z14" s="68">
+      <c r="Z14" s="67">
         <f>SUM(Z4:Z12)</f>
-        <v>134.25</v>
+        <v>134.75</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="64"/>
+      <c r="A15" s="63"/>
       <c r="B15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="67">
         <f>E14</f>
         <v>190.5</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="67">
         <f>E15-F14</f>
         <v>186</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="67">
         <f t="shared" ref="G15:Y15" si="2">F15-G14</f>
         <v>186</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="67">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="67">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="67">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="L15" s="68">
+      <c r="L15" s="67">
         <f t="shared" si="2"/>
         <v>176.5</v>
       </c>
-      <c r="M15" s="68">
+      <c r="M15" s="67">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="67">
         <f t="shared" si="2"/>
         <v>167.75</v>
       </c>
-      <c r="O15" s="68">
+      <c r="O15" s="67">
         <f t="shared" si="2"/>
         <v>163.25</v>
       </c>
-      <c r="P15" s="68">
+      <c r="P15" s="67">
         <f t="shared" si="2"/>
         <v>151.75</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="67">
         <f t="shared" si="2"/>
         <v>150.25</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="67">
         <f t="shared" si="2"/>
         <v>148.25</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="67">
         <f t="shared" si="2"/>
         <v>141.25</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="67">
         <f t="shared" si="2"/>
         <v>138.25</v>
       </c>
-      <c r="U15" s="68">
+      <c r="U15" s="67">
         <f t="shared" si="2"/>
         <v>137.25</v>
       </c>
-      <c r="V15" s="68">
+      <c r="V15" s="67">
+        <f t="shared" si="2"/>
+        <v>135.25</v>
+      </c>
+      <c r="W15" s="67">
         <f t="shared" si="2"/>
         <v>134.75</v>
       </c>
-      <c r="W15" s="68">
+      <c r="X15" s="67">
         <f t="shared" si="2"/>
-        <v>134.25</v>
-      </c>
-      <c r="X15" s="68">
+        <v>133.75</v>
+      </c>
+      <c r="Y15" s="67">
         <f t="shared" si="2"/>
-        <v>133.25</v>
-      </c>
-      <c r="Y15" s="68">
-        <f t="shared" si="2"/>
-        <v>131.25</v>
+        <v>131.75</v>
       </c>
       <c r="Z15" s="39"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="65">
         <f>E14</f>
         <v>190.5</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="65">
         <f>$E$16-F2*$E$16/COUNT($F$3:$Y$3)</f>
         <v>180.97499999999999</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="65">
         <f t="shared" ref="G16:Y16" si="3">$E$16-G2*$E$16/COUNT($F$3:$Y$3)</f>
         <v>171.45</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="65">
         <f t="shared" si="3"/>
         <v>161.92500000000001</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="65">
         <f t="shared" si="3"/>
         <v>152.4</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="65">
         <f t="shared" si="3"/>
         <v>142.875</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="65">
         <f t="shared" si="3"/>
         <v>133.35</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="65">
         <f t="shared" si="3"/>
         <v>123.825</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="65">
         <f t="shared" si="3"/>
         <v>114.3</v>
       </c>
-      <c r="N16" s="66">
+      <c r="N16" s="65">
         <f t="shared" si="3"/>
         <v>104.77500000000001</v>
       </c>
-      <c r="O16" s="66">
+      <c r="O16" s="65">
         <f t="shared" si="3"/>
         <v>95.25</v>
       </c>
-      <c r="P16" s="66">
+      <c r="P16" s="65">
         <f t="shared" si="3"/>
         <v>85.724999999999994</v>
       </c>
-      <c r="Q16" s="66">
+      <c r="Q16" s="65">
         <f t="shared" si="3"/>
         <v>76.2</v>
       </c>
-      <c r="R16" s="66">
+      <c r="R16" s="65">
         <f t="shared" si="3"/>
         <v>66.674999999999997</v>
       </c>
-      <c r="S16" s="66">
+      <c r="S16" s="65">
         <f t="shared" si="3"/>
         <v>57.150000000000006</v>
       </c>
-      <c r="T16" s="66">
+      <c r="T16" s="65">
         <f t="shared" si="3"/>
         <v>47.625</v>
       </c>
-      <c r="U16" s="66">
+      <c r="U16" s="65">
         <f t="shared" si="3"/>
         <v>38.099999999999994</v>
       </c>
-      <c r="V16" s="66">
+      <c r="V16" s="65">
         <f t="shared" si="3"/>
         <v>28.574999999999989</v>
       </c>
-      <c r="W16" s="66">
+      <c r="W16" s="65">
         <f t="shared" si="3"/>
         <v>19.050000000000011</v>
       </c>
-      <c r="X16" s="66">
+      <c r="X16" s="65">
         <f t="shared" si="3"/>
         <v>9.5250000000000057</v>
       </c>
-      <c r="Y16" s="66">
+      <c r="Y16" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5654,507 +5651,505 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="65">
         <v>30.1</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="64">
         <v>0.1</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65">
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="64">
         <v>2.5</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="64">
         <v>2.5</v>
       </c>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="65">
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="64">
         <v>4.5</v>
       </c>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="65">
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="64">
         <v>0.4</v>
       </c>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66">
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65">
         <f>E19-SUM(F19:Y19)</f>
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="65">
         <v>68.099999999999994</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="64">
         <v>3.1</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="71">
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="70">
         <v>0.5</v>
       </c>
-      <c r="R20" s="71">
+      <c r="R20" s="70">
         <v>2</v>
       </c>
-      <c r="S20" s="71">
+      <c r="S20" s="70">
         <v>5.5</v>
       </c>
-      <c r="T20" s="65">
+      <c r="T20" s="64">
         <v>0.4</v>
       </c>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66">
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65">
         <f t="shared" ref="Z20:Z22" si="4">E20-SUM(F20:Y20)</f>
         <v>56.599999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="65">
         <v>30.1</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="64">
         <v>0.1</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="65">
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="64">
         <v>3</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="65">
+      <c r="L21" s="65"/>
+      <c r="M21" s="64">
         <v>2</v>
       </c>
-      <c r="N21" s="71">
+      <c r="N21" s="70">
         <v>1</v>
       </c>
-      <c r="O21" s="66"/>
-      <c r="P21" s="71">
+      <c r="O21" s="65"/>
+      <c r="P21" s="70">
         <v>4</v>
       </c>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="65">
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="64">
         <v>1.5</v>
       </c>
-      <c r="T21" s="65">
+      <c r="T21" s="64">
         <v>0.4</v>
       </c>
-      <c r="U21" s="71">
+      <c r="U21" s="70">
         <v>1</v>
       </c>
-      <c r="V21" s="71">
+      <c r="V21" s="70">
+        <v>2</v>
+      </c>
+      <c r="W21" s="73"/>
+      <c r="X21" s="70">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="70">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="65">
+        <f t="shared" si="4"/>
+        <v>12.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="D22" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="65">
+        <v>32.1</v>
+      </c>
+      <c r="F22" s="64">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="64">
+        <v>1</v>
+      </c>
+      <c r="N22" s="64">
+        <v>0.25</v>
+      </c>
+      <c r="O22" s="64">
         <v>2.5</v>
       </c>
-      <c r="W21" s="71">
-        <v>2</v>
-      </c>
-      <c r="X21" s="71">
+      <c r="P22" s="64">
         <v>1</v>
       </c>
-      <c r="Y21" s="71">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="66">
-        <f t="shared" si="4"/>
-        <v>9.6000000000000014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="D22" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="66">
-        <v>32.1</v>
-      </c>
-      <c r="F22" s="65">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="65">
-        <v>1</v>
-      </c>
-      <c r="N22" s="65">
-        <v>0.25</v>
-      </c>
-      <c r="O22" s="65">
-        <v>2.5</v>
-      </c>
-      <c r="P22" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="65">
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="64">
         <v>1.4</v>
       </c>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="65">
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="64">
         <v>0.5</v>
       </c>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66">
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65">
         <f t="shared" si="4"/>
         <v>24.35</v>
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="65">
         <v>30.1</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <v>0.1</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="65">
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="64">
         <v>1</v>
       </c>
-      <c r="L23" s="65">
+      <c r="L23" s="64">
         <v>3</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="64">
         <v>2</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="65">
+      <c r="N23" s="65"/>
+      <c r="O23" s="64">
         <v>2</v>
       </c>
-      <c r="P23" s="65">
+      <c r="P23" s="64">
         <v>2</v>
       </c>
-      <c r="Q23" s="65">
+      <c r="Q23" s="64">
         <v>1</v>
       </c>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="65">
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="64">
         <v>0.4</v>
       </c>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66">
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65">
         <f>E23-SUM(F23:Y23)</f>
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="65">
         <f>SUM(E19:E23)</f>
         <v>190.49999999999997</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="65">
         <f t="shared" ref="F24:Y24" si="5">SUM(F19:F23)</f>
         <v>4.5</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="65">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L24" s="65">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="M24" s="66">
+      <c r="M24" s="65">
         <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
-      <c r="N24" s="66">
+      <c r="N24" s="65">
         <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
-      <c r="O24" s="66">
+      <c r="O24" s="65">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
-      <c r="P24" s="66">
+      <c r="P24" s="65">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
-      <c r="Q24" s="66">
+      <c r="Q24" s="65">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="R24" s="66">
+      <c r="R24" s="65">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="S24" s="66">
+      <c r="S24" s="65">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="T24" s="66">
+      <c r="T24" s="65">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="U24" s="66">
+      <c r="U24" s="65">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V24" s="66">
+      <c r="V24" s="65">
         <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="W24" s="66">
+        <v>2</v>
+      </c>
+      <c r="W24" s="65">
         <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="X24" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="X24" s="65">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y24" s="66">
+      <c r="Y24" s="65">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="Z24" s="66">
+      <c r="Z24" s="65">
         <f>SUM(Z19:Z23)</f>
-        <v>129.24999999999997</v>
+        <v>131.74999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="65">
         <f>E24</f>
         <v>190.49999999999997</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="65">
         <f>E25-F24</f>
         <v>185.99999999999997</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="65">
         <f t="shared" ref="G25:Y25" si="6">F25-G24</f>
         <v>185.99999999999997</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="65">
         <f t="shared" si="6"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="65">
         <f t="shared" si="6"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="65">
         <f t="shared" si="6"/>
         <v>185.99999999999997</v>
       </c>
-      <c r="K25" s="66">
+      <c r="K25" s="65">
         <f t="shared" si="6"/>
         <v>181.99999999999997</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="65">
         <f t="shared" si="6"/>
         <v>176.49999999999997</v>
       </c>
-      <c r="M25" s="66">
+      <c r="M25" s="65">
         <f t="shared" si="6"/>
         <v>168.99999999999997</v>
       </c>
-      <c r="N25" s="66">
+      <c r="N25" s="65">
         <f t="shared" si="6"/>
         <v>167.74999999999997</v>
       </c>
-      <c r="O25" s="66">
+      <c r="O25" s="65">
         <f t="shared" si="6"/>
         <v>163.24999999999997</v>
       </c>
-      <c r="P25" s="66">
+      <c r="P25" s="65">
         <f t="shared" si="6"/>
         <v>151.74999999999997</v>
       </c>
-      <c r="Q25" s="66">
+      <c r="Q25" s="65">
         <f t="shared" si="6"/>
         <v>150.24999999999997</v>
       </c>
-      <c r="R25" s="66">
+      <c r="R25" s="65">
         <f t="shared" si="6"/>
         <v>148.24999999999997</v>
       </c>
-      <c r="S25" s="66">
+      <c r="S25" s="65">
         <f t="shared" si="6"/>
         <v>141.24999999999997</v>
       </c>
-      <c r="T25" s="66">
+      <c r="T25" s="65">
         <f t="shared" si="6"/>
         <v>138.24999999999997</v>
       </c>
-      <c r="U25" s="66">
+      <c r="U25" s="65">
         <f t="shared" si="6"/>
         <v>137.24999999999997</v>
       </c>
-      <c r="V25" s="66">
+      <c r="V25" s="65">
+        <f t="shared" si="6"/>
+        <v>135.24999999999997</v>
+      </c>
+      <c r="W25" s="65">
         <f t="shared" si="6"/>
         <v>134.74999999999997</v>
       </c>
-      <c r="W25" s="66">
+      <c r="X25" s="65">
         <f t="shared" si="6"/>
-        <v>132.24999999999997</v>
-      </c>
-      <c r="X25" s="66">
+        <v>133.74999999999997</v>
+      </c>
+      <c r="Y25" s="65">
         <f t="shared" si="6"/>
-        <v>131.24999999999997</v>
-      </c>
-      <c r="Y25" s="66">
-        <f t="shared" si="6"/>
-        <v>129.24999999999997</v>
+        <v>131.74999999999997</v>
       </c>
       <c r="Z25" s="38"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="65">
         <f>E24</f>
         <v>190.49999999999997</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="65">
         <f>$E$26-F2*$E$26/COUNT($F$3:$Y$3)</f>
         <v>180.97499999999997</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="65">
         <f t="shared" ref="G26:Y26" si="7">$E$26-G2*$E$26/COUNT($F$3:$Y$3)</f>
         <v>171.45</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="65">
         <f t="shared" si="7"/>
         <v>161.92499999999998</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="65">
         <f t="shared" si="7"/>
         <v>152.39999999999998</v>
       </c>
-      <c r="J26" s="66">
+      <c r="J26" s="65">
         <f t="shared" si="7"/>
         <v>142.87499999999997</v>
       </c>
-      <c r="K26" s="66">
+      <c r="K26" s="65">
         <f t="shared" si="7"/>
         <v>133.34999999999997</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="65">
         <f t="shared" si="7"/>
         <v>123.82499999999999</v>
       </c>
-      <c r="M26" s="66">
+      <c r="M26" s="65">
         <f t="shared" si="7"/>
         <v>114.29999999999998</v>
       </c>
-      <c r="N26" s="66">
+      <c r="N26" s="65">
         <f t="shared" si="7"/>
         <v>104.77499999999998</v>
       </c>
-      <c r="O26" s="66">
+      <c r="O26" s="65">
         <f t="shared" si="7"/>
         <v>95.249999999999986</v>
       </c>
-      <c r="P26" s="66">
+      <c r="P26" s="65">
         <f t="shared" si="7"/>
         <v>85.724999999999994</v>
       </c>
-      <c r="Q26" s="66">
+      <c r="Q26" s="65">
         <f t="shared" si="7"/>
         <v>76.199999999999989</v>
       </c>
-      <c r="R26" s="66">
+      <c r="R26" s="65">
         <f t="shared" si="7"/>
         <v>66.674999999999997</v>
       </c>
-      <c r="S26" s="66">
+      <c r="S26" s="65">
         <f t="shared" si="7"/>
         <v>57.150000000000006</v>
       </c>
-      <c r="T26" s="66">
+      <c r="T26" s="65">
         <f t="shared" si="7"/>
         <v>47.625</v>
       </c>
-      <c r="U26" s="66">
+      <c r="U26" s="65">
         <f t="shared" si="7"/>
         <v>38.099999999999994</v>
       </c>
-      <c r="V26" s="66">
+      <c r="V26" s="65">
         <f t="shared" si="7"/>
         <v>28.574999999999989</v>
       </c>
-      <c r="W26" s="66">
+      <c r="W26" s="65">
         <f t="shared" si="7"/>
         <v>19.049999999999983</v>
       </c>
-      <c r="X26" s="66">
+      <c r="X26" s="65">
         <f t="shared" si="7"/>
         <v>9.5250000000000057</v>
       </c>
-      <c r="Y26" s="66">
+      <c r="Y26" s="65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6189,33 +6184,33 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="18">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="V30" s="73"/>
+      <c r="V30" s="72"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="67"/>
+      <c r="B31" s="66"/>
     </row>
     <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="70"/>
+      <c r="B34" s="69"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="69"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
@@ -6228,27 +6223,27 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="67"/>
+      <c r="B40" s="66"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="64"/>
+      <c r="B41" s="63"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="64"/>
+      <c r="B42" s="63"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
@@ -6256,10 +6251,10 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="64"/>
+      <c r="B44" s="63"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
@@ -6267,15 +6262,15 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="18">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="67"/>
+      <c r="B48" s="66"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
@@ -6283,10 +6278,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="64"/>
+      <c r="B50" s="63"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
@@ -6307,21 +6302,21 @@
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:5" ht="18">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="60" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="64"/>
+      <c r="B56" s="63"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="64"/>
+      <c r="B57" s="63"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
@@ -6334,21 +6329,21 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="18">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="64"/>
+      <c r="B62" s="63"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="64"/>
+      <c r="B63" s="63"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfel\OneDrive\Desktop\MSP-24-25\msp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D74923-4928-4AB3-8C55-3B434F162B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A9C4B-4342-47C0-86BA-F70A6E533D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="BURNDOWN CHART" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
     <definedName name="color">'GANTT CHART'!$E1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'GANTT CHART'!$A:$M</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"project-timeline.xlsx"</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>TASK</t>
   </si>
@@ -159,28 +159,7 @@
     <t>ESTIMATE (Hours)</t>
   </si>
   <si>
-    <t>TEAM MEMBERS</t>
-  </si>
-  <si>
-    <t>Bernardo Carvalho</t>
-  </si>
-  <si>
-    <t>Guilherme Santana</t>
-  </si>
-  <si>
-    <t>João Félix</t>
-  </si>
-  <si>
-    <t>Luís Lamy</t>
-  </si>
-  <si>
-    <t>Yaroslav Hayduk</t>
-  </si>
-  <si>
     <t>REMAINING WORK</t>
-  </si>
-  <si>
-    <t>Tasks Assigned</t>
   </si>
   <si>
     <t>Total</t>
@@ -201,37 +180,7 @@
     <t>Luís Lamy (Scrum Master)</t>
   </si>
   <si>
-    <t>Generate Sprint 1 Burndown Chart #3 (1 hour)</t>
-  </si>
-  <si>
-    <t>SysML diagram for 3 FR #4 (5 hours)</t>
-  </si>
-  <si>
-    <t>Model Main Business Process (BPMN) #5 (6 hours)</t>
-  </si>
-  <si>
-    <t>Implement Back-End Logic for Basic Features #8 (10 hours)</t>
-  </si>
-  <si>
-    <t>Design Front-End UI #6 (30 hours)</t>
-  </si>
-  <si>
-    <t>Implement Front-End #7 (7 hours)</t>
-  </si>
-  <si>
     <t>Guilherme Santana (Quality Controller)</t>
-  </si>
-  <si>
-    <t>Gantt Chart and Task Dependencies #2 (3 hours)</t>
-  </si>
-  <si>
-    <t>Quality Check and Testing #9 (35 hours)</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Define Team Roles and Responsibilities #1 (0.5 hours)</t>
   </si>
   <si>
     <t>Yaroslav Hayduk (Team Member)</t>
@@ -243,9 +192,6 @@
     <t>Working Days</t>
   </si>
   <si>
-    <t>Work divided by the whole team</t>
-  </si>
-  <si>
     <t>Model Main Business Process and Features (BPMN) #5</t>
   </si>
   <si>
@@ -254,18 +200,22 @@
   <si>
     <t>Write a report on the project</t>
   </si>
+  <si>
+    <t>Implement Front-End and Back-End #7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,21 +321,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF2A4E81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF2A4E81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,19 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,8 +415,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6ADD6A"/>
+        <bgColor rgb="FF6ADD6A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FF6ADD6A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -662,17 +661,54 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -684,7 +720,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -795,12 +831,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -825,70 +855,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="6" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,14 +869,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1034,7 +1067,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2532,7 +2565,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2698,64 +2731,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>186</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>186</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176.5</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169</c:v>
+                  <c:v>84.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167.75</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>163.25</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151.75</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.25</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>148.25</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>141.25</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>138.25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>137.25</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>135.25</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>134.75</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133.75</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2861,61 +2894,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>180.97499999999999</c:v>
+                  <c:v>100.9375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.45</c:v>
+                  <c:v>95.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.92500000000001</c:v>
+                  <c:v>90.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.4</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.875</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.35</c:v>
+                  <c:v>74.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.825</c:v>
+                  <c:v>69.0625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.3</c:v>
+                  <c:v>63.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.77500000000001</c:v>
+                  <c:v>58.4375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.25</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85.724999999999994</c:v>
+                  <c:v>47.8125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76.2</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66.674999999999997</c:v>
+                  <c:v>37.1875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57.150000000000006</c:v>
+                  <c:v>31.875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.625</c:v>
+                  <c:v>26.5625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.099999999999994</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.574999999999989</c:v>
+                  <c:v>15.9375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.050000000000011</c:v>
+                  <c:v>10.625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5250000000000057</c:v>
+                  <c:v>5.3125</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -3711,8 +3744,8 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>293613</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>146808</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4005,40 +4038,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF283FC5-4BF5-4EF5-8A21-CE5D1B5BCAD4}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18">
-      <c r="B3" s="60" t="s">
-        <v>49</v>
+    <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="47" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="18">
-      <c r="B4" s="60" t="s">
-        <v>50</v>
+    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="18">
-      <c r="B5" s="60" t="s">
-        <v>57</v>
+    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="18">
-      <c r="B6" s="60" t="s">
-        <v>62</v>
+    <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="18">
-      <c r="B7" s="60" t="s">
-        <v>63</v>
+    <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4053,24 +4086,24 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="85" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" zoomScale="80" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="47.75" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="47.69921875" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="6.8984375" customWidth="1"/>
     <col min="8" max="13" width="6" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25">
+    <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4087,7 +4120,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
@@ -4104,7 +4137,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1">
+    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -4141,11 +4174,11 @@
       <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="61" t="s">
-        <v>64</v>
+      <c r="M4" s="48" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="15" hidden="1">
+    <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -4159,8 +4192,8 @@
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4207,8 +4240,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4253,8 +4286,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4301,8 +4334,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4347,10 +4380,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1">
-      <c r="A10" s="75"/>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
       <c r="B10" s="21" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C10" s="34">
         <v>45759</v>
@@ -4393,7 +4426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="15">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>27</v>
       </c>
@@ -4441,8 +4474,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1">
-      <c r="A12" s="74" t="s">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4488,8 +4521,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1">
-      <c r="A13" s="75"/>
+    <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4534,7 +4567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="15">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>35</v>
       </c>
@@ -4582,7 +4615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16" t="s">
@@ -4599,10 +4632,10 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" spans="1:13" ht="15">
-      <c r="D16" s="49"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="46"/>
     </row>
-    <row r="19" spans="2:5" ht="24">
+    <row r="19" spans="2:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4616,7 +4649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -4630,33 +4663,33 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="40" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>45774</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="40">
         <v>0.25</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="40">
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
     </row>
-    <row r="36" spans="1:1" ht="26.25">
+    <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
     </row>
   </sheetData>
@@ -4679,1681 +4712,939 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="48.875" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="25" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="25" width="8.69921875" customWidth="1"/>
     <col min="26" max="26" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="33" x14ac:dyDescent="0.4">
+      <c r="A1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
-    <row r="2" spans="1:26">
-      <c r="C2" s="5"/>
-      <c r="F2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="56"/>
+      <c r="F2" s="57">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="57">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="57">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="57">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="57">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="57">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="57">
         <v>7</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="57">
         <v>8</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="57">
         <v>9</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="57">
         <v>10</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="57">
         <v>11</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="57">
         <v>12</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="57">
         <v>13</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="57">
         <v>14</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="57">
         <v>15</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="57">
         <v>16</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="57">
         <v>17</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="57">
         <v>18</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="57">
         <v>19</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="60">
         <v>45755</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="60">
         <v>45756</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="60">
         <v>45757</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="60">
         <v>45758</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="60">
         <v>45759</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="60">
         <v>45760</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="60">
         <v>45761</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="60">
         <v>45762</v>
       </c>
-      <c r="N3" s="53">
+      <c r="N3" s="60">
         <v>45763</v>
       </c>
-      <c r="O3" s="53">
+      <c r="O3" s="60">
         <v>45764</v>
       </c>
-      <c r="P3" s="53">
+      <c r="P3" s="60">
         <v>45765</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="60">
         <v>45766</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="60">
         <v>45767</v>
       </c>
-      <c r="S3" s="53">
+      <c r="S3" s="60">
         <v>45768</v>
       </c>
-      <c r="T3" s="53">
+      <c r="T3" s="60">
         <v>45769</v>
       </c>
-      <c r="U3" s="53">
+      <c r="U3" s="60">
         <v>45770</v>
       </c>
-      <c r="V3" s="53">
+      <c r="V3" s="60">
         <v>45771</v>
       </c>
-      <c r="W3" s="53">
+      <c r="W3" s="60">
         <v>45772</v>
       </c>
-      <c r="X3" s="53">
+      <c r="X3" s="60">
         <v>45773</v>
       </c>
-      <c r="Y3" s="53">
+      <c r="Y3" s="60">
         <v>45774</v>
       </c>
-      <c r="Z3" s="52" t="s">
-        <v>43</v>
+      <c r="Z3" s="59" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="63">
         <v>45755</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="63">
         <v>45755</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <v>0.5</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="65">
         <v>0.5</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65">
-        <f>E4-SUM(F4:Y4)</f>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64">
+        <f t="shared" ref="Z4:Z13" si="0">E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="77"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
       <c r="B5" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="63">
         <v>45755</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="63">
         <v>45755</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="64">
         <v>3</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="65">
         <v>3</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65">
-        <f t="shared" ref="Z5:Z12" si="0">E5-SUM(F5:Y5)</f>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="77" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="63">
         <v>45756</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="63">
         <v>45757</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="65">
         <v>1</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65">
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="77"/>
-      <c r="B7" s="56" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="63">
         <v>45757</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="63">
         <v>45762</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="64">
+        <v>24.25</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65">
+        <v>1</v>
+      </c>
+      <c r="L7" s="65">
+        <v>5.5</v>
+      </c>
+      <c r="M7" s="65">
+        <v>3.5</v>
+      </c>
+      <c r="N7" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="O7" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="65">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="65">
+        <v>5.5</v>
+      </c>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="65">
+        <v>1</v>
+      </c>
+      <c r="W7" s="64"/>
+      <c r="X7" s="69">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="63">
+        <v>45759</v>
+      </c>
+      <c r="D8" s="63">
+        <v>45763</v>
+      </c>
+      <c r="E8" s="64">
+        <v>25.5</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65">
+        <v>3</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65">
+        <v>4</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65">
+        <v>2</v>
+      </c>
+      <c r="P8" s="65">
+        <v>7.5</v>
+      </c>
+      <c r="Q8" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="R8" s="65">
+        <v>2</v>
+      </c>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="65">
+        <v>2</v>
+      </c>
+      <c r="V8" s="65">
+        <v>1</v>
+      </c>
+      <c r="W8" s="64"/>
+      <c r="X8" s="65">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="Z8" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="63">
+        <v>45762</v>
+      </c>
+      <c r="D9" s="63">
+        <v>45769</v>
+      </c>
+      <c r="E9" s="64">
+        <v>20</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="69">
+        <v>4</v>
+      </c>
+      <c r="U9" s="69">
+        <v>4</v>
+      </c>
+      <c r="V9" s="69">
+        <v>2</v>
+      </c>
+      <c r="W9" s="69">
+        <v>6</v>
+      </c>
+      <c r="X9" s="69">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="63">
+        <v>45763</v>
+      </c>
+      <c r="D10" s="63">
+        <v>45767</v>
+      </c>
+      <c r="E10" s="64">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65">
+        <v>1</v>
+      </c>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="69">
+        <v>2</v>
+      </c>
+      <c r="V10" s="69">
+        <v>2</v>
+      </c>
+      <c r="W10" s="65">
+        <f>0.5+2</f>
+        <v>2.5</v>
+      </c>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="63">
+        <v>45765</v>
+      </c>
+      <c r="D11" s="63">
+        <v>45770</v>
+      </c>
+      <c r="E11" s="64">
+        <v>5</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="T11" s="65">
+        <v>1</v>
+      </c>
+      <c r="U11" s="72">
+        <v>1</v>
+      </c>
+      <c r="V11" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="W11" s="69">
+        <v>1</v>
+      </c>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="64">
+      <c r="B12" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="63">
+        <v>45769</v>
+      </c>
+      <c r="D12" s="63">
+        <v>45774</v>
+      </c>
+      <c r="E12" s="64">
+        <v>11.5</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="65">
+        <v>2</v>
+      </c>
+      <c r="U12" s="64"/>
+      <c r="V12" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="W12" s="72">
         <v>1</v>
       </c>
-      <c r="L7" s="64">
-        <v>5.5</v>
-      </c>
-      <c r="M7" s="64">
-        <v>3.5</v>
-      </c>
-      <c r="N7" s="64">
-        <v>1.25</v>
-      </c>
-      <c r="O7" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="70">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="70">
-        <v>5.5</v>
-      </c>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65">
-        <f t="shared" si="0"/>
-        <v>12.25</v>
+      <c r="X12" s="72">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="72">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="Z12" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="77"/>
-      <c r="B8" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="55">
-        <v>45759</v>
-      </c>
-      <c r="D8" s="50">
-        <v>45763</v>
-      </c>
-      <c r="E8" s="68">
-        <v>30</v>
-      </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="64">
-        <v>3</v>
-      </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="64">
-        <v>4</v>
-      </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="64">
-        <v>2</v>
-      </c>
-      <c r="P8" s="64">
-        <v>7.5</v>
-      </c>
-      <c r="Q8" s="70">
-        <v>1.5</v>
-      </c>
-      <c r="R8" s="70">
-        <v>2</v>
-      </c>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="63">
+        <v>45770</v>
+      </c>
+      <c r="D13" s="63">
+        <v>45774</v>
+      </c>
+      <c r="E13" s="64">
+        <v>8</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="65">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="65">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="55">
-        <v>45762</v>
-      </c>
-      <c r="D9" s="50">
-        <v>45769</v>
-      </c>
-      <c r="E9" s="68">
-        <v>50</v>
-      </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="55">
-        <v>45763</v>
-      </c>
-      <c r="D10" s="50">
-        <v>45767</v>
-      </c>
-      <c r="E10" s="68">
-        <v>1</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="64">
-        <v>1</v>
-      </c>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="77"/>
-      <c r="B11" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="55">
-        <v>45765</v>
-      </c>
-      <c r="D11" s="50">
-        <v>45770</v>
-      </c>
-      <c r="E11" s="68">
-        <v>35</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="T11" s="64">
-        <v>1</v>
-      </c>
-      <c r="U11" s="65">
-        <v>1</v>
-      </c>
-      <c r="V11" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15">
-      <c r="A12" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="55">
-        <v>45769</v>
-      </c>
-      <c r="D12" s="50">
-        <v>45774</v>
-      </c>
-      <c r="E12" s="68">
-        <v>35</v>
-      </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="64">
-        <v>2</v>
-      </c>
-      <c r="U12" s="65"/>
-      <c r="V12" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65">
-        <f t="shared" si="0"/>
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15">
-      <c r="A13" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="55">
-        <v>45770</v>
-      </c>
-      <c r="D13" s="50">
-        <v>45774</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="70">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="70">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="65"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="D14" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="67">
-        <f>SUM(E4:E12)</f>
-        <v>190.5</v>
-      </c>
-      <c r="F14" s="67">
-        <f>SUM(F4:F13)</f>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="74">
+        <f>SUM(E4:E13)</f>
+        <v>106.25</v>
+      </c>
+      <c r="F14" s="74">
+        <f t="shared" ref="F14:Y14" si="1">SUM(F4:F13)</f>
         <v>4.5</v>
       </c>
-      <c r="G14" s="67">
-        <f>SUM(G4:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="67">
-        <f>SUM(H4:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="67">
-        <f t="shared" ref="I14:Y14" si="1">SUM(I4:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="67">
+      <c r="G14" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="67">
+      <c r="H14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="74">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="74">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="M14" s="67">
+      <c r="M14" s="74">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="N14" s="67">
+      <c r="N14" s="74">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="O14" s="67">
+      <c r="O14" s="74">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="P14" s="67">
+      <c r="P14" s="74">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="Q14" s="67">
+      <c r="Q14" s="74">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R14" s="67">
+      <c r="R14" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S14" s="67">
+      <c r="S14" s="74">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T14" s="67">
+      <c r="T14" s="74">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="U14" s="67">
+        <v>7</v>
+      </c>
+      <c r="U14" s="74">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="67">
+        <v>9</v>
+      </c>
+      <c r="V14" s="74">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W14" s="67">
+        <v>7</v>
+      </c>
+      <c r="W14" s="74">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="X14" s="67">
+        <v>10.5</v>
+      </c>
+      <c r="X14" s="74">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y14" s="67">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="74">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z14" s="67">
+        <v>12.5</v>
+      </c>
+      <c r="Z14" s="74">
         <f>SUM(Z4:Z12)</f>
-        <v>134.75</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="63"/>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="67">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="57"/>
+      <c r="D15" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="74">
         <f>E14</f>
-        <v>190.5</v>
-      </c>
-      <c r="F15" s="67">
-        <f>E15-F14</f>
-        <v>186</v>
-      </c>
-      <c r="G15" s="67">
-        <f t="shared" ref="G15:Y15" si="2">F15-G14</f>
-        <v>186</v>
-      </c>
-      <c r="H15" s="67">
+        <v>106.25</v>
+      </c>
+      <c r="F15" s="74">
+        <f t="shared" ref="F15:Y15" si="2">E15-F14</f>
+        <v>101.75</v>
+      </c>
+      <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="I15" s="67">
+        <v>101.75</v>
+      </c>
+      <c r="H15" s="74">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="J15" s="67">
+        <v>101.75</v>
+      </c>
+      <c r="I15" s="74">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="K15" s="67">
+        <v>101.75</v>
+      </c>
+      <c r="J15" s="74">
         <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-      <c r="L15" s="67">
+        <v>101.75</v>
+      </c>
+      <c r="K15" s="74">
         <f t="shared" si="2"/>
-        <v>176.5</v>
-      </c>
-      <c r="M15" s="67">
+        <v>97.75</v>
+      </c>
+      <c r="L15" s="74">
         <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-      <c r="N15" s="67">
+        <v>92.25</v>
+      </c>
+      <c r="M15" s="74">
         <f t="shared" si="2"/>
-        <v>167.75</v>
-      </c>
-      <c r="O15" s="67">
+        <v>84.75</v>
+      </c>
+      <c r="N15" s="74">
         <f t="shared" si="2"/>
-        <v>163.25</v>
-      </c>
-      <c r="P15" s="67">
+        <v>83.5</v>
+      </c>
+      <c r="O15" s="74">
         <f t="shared" si="2"/>
-        <v>151.75</v>
-      </c>
-      <c r="Q15" s="67">
+        <v>79</v>
+      </c>
+      <c r="P15" s="74">
         <f t="shared" si="2"/>
-        <v>150.25</v>
-      </c>
-      <c r="R15" s="67">
+        <v>67.5</v>
+      </c>
+      <c r="Q15" s="74">
         <f t="shared" si="2"/>
-        <v>148.25</v>
-      </c>
-      <c r="S15" s="67">
+        <v>66</v>
+      </c>
+      <c r="R15" s="74">
         <f t="shared" si="2"/>
-        <v>141.25</v>
-      </c>
-      <c r="T15" s="67">
+        <v>64</v>
+      </c>
+      <c r="S15" s="74">
         <f t="shared" si="2"/>
-        <v>138.25</v>
-      </c>
-      <c r="U15" s="67">
+        <v>57</v>
+      </c>
+      <c r="T15" s="74">
         <f t="shared" si="2"/>
-        <v>137.25</v>
-      </c>
-      <c r="V15" s="67">
+        <v>50</v>
+      </c>
+      <c r="U15" s="74">
         <f t="shared" si="2"/>
-        <v>135.25</v>
-      </c>
-      <c r="W15" s="67">
+        <v>41</v>
+      </c>
+      <c r="V15" s="74">
         <f t="shared" si="2"/>
-        <v>134.75</v>
-      </c>
-      <c r="X15" s="67">
+        <v>34</v>
+      </c>
+      <c r="W15" s="74">
         <f t="shared" si="2"/>
-        <v>133.75</v>
-      </c>
-      <c r="Y15" s="67">
+        <v>23.5</v>
+      </c>
+      <c r="X15" s="74">
         <f t="shared" si="2"/>
-        <v>131.75</v>
-      </c>
-      <c r="Z15" s="39"/>
+        <v>12.5</v>
+      </c>
+      <c r="Y15" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="76"/>
     </row>
-    <row r="16" spans="1:26">
-      <c r="D16" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="65">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D16" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="64">
         <f>E14</f>
-        <v>190.5</v>
-      </c>
-      <c r="F16" s="65">
-        <f>$E$16-F2*$E$16/COUNT($F$3:$Y$3)</f>
-        <v>180.97499999999999</v>
-      </c>
-      <c r="G16" s="65">
-        <f t="shared" ref="G16:Y16" si="3">$E$16-G2*$E$16/COUNT($F$3:$Y$3)</f>
-        <v>171.45</v>
-      </c>
-      <c r="H16" s="65">
+        <v>106.25</v>
+      </c>
+      <c r="F16" s="64">
+        <f t="shared" ref="F16:Y16" si="3">$E$16-F2*$E$16/COUNT($F$3:$Y$3)</f>
+        <v>100.9375</v>
+      </c>
+      <c r="G16" s="64">
         <f t="shared" si="3"/>
-        <v>161.92500000000001</v>
-      </c>
-      <c r="I16" s="65">
+        <v>95.625</v>
+      </c>
+      <c r="H16" s="64">
         <f t="shared" si="3"/>
-        <v>152.4</v>
-      </c>
-      <c r="J16" s="65">
+        <v>90.3125</v>
+      </c>
+      <c r="I16" s="64">
         <f t="shared" si="3"/>
-        <v>142.875</v>
-      </c>
-      <c r="K16" s="65">
+        <v>85</v>
+      </c>
+      <c r="J16" s="64">
         <f t="shared" si="3"/>
-        <v>133.35</v>
-      </c>
-      <c r="L16" s="65">
+        <v>79.6875</v>
+      </c>
+      <c r="K16" s="64">
         <f t="shared" si="3"/>
-        <v>123.825</v>
-      </c>
-      <c r="M16" s="65">
+        <v>74.375</v>
+      </c>
+      <c r="L16" s="64">
         <f t="shared" si="3"/>
-        <v>114.3</v>
-      </c>
-      <c r="N16" s="65">
+        <v>69.0625</v>
+      </c>
+      <c r="M16" s="64">
         <f t="shared" si="3"/>
-        <v>104.77500000000001</v>
-      </c>
-      <c r="O16" s="65">
+        <v>63.75</v>
+      </c>
+      <c r="N16" s="64">
         <f t="shared" si="3"/>
-        <v>95.25</v>
-      </c>
-      <c r="P16" s="65">
+        <v>58.4375</v>
+      </c>
+      <c r="O16" s="64">
         <f t="shared" si="3"/>
-        <v>85.724999999999994</v>
-      </c>
-      <c r="Q16" s="65">
+        <v>53.125</v>
+      </c>
+      <c r="P16" s="64">
         <f t="shared" si="3"/>
-        <v>76.2</v>
-      </c>
-      <c r="R16" s="65">
+        <v>47.8125</v>
+      </c>
+      <c r="Q16" s="64">
         <f t="shared" si="3"/>
-        <v>66.674999999999997</v>
-      </c>
-      <c r="S16" s="65">
+        <v>42.5</v>
+      </c>
+      <c r="R16" s="64">
         <f t="shared" si="3"/>
-        <v>57.150000000000006</v>
-      </c>
-      <c r="T16" s="65">
+        <v>37.1875</v>
+      </c>
+      <c r="S16" s="64">
         <f t="shared" si="3"/>
-        <v>47.625</v>
-      </c>
-      <c r="U16" s="65">
+        <v>31.875</v>
+      </c>
+      <c r="T16" s="64">
         <f t="shared" si="3"/>
-        <v>38.099999999999994</v>
-      </c>
-      <c r="V16" s="65">
+        <v>26.5625</v>
+      </c>
+      <c r="U16" s="64">
         <f t="shared" si="3"/>
-        <v>28.574999999999989</v>
-      </c>
-      <c r="W16" s="65">
+        <v>21.25</v>
+      </c>
+      <c r="V16" s="64">
         <f t="shared" si="3"/>
-        <v>19.050000000000011</v>
-      </c>
-      <c r="X16" s="65">
+        <v>15.9375</v>
+      </c>
+      <c r="W16" s="64">
         <f t="shared" si="3"/>
-        <v>9.5250000000000057</v>
-      </c>
-      <c r="Y16" s="65">
+        <v>10.625</v>
+      </c>
+      <c r="X16" s="64">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="39"/>
-    </row>
-    <row r="18" spans="1:26" ht="26.25">
-      <c r="A18" s="1"/>
-      <c r="D18" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="53">
-        <v>45755</v>
-      </c>
-      <c r="G18" s="53">
-        <v>45756</v>
-      </c>
-      <c r="H18" s="53">
-        <v>45757</v>
-      </c>
-      <c r="I18" s="53">
-        <v>45758</v>
-      </c>
-      <c r="J18" s="53">
-        <v>45759</v>
-      </c>
-      <c r="K18" s="53">
-        <v>45760</v>
-      </c>
-      <c r="L18" s="53">
-        <v>45761</v>
-      </c>
-      <c r="M18" s="53">
-        <v>45762</v>
-      </c>
-      <c r="N18" s="53">
-        <v>45763</v>
-      </c>
-      <c r="O18" s="53">
-        <v>45764</v>
-      </c>
-      <c r="P18" s="53">
-        <v>45765</v>
-      </c>
-      <c r="Q18" s="53">
-        <v>45766</v>
-      </c>
-      <c r="R18" s="53">
-        <v>45767</v>
-      </c>
-      <c r="S18" s="53">
-        <v>45768</v>
-      </c>
-      <c r="T18" s="53">
-        <v>45769</v>
-      </c>
-      <c r="U18" s="53">
-        <v>45770</v>
-      </c>
-      <c r="V18" s="53">
-        <v>45771</v>
-      </c>
-      <c r="W18" s="53">
-        <v>45772</v>
-      </c>
-      <c r="X18" s="53">
-        <v>45773</v>
-      </c>
-      <c r="Y18" s="53">
-        <v>45774</v>
-      </c>
-      <c r="Z18" s="52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="D19" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="65">
-        <v>30.1</v>
-      </c>
-      <c r="F19" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="64">
-        <v>2.5</v>
-      </c>
-      <c r="M19" s="64">
-        <v>2.5</v>
-      </c>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="64">
-        <v>4.5</v>
-      </c>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65">
-        <f>E19-SUM(F19:Y19)</f>
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="D20" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="65">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="F20" s="64">
-        <v>3.1</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="R20" s="70">
-        <v>2</v>
-      </c>
-      <c r="S20" s="70">
-        <v>5.5</v>
-      </c>
-      <c r="T20" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65">
-        <f t="shared" ref="Z20:Z22" si="4">E20-SUM(F20:Y20)</f>
-        <v>56.599999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="D21" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="65">
-        <v>30.1</v>
-      </c>
-      <c r="F21" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="64">
-        <v>3</v>
-      </c>
-      <c r="L21" s="65"/>
-      <c r="M21" s="64">
-        <v>2</v>
-      </c>
-      <c r="N21" s="70">
-        <v>1</v>
-      </c>
-      <c r="O21" s="65"/>
-      <c r="P21" s="70">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="65"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="T21" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="U21" s="70">
-        <v>1</v>
-      </c>
-      <c r="V21" s="70">
-        <v>2</v>
-      </c>
-      <c r="W21" s="73"/>
-      <c r="X21" s="70">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="70">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="65">
-        <f t="shared" si="4"/>
-        <v>12.100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="D22" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="65">
-        <v>32.1</v>
-      </c>
-      <c r="F22" s="64">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="64">
-        <v>1</v>
-      </c>
-      <c r="N22" s="64">
-        <v>0.25</v>
-      </c>
-      <c r="O22" s="64">
-        <v>2.5</v>
-      </c>
-      <c r="P22" s="64">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="64">
-        <v>1.4</v>
-      </c>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="64">
-        <v>0.5</v>
-      </c>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65">
-        <f t="shared" si="4"/>
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="D23" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="65">
-        <v>30.1</v>
-      </c>
-      <c r="F23" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="64">
-        <v>1</v>
-      </c>
-      <c r="L23" s="64">
-        <v>3</v>
-      </c>
-      <c r="M23" s="64">
-        <v>2</v>
-      </c>
-      <c r="N23" s="65"/>
-      <c r="O23" s="64">
-        <v>2</v>
-      </c>
-      <c r="P23" s="64">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="64">
-        <v>1</v>
-      </c>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65">
-        <f>E23-SUM(F23:Y23)</f>
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="D24" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="65">
-        <f>SUM(E19:E23)</f>
-        <v>190.49999999999997</v>
-      </c>
-      <c r="F24" s="65">
-        <f t="shared" ref="F24:Y24" si="5">SUM(F19:F23)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="65">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="L24" s="65">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="M24" s="65">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
-      </c>
-      <c r="N24" s="65">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="O24" s="65">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="P24" s="65">
-        <f t="shared" si="5"/>
-        <v>11.5</v>
-      </c>
-      <c r="Q24" s="65">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="R24" s="65">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="S24" s="65">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="T24" s="65">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="U24" s="65">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V24" s="65">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="W24" s="65">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="X24" s="65">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="65">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="Z24" s="65">
-        <f>SUM(Z19:Z23)</f>
-        <v>131.74999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="D25" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="65">
-        <f>E24</f>
-        <v>190.49999999999997</v>
-      </c>
-      <c r="F25" s="65">
-        <f>E25-F24</f>
-        <v>185.99999999999997</v>
-      </c>
-      <c r="G25" s="65">
-        <f t="shared" ref="G25:Y25" si="6">F25-G24</f>
-        <v>185.99999999999997</v>
-      </c>
-      <c r="H25" s="65">
-        <f t="shared" si="6"/>
-        <v>185.99999999999997</v>
-      </c>
-      <c r="I25" s="65">
-        <f t="shared" si="6"/>
-        <v>185.99999999999997</v>
-      </c>
-      <c r="J25" s="65">
-        <f t="shared" si="6"/>
-        <v>185.99999999999997</v>
-      </c>
-      <c r="K25" s="65">
-        <f t="shared" si="6"/>
-        <v>181.99999999999997</v>
-      </c>
-      <c r="L25" s="65">
-        <f t="shared" si="6"/>
-        <v>176.49999999999997</v>
-      </c>
-      <c r="M25" s="65">
-        <f t="shared" si="6"/>
-        <v>168.99999999999997</v>
-      </c>
-      <c r="N25" s="65">
-        <f t="shared" si="6"/>
-        <v>167.74999999999997</v>
-      </c>
-      <c r="O25" s="65">
-        <f t="shared" si="6"/>
-        <v>163.24999999999997</v>
-      </c>
-      <c r="P25" s="65">
-        <f t="shared" si="6"/>
-        <v>151.74999999999997</v>
-      </c>
-      <c r="Q25" s="65">
-        <f t="shared" si="6"/>
-        <v>150.24999999999997</v>
-      </c>
-      <c r="R25" s="65">
-        <f t="shared" si="6"/>
-        <v>148.24999999999997</v>
-      </c>
-      <c r="S25" s="65">
-        <f t="shared" si="6"/>
-        <v>141.24999999999997</v>
-      </c>
-      <c r="T25" s="65">
-        <f t="shared" si="6"/>
-        <v>138.24999999999997</v>
-      </c>
-      <c r="U25" s="65">
-        <f t="shared" si="6"/>
-        <v>137.24999999999997</v>
-      </c>
-      <c r="V25" s="65">
-        <f t="shared" si="6"/>
-        <v>135.24999999999997</v>
-      </c>
-      <c r="W25" s="65">
-        <f t="shared" si="6"/>
-        <v>134.74999999999997</v>
-      </c>
-      <c r="X25" s="65">
-        <f t="shared" si="6"/>
-        <v>133.74999999999997</v>
-      </c>
-      <c r="Y25" s="65">
-        <f t="shared" si="6"/>
-        <v>131.74999999999997</v>
-      </c>
-      <c r="Z25" s="38"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="D26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="65">
-        <f>E24</f>
-        <v>190.49999999999997</v>
-      </c>
-      <c r="F26" s="65">
-        <f>$E$26-F2*$E$26/COUNT($F$3:$Y$3)</f>
-        <v>180.97499999999997</v>
-      </c>
-      <c r="G26" s="65">
-        <f t="shared" ref="G26:Y26" si="7">$E$26-G2*$E$26/COUNT($F$3:$Y$3)</f>
-        <v>171.45</v>
-      </c>
-      <c r="H26" s="65">
-        <f t="shared" si="7"/>
-        <v>161.92499999999998</v>
-      </c>
-      <c r="I26" s="65">
-        <f t="shared" si="7"/>
-        <v>152.39999999999998</v>
-      </c>
-      <c r="J26" s="65">
-        <f t="shared" si="7"/>
-        <v>142.87499999999997</v>
-      </c>
-      <c r="K26" s="65">
-        <f t="shared" si="7"/>
-        <v>133.34999999999997</v>
-      </c>
-      <c r="L26" s="65">
-        <f t="shared" si="7"/>
-        <v>123.82499999999999</v>
-      </c>
-      <c r="M26" s="65">
-        <f t="shared" si="7"/>
-        <v>114.29999999999998</v>
-      </c>
-      <c r="N26" s="65">
-        <f t="shared" si="7"/>
-        <v>104.77499999999998</v>
-      </c>
-      <c r="O26" s="65">
-        <f t="shared" si="7"/>
-        <v>95.249999999999986</v>
-      </c>
-      <c r="P26" s="65">
-        <f t="shared" si="7"/>
-        <v>85.724999999999994</v>
-      </c>
-      <c r="Q26" s="65">
-        <f t="shared" si="7"/>
-        <v>76.199999999999989</v>
-      </c>
-      <c r="R26" s="65">
-        <f t="shared" si="7"/>
-        <v>66.674999999999997</v>
-      </c>
-      <c r="S26" s="65">
-        <f t="shared" si="7"/>
-        <v>57.150000000000006</v>
-      </c>
-      <c r="T26" s="65">
-        <f t="shared" si="7"/>
-        <v>47.625</v>
-      </c>
-      <c r="U26" s="65">
-        <f t="shared" si="7"/>
-        <v>38.099999999999994</v>
-      </c>
-      <c r="V26" s="65">
-        <f t="shared" si="7"/>
-        <v>28.574999999999989</v>
-      </c>
-      <c r="W26" s="65">
-        <f t="shared" si="7"/>
-        <v>19.049999999999983</v>
-      </c>
-      <c r="X26" s="65">
-        <f t="shared" si="7"/>
-        <v>9.5250000000000057</v>
-      </c>
-      <c r="Y26" s="65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="38"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-    </row>
-    <row r="28" spans="1:26" ht="26.25">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="18">
-      <c r="A30" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="V30" s="72"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="66"/>
-    </row>
-    <row r="33" spans="1:2" ht="18">
-      <c r="A33" s="60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="69"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="69"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18">
-      <c r="A39" s="60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="66"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="63"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="63"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="63"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18">
-      <c r="A47" s="60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="66"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="63"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="E54" s="48"/>
-    </row>
-    <row r="55" spans="1:5" ht="18">
-      <c r="A55" s="60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="63"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="63"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18">
-      <c r="A61" s="60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="63"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="63"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
+        <v>5.3125</v>
+      </c>
+      <c r="Y16" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6361,9 +5652,9 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D19:D23 F26:Z27 E26 E4:E6 E16:Y16 F4:Z13 E19:Z25" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
+    <dataValidation type="list" allowBlank="1" sqref="E4:Z6 E16:Y16 F7:Z13" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
       <formula1>$G$3:$L$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A9C4B-4342-47C0-86BA-F70A6E533D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8529A36E-ABA9-490D-9E63-8B14E975E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>TASK</t>
   </si>
@@ -144,13 +144,7 @@
     <t>Quality Check and Testing #9</t>
   </si>
   <si>
-    <t>Gantt Chart</t>
-  </si>
-  <si>
     <t>Documentation</t>
-  </si>
-  <si>
-    <t>Burndown Chart</t>
   </si>
   <si>
     <t>Quality</t>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t>Implement Front-End and Back-End #7</t>
+  </si>
+  <si>
+    <t>Burndown Chart - Sprint 1</t>
+  </si>
+  <si>
+    <t>Burndown Chart - Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -860,15 +860,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -892,9 +883,6 @@
     <xf numFmtId="16" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -907,8 +895,6 @@
     <xf numFmtId="2" fontId="15" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +920,20 @@
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4038,7 +4038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF283FC5-4BF5-4EF5-8A21-CE5D1B5BCAD4}">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4046,32 +4046,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4086,8 +4086,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="80" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="37" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4105,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -4175,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4193,7 +4193,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="71" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4241,7 +4241,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4287,8 +4287,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>33</v>
+      <c r="A8" s="71" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>23</v>
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4381,9 +4381,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="34">
         <v>45759</v>
@@ -4475,7 +4475,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="71" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>31</v>
@@ -4690,7 +4690,9 @@
       <c r="E23" s="42"/>
     </row>
     <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4712,10 +4714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4730,921 +4732,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C2" s="56"/>
-      <c r="F2" s="57">
+      <c r="C2" s="53"/>
+      <c r="F2" s="54">
         <v>1</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="54">
         <v>2</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="54">
         <v>3</v>
       </c>
-      <c r="I2" s="57">
+      <c r="I2" s="54">
         <v>4</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="54">
         <v>5</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="54">
         <v>6</v>
       </c>
-      <c r="L2" s="57">
+      <c r="L2" s="54">
         <v>7</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="54">
         <v>8</v>
       </c>
-      <c r="N2" s="57">
+      <c r="N2" s="54">
         <v>9</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="54">
         <v>10</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="54">
         <v>11</v>
       </c>
-      <c r="Q2" s="57">
+      <c r="Q2" s="54">
         <v>12</v>
       </c>
-      <c r="R2" s="57">
+      <c r="R2" s="54">
         <v>13</v>
       </c>
-      <c r="S2" s="57">
+      <c r="S2" s="54">
         <v>14</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="54">
         <v>15</v>
       </c>
-      <c r="U2" s="57">
+      <c r="U2" s="54">
         <v>16</v>
       </c>
-      <c r="V2" s="57">
+      <c r="V2" s="54">
         <v>17</v>
       </c>
-      <c r="W2" s="57">
+      <c r="W2" s="54">
         <v>18</v>
       </c>
-      <c r="X2" s="57">
+      <c r="X2" s="54">
         <v>19</v>
       </c>
-      <c r="Y2" s="57">
+      <c r="Y2" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="60">
+      <c r="E3" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="57">
         <v>45755</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="57">
         <v>45756</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="57">
         <v>45757</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="57">
         <v>45758</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="57">
         <v>45759</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="57">
         <v>45760</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="57">
         <v>45761</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="57">
         <v>45762</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="57">
         <v>45763</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="57">
         <v>45764</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="57">
         <v>45765</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="57">
         <v>45766</v>
       </c>
-      <c r="R3" s="60">
+      <c r="R3" s="57">
         <v>45767</v>
       </c>
-      <c r="S3" s="60">
+      <c r="S3" s="57">
         <v>45768</v>
       </c>
-      <c r="T3" s="60">
+      <c r="T3" s="57">
         <v>45769</v>
       </c>
-      <c r="U3" s="60">
+      <c r="U3" s="57">
         <v>45770</v>
       </c>
-      <c r="V3" s="60">
+      <c r="V3" s="57">
         <v>45771</v>
       </c>
-      <c r="W3" s="60">
+      <c r="W3" s="57">
         <v>45772</v>
       </c>
-      <c r="X3" s="60">
+      <c r="X3" s="57">
         <v>45773</v>
       </c>
-      <c r="Y3" s="60">
+      <c r="Y3" s="57">
         <v>45774</v>
       </c>
-      <c r="Z3" s="59" t="s">
-        <v>37</v>
+      <c r="Z3" s="56" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="59">
         <v>45755</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="59">
         <v>45755</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="60">
         <v>0.5</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="61">
         <v>0.5</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60">
         <f t="shared" ref="Z4:Z13" si="0">E4-SUM(F4:Y4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="59">
         <v>45755</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="59">
         <v>45755</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="60">
         <v>3</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="61">
         <v>3</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="59">
         <v>45756</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="59">
         <v>45757</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="60">
         <v>1</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="61">
         <v>1</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="59">
         <v>45757</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="59">
         <v>45762</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="60">
         <v>24.25</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61">
         <v>1</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="61">
         <v>5.5</v>
       </c>
-      <c r="M7" s="65">
+      <c r="M7" s="61">
         <v>3.5</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="61">
         <v>1.25</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="61">
         <v>1.5</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="61">
         <v>4</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="65">
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="61">
         <v>5.5</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="65">
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61">
         <v>1</v>
       </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="69">
+      <c r="W7" s="60"/>
+      <c r="X7" s="63">
         <v>1</v>
       </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64">
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="63">
+      <c r="A8" s="75"/>
+      <c r="B8" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="59">
         <v>45759</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="59">
         <v>45763</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="60">
         <v>25.5</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61">
         <v>3</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65">
+      <c r="L8" s="60"/>
+      <c r="M8" s="61">
         <v>4</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65">
+      <c r="N8" s="60"/>
+      <c r="O8" s="61">
         <v>2</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="61">
         <v>7.5</v>
       </c>
-      <c r="Q8" s="65">
+      <c r="Q8" s="61">
         <v>1.5</v>
       </c>
-      <c r="R8" s="65">
+      <c r="R8" s="61">
         <v>2</v>
       </c>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="65">
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="61">
         <v>2</v>
       </c>
-      <c r="V8" s="65">
+      <c r="V8" s="61">
         <v>1</v>
       </c>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65">
+      <c r="W8" s="60"/>
+      <c r="X8" s="61">
         <v>2</v>
       </c>
-      <c r="Y8" s="65">
+      <c r="Y8" s="61">
         <v>0.5</v>
       </c>
-      <c r="Z8" s="64">
+      <c r="Z8" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="59">
         <v>45762</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="59">
         <v>45769</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="60">
         <v>20</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="69">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="63">
         <v>4</v>
       </c>
-      <c r="U9" s="69">
+      <c r="U9" s="63">
         <v>4</v>
       </c>
-      <c r="V9" s="69">
+      <c r="V9" s="63">
         <v>2</v>
       </c>
-      <c r="W9" s="69">
+      <c r="W9" s="63">
         <v>6</v>
       </c>
-      <c r="X9" s="69">
+      <c r="X9" s="63">
         <v>4</v>
       </c>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64">
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="59">
         <v>45763</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="59">
         <v>45767</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="60">
         <v>7.5</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61">
         <v>1</v>
       </c>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="69">
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="63">
         <v>2</v>
       </c>
-      <c r="V10" s="69">
+      <c r="V10" s="63">
         <v>2</v>
       </c>
-      <c r="W10" s="65">
+      <c r="W10" s="61">
         <f>0.5+2</f>
         <v>2.5</v>
       </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64">
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="63">
+      <c r="A11" s="75"/>
+      <c r="B11" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="59">
         <v>45765</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="59">
         <v>45770</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="60">
         <v>5</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="61">
         <v>1.5</v>
       </c>
-      <c r="T11" s="65">
+      <c r="T11" s="61">
         <v>1</v>
       </c>
-      <c r="U11" s="72">
+      <c r="U11" s="66">
         <v>1</v>
       </c>
-      <c r="V11" s="65">
+      <c r="V11" s="61">
         <v>0.5</v>
       </c>
-      <c r="W11" s="69">
+      <c r="W11" s="63">
         <v>1</v>
       </c>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64">
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="68" t="s">
+      <c r="A12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="59">
         <v>45769</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="59">
         <v>45774</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="60">
         <v>11.5</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="65">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="61">
         <v>2</v>
       </c>
-      <c r="U12" s="64"/>
-      <c r="V12" s="65">
+      <c r="U12" s="60"/>
+      <c r="V12" s="61">
         <v>0.5</v>
       </c>
-      <c r="W12" s="72">
+      <c r="W12" s="66">
         <v>1</v>
       </c>
-      <c r="X12" s="72">
+      <c r="X12" s="66">
         <v>3</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="Y12" s="66">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="Z12" s="64">
+      <c r="Z12" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="63">
+      <c r="A13" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="59">
         <v>45770</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="59">
         <v>45774</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="60">
         <v>8</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="65">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="61">
         <v>1</v>
       </c>
-      <c r="Y13" s="65">
+      <c r="Y13" s="61">
         <v>7</v>
       </c>
-      <c r="Z13" s="64">
+      <c r="Z13" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D14" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="74">
+      <c r="D14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="68">
         <f>SUM(E4:E13)</f>
         <v>106.25</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="68">
         <f t="shared" ref="F14:Y14" si="1">SUM(F4:F13)</f>
         <v>4.5</v>
       </c>
-      <c r="G14" s="74">
+      <c r="G14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="74">
+      <c r="H14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="68">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="68">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="M14" s="74">
+      <c r="M14" s="68">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="N14" s="74">
+      <c r="N14" s="68">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="O14" s="74">
+      <c r="O14" s="68">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="P14" s="74">
+      <c r="P14" s="68">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="Q14" s="74">
+      <c r="Q14" s="68">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="R14" s="74">
+      <c r="R14" s="68">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="S14" s="74">
+      <c r="S14" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T14" s="74">
+      <c r="T14" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="U14" s="74">
+      <c r="U14" s="68">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="V14" s="74">
+      <c r="V14" s="68">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W14" s="74">
+      <c r="W14" s="68">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="X14" s="74">
+      <c r="X14" s="68">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Y14" s="74">
+      <c r="Y14" s="68">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="Z14" s="74">
+      <c r="Z14" s="68">
         <f>SUM(Z4:Z12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="57"/>
-      <c r="D15" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="74">
+      <c r="A15" s="69"/>
+      <c r="B15" s="54"/>
+      <c r="D15" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="68">
         <f>E14</f>
         <v>106.25</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="68">
         <f t="shared" ref="F15:Y15" si="2">E15-F14</f>
         <v>101.75</v>
       </c>
-      <c r="G15" s="74">
+      <c r="G15" s="68">
         <f t="shared" si="2"/>
         <v>101.75</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="68">
         <f t="shared" si="2"/>
         <v>101.75</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="68">
         <f t="shared" si="2"/>
         <v>101.75</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="68">
         <f t="shared" si="2"/>
         <v>101.75</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="68">
         <f t="shared" si="2"/>
         <v>97.75</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="68">
         <f t="shared" si="2"/>
         <v>92.25</v>
       </c>
-      <c r="M15" s="74">
+      <c r="M15" s="68">
         <f t="shared" si="2"/>
         <v>84.75</v>
       </c>
-      <c r="N15" s="74">
+      <c r="N15" s="68">
         <f t="shared" si="2"/>
         <v>83.5</v>
       </c>
-      <c r="O15" s="74">
+      <c r="O15" s="68">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="P15" s="74">
+      <c r="P15" s="68">
         <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="Q15" s="74">
+      <c r="Q15" s="68">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="R15" s="74">
+      <c r="R15" s="68">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="S15" s="74">
+      <c r="S15" s="68">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="T15" s="74">
+      <c r="T15" s="68">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="U15" s="74">
+      <c r="U15" s="68">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="V15" s="74">
+      <c r="V15" s="68">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="W15" s="74">
+      <c r="W15" s="68">
         <f t="shared" si="2"/>
         <v>23.5</v>
       </c>
-      <c r="X15" s="74">
+      <c r="X15" s="68">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
-      <c r="Y15" s="74">
+      <c r="Y15" s="68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="76"/>
+      <c r="Z15" s="70"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D16" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="64">
+      <c r="D16" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="60">
         <f>E14</f>
         <v>106.25</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="60">
         <f t="shared" ref="F16:Y16" si="3">$E$16-F2*$E$16/COUNT($F$3:$Y$3)</f>
         <v>100.9375</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="60">
         <f t="shared" si="3"/>
         <v>95.625</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="60">
         <f t="shared" si="3"/>
         <v>90.3125</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="60">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="60">
         <f t="shared" si="3"/>
         <v>79.6875</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="60">
         <f t="shared" si="3"/>
         <v>74.375</v>
       </c>
-      <c r="L16" s="64">
+      <c r="L16" s="60">
         <f t="shared" si="3"/>
         <v>69.0625</v>
       </c>
-      <c r="M16" s="64">
+      <c r="M16" s="60">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
-      <c r="N16" s="64">
+      <c r="N16" s="60">
         <f t="shared" si="3"/>
         <v>58.4375</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="60">
         <f t="shared" si="3"/>
         <v>53.125</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="60">
         <f t="shared" si="3"/>
         <v>47.8125</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="60">
         <f t="shared" si="3"/>
         <v>42.5</v>
       </c>
-      <c r="R16" s="64">
+      <c r="R16" s="60">
         <f t="shared" si="3"/>
         <v>37.1875</v>
       </c>
-      <c r="S16" s="64">
+      <c r="S16" s="60">
         <f t="shared" si="3"/>
         <v>31.875</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="60">
         <f t="shared" si="3"/>
         <v>26.5625</v>
       </c>
-      <c r="U16" s="64">
+      <c r="U16" s="60">
         <f t="shared" si="3"/>
         <v>21.25</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="60">
         <f t="shared" si="3"/>
         <v>15.9375</v>
       </c>
-      <c r="W16" s="64">
+      <c r="W16" s="60">
         <f t="shared" si="3"/>
         <v>10.625</v>
       </c>
-      <c r="X16" s="64">
+      <c r="X16" s="60">
         <f t="shared" si="3"/>
         <v>5.3125</v>
       </c>
-      <c r="Y16" s="64">
+      <c r="Y16" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="76"/>
+      <c r="Z16" s="70"/>
+    </row>
+    <row r="36" spans="1:1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8529A36E-ABA9-490D-9E63-8B14E975E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3924EA-2A9E-4518-A335-79C5986E0043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>TASK</t>
   </si>
@@ -215,7 +215,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +370,13 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -720,7 +727,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -920,6 +927,11 @@
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,6 +946,13 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -2576,6 +2595,1504 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16711534991553686"/>
+          <c:y val="6.9525384471449764E-2"/>
+          <c:w val="0.75415747986728798"/>
+          <c:h val="0.92045292026357972"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Red</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Green</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$J$5:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Purple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Define Team Roles and Responsibilities #1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SysML diagram for 15 FR. #4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Design Front-End UI #6</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Implement Front-End #7</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality Check and Testing #9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Planning</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Documentation</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Back End</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Front End</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Quality</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$L$5:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="20"/>
+        <c:overlap val="100"/>
+        <c:axId val="123157888"/>
+        <c:axId val="123176064"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Coding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('GANTT CHART'!$C$20,'GANTT CHART'!$C$20)</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$D$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1st Delivery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="44000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('GANTT CHART'!$C$21,'GANTT CHART'!$C$21)</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>45774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$D$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'GANTT CHART'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="41000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('GANTT CHART'!$C$22,'GANTT CHART'!$C$22)</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'GANTT CHART'!$D$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F960-4B86-B672-C2B2050D4195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="123183488"/>
+        <c:axId val="123177600"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="123157888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123176064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123176064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45778"/>
+          <c:min val="45747"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]mmm\ d\,\ yyyy;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123157888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123177600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123183488"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123183488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123177600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2610,26 +4127,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2638,8 +4135,316 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="8"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Actual Burn</c:v>
           </c:tx>
@@ -2796,13 +4601,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-4313-4752-BE34-ADDA78B7C8D0}"/>
+              <c16:uniqueId val="{00000024-36B6-4DFE-8648-F9164FD2A5AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:idx val="11"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Ideal Burn</c:v>
           </c:tx>
@@ -2959,7 +4764,1909 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-4313-4752-BE34-ADDA78B7C8D0}"/>
+              <c16:uniqueId val="{00000025-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-36B6-4DFE-8648-F9164FD2A5AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-36B6-4DFE-8648-F9164FD2A5AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3081,40 +6788,12 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -3133,560 +6812,2737 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ideal Burn vs Actual Burn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
         <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>Actual Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>Ideal Burn</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100.9375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.4375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.8125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-5A3A-47B8-B909-F7A3D93431D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="16859088"/>
+        <c:axId val="16873968"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="16859088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16873968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="16873968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16859088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3729,6 +9585,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>155457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9BE1BB-319E-4B0A-993C-A100C833C392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3736,16 +9630,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>272642</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33410</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>173373</xdr:rowOff>
+      <xdr:rowOff>164512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>293613</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>54381</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>168349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3765,6 +9659,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>609340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>630311</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95075466-4A2C-4B06-909A-19D8349D193C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4084,10 +10016,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="37" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A22" zoomScale="52" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:AC68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4193,7 +10125,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="74" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -4241,7 +10173,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -4287,7 +10219,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="74" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -4335,7 +10267,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -4381,7 +10313,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
@@ -4475,7 +10407,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -4522,7 +10454,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -4689,19 +10621,768 @@
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
     </row>
-    <row r="36" spans="1:1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:29" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="38" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="36">
+        <v>45747</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="34">
+        <v>45755</v>
+      </c>
+      <c r="D41" s="35">
+        <v>45755</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="30">
+        <f>IF(ISBLANK(C41),0,C41)</f>
+        <v>45755</v>
+      </c>
+      <c r="G41" s="31">
+        <f t="shared" ref="G41:L49" si="3">IF(ISBLANK($D41),0,IF($E41=G$4,$D41-$C41+1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="32">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
+      <c r="B42" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="34">
+        <v>45755</v>
+      </c>
+      <c r="D42" s="35">
+        <v>45755</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="30">
+        <f t="shared" ref="F42:F49" si="4">IF(ISBLANK(C42),0,C42)</f>
+        <v>45755</v>
+      </c>
+      <c r="G42" s="31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="32">
+        <v>1</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="34">
+        <v>45756</v>
+      </c>
+      <c r="D43" s="35">
+        <v>45757</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="30">
+        <f t="shared" si="4"/>
+        <v>45756</v>
+      </c>
+      <c r="G43" s="31">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="32">
+        <v>2</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="76"/>
+      <c r="B44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="34">
+        <v>45757</v>
+      </c>
+      <c r="D44" s="35">
+        <v>45762</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="30">
+        <f t="shared" si="4"/>
+        <v>45757</v>
+      </c>
+      <c r="G44" s="31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H44" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="32">
+        <v>6</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="75"/>
+      <c r="B45" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="34">
+        <v>45759</v>
+      </c>
+      <c r="D45" s="35">
+        <v>45763</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="30">
+        <f t="shared" si="4"/>
+        <v>45759</v>
+      </c>
+      <c r="G45" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="31">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I45" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="32">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="34">
+        <v>45762</v>
+      </c>
+      <c r="D46" s="35">
+        <v>45769</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="30">
+        <f t="shared" si="4"/>
+        <v>45762</v>
+      </c>
+      <c r="G46" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="31">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I46" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="32">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="34">
+        <v>45763</v>
+      </c>
+      <c r="D47" s="35">
+        <v>45767</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="30">
+        <f t="shared" si="4"/>
+        <v>45763</v>
+      </c>
+      <c r="G47" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="31">
+        <v>1</v>
+      </c>
+      <c r="I47" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="32">
+        <v>1</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="75"/>
+      <c r="B48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="34">
+        <v>45765</v>
+      </c>
+      <c r="D48" s="35">
+        <v>45770</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="30">
+        <f t="shared" si="4"/>
+        <v>45765</v>
+      </c>
+      <c r="G48" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I48" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="32">
+        <v>6</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="34">
+        <v>45769</v>
+      </c>
+      <c r="D49" s="35">
+        <v>45774</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="30">
+        <f t="shared" si="4"/>
+        <v>45769</v>
+      </c>
+      <c r="G49" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="31">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J49" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <v>6</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+    </row>
+    <row r="50" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D51" s="46"/>
+    </row>
+    <row r="54" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="33">
+        <v>45764</v>
+      </c>
+      <c r="D55" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="39">
+        <v>45774</v>
+      </c>
+      <c r="D56" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="40">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B57" s="43"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E5:E14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E14 E40:E49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$4:$L$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -4714,10 +11395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="AK40" sqref="AK40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4729,6 +11410,7 @@
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="25" width="8.69921875" customWidth="1"/>
     <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="40" max="40" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" x14ac:dyDescent="0.4">
@@ -4884,7 +11566,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="58" t="s">
@@ -4927,7 +11609,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="58" t="s">
         <v>25</v>
       </c>
@@ -4968,7 +11650,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -5011,7 +11693,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="62" t="s">
         <v>24</v>
       </c>
@@ -5068,7 +11750,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="62" t="s">
         <v>46</v>
       </c>
@@ -5178,7 +11860,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="65" t="s">
@@ -5228,7 +11910,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="62" t="s">
         <v>49</v>
       </c>
@@ -5648,9 +12330,1218 @@
       </c>
       <c r="Z16" s="70"/>
     </row>
-    <row r="36" spans="1:1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+    <row r="20" spans="1:40" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F21" s="80">
+        <v>1</v>
+      </c>
+      <c r="G21" s="80">
+        <v>2</v>
+      </c>
+      <c r="H21" s="80">
+        <v>3</v>
+      </c>
+      <c r="I21" s="80">
+        <v>4</v>
+      </c>
+      <c r="J21" s="80">
+        <v>5</v>
+      </c>
+      <c r="K21" s="80">
+        <v>6</v>
+      </c>
+      <c r="L21" s="80">
+        <v>7</v>
+      </c>
+      <c r="M21" s="80">
+        <v>8</v>
+      </c>
+      <c r="N21" s="80">
+        <v>9</v>
+      </c>
+      <c r="O21" s="80">
+        <v>10</v>
+      </c>
+      <c r="P21" s="80">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="80">
+        <v>12</v>
+      </c>
+      <c r="R21" s="80">
+        <v>13</v>
+      </c>
+      <c r="S21" s="80">
+        <v>14</v>
+      </c>
+      <c r="T21" s="80">
+        <v>15</v>
+      </c>
+      <c r="U21" s="80">
+        <v>16</v>
+      </c>
+      <c r="V21" s="80">
+        <v>17</v>
+      </c>
+      <c r="W21" s="80">
+        <v>18</v>
+      </c>
+      <c r="X21" s="80">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="80">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="80">
+        <v>21</v>
+      </c>
+      <c r="AA21" s="80">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="80">
+        <v>23</v>
+      </c>
+      <c r="AC21" s="80">
+        <v>24</v>
+      </c>
+      <c r="AD21" s="80">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="80">
+        <v>26</v>
+      </c>
+      <c r="AF21" s="80">
+        <v>27</v>
+      </c>
+      <c r="AG21" s="80">
+        <v>28</v>
+      </c>
+      <c r="AH21" s="80">
+        <v>29</v>
+      </c>
+      <c r="AI21" s="80">
+        <v>30</v>
+      </c>
+      <c r="AJ21" s="80">
+        <v>31</v>
+      </c>
+      <c r="AK21" s="80">
+        <v>32</v>
+      </c>
+      <c r="AL21" s="80">
+        <v>33</v>
+      </c>
+      <c r="AM21" s="80">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="57">
+        <v>45775</v>
+      </c>
+      <c r="G22" s="57">
+        <v>45776</v>
+      </c>
+      <c r="H22" s="57">
+        <v>45777</v>
+      </c>
+      <c r="I22" s="57">
+        <v>45778</v>
+      </c>
+      <c r="J22" s="57">
+        <v>45779</v>
+      </c>
+      <c r="K22" s="57">
+        <v>45780</v>
+      </c>
+      <c r="L22" s="57">
+        <v>45781</v>
+      </c>
+      <c r="M22" s="57">
+        <v>45782</v>
+      </c>
+      <c r="N22" s="57">
+        <v>45783</v>
+      </c>
+      <c r="O22" s="57">
+        <v>45784</v>
+      </c>
+      <c r="P22" s="57">
+        <v>45785</v>
+      </c>
+      <c r="Q22" s="57">
+        <v>45786</v>
+      </c>
+      <c r="R22" s="57">
+        <v>45787</v>
+      </c>
+      <c r="S22" s="57">
+        <v>45788</v>
+      </c>
+      <c r="T22" s="57">
+        <v>45789</v>
+      </c>
+      <c r="U22" s="57">
+        <v>45790</v>
+      </c>
+      <c r="V22" s="57">
+        <v>45791</v>
+      </c>
+      <c r="W22" s="57">
+        <v>45792</v>
+      </c>
+      <c r="X22" s="57">
+        <v>45793</v>
+      </c>
+      <c r="Y22" s="57">
+        <v>45794</v>
+      </c>
+      <c r="Z22" s="57">
+        <v>45795</v>
+      </c>
+      <c r="AA22" s="57">
+        <v>45796</v>
+      </c>
+      <c r="AB22" s="57">
+        <v>45797</v>
+      </c>
+      <c r="AC22" s="57">
+        <v>45798</v>
+      </c>
+      <c r="AD22" s="57">
+        <v>45799</v>
+      </c>
+      <c r="AE22" s="57">
+        <v>45800</v>
+      </c>
+      <c r="AF22" s="57">
+        <v>45801</v>
+      </c>
+      <c r="AG22" s="57">
+        <v>45802</v>
+      </c>
+      <c r="AH22" s="57">
+        <v>45803</v>
+      </c>
+      <c r="AI22" s="57">
+        <v>45804</v>
+      </c>
+      <c r="AJ22" s="57">
+        <v>45805</v>
+      </c>
+      <c r="AK22" s="57">
+        <v>45806</v>
+      </c>
+      <c r="AL22" s="57">
+        <v>45807</v>
+      </c>
+      <c r="AM22" s="57">
+        <v>45808</v>
+      </c>
+      <c r="AN22" s="56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="59">
+        <v>45755</v>
+      </c>
+      <c r="D23" s="59">
+        <v>45755</v>
+      </c>
+      <c r="E23" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="60">
+        <f>E23-SUM(F23:AM23)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="72"/>
+      <c r="B24" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="59">
+        <v>45755</v>
+      </c>
+      <c r="D24" s="59">
+        <v>45755</v>
+      </c>
+      <c r="E24" s="60">
+        <v>3</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="60">
+        <f t="shared" ref="AN24:AN32" si="4">E24-SUM(F24:AM24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="59">
+        <v>45756</v>
+      </c>
+      <c r="D25" s="59">
+        <v>45757</v>
+      </c>
+      <c r="E25" s="60">
+        <v>1</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="59">
+        <v>45757</v>
+      </c>
+      <c r="D26" s="59">
+        <v>45762</v>
+      </c>
+      <c r="E26" s="60">
+        <v>24.25</v>
+      </c>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="60">
+        <f t="shared" si="4"/>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="59">
+        <v>45759</v>
+      </c>
+      <c r="D27" s="59">
+        <v>45763</v>
+      </c>
+      <c r="E27" s="60">
+        <v>25.5</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="60">
+        <f t="shared" si="4"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="59">
+        <v>45762</v>
+      </c>
+      <c r="D28" s="59">
+        <v>45769</v>
+      </c>
+      <c r="E28" s="60">
+        <v>20</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="60">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="59">
+        <v>45763</v>
+      </c>
+      <c r="D29" s="59">
+        <v>45767</v>
+      </c>
+      <c r="E29" s="60">
+        <v>7.5</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="60">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="72"/>
+      <c r="B30" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="59">
+        <v>45765</v>
+      </c>
+      <c r="D30" s="59">
+        <v>45770</v>
+      </c>
+      <c r="E30" s="60">
+        <v>5</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="82"/>
+      <c r="AN30" s="60">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="59">
+        <v>45769</v>
+      </c>
+      <c r="D31" s="59">
+        <v>45774</v>
+      </c>
+      <c r="E31" s="60">
+        <v>11.5</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="60">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="59">
+        <v>45770</v>
+      </c>
+      <c r="D32" s="59">
+        <v>45774</v>
+      </c>
+      <c r="E32" s="60">
+        <v>8</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="82"/>
+      <c r="AB32" s="82"/>
+      <c r="AC32" s="82"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
+      <c r="AK32" s="82"/>
+      <c r="AL32" s="82"/>
+      <c r="AM32" s="82"/>
+      <c r="AN32" s="60">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D33" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="68">
+        <f>SUM(E23:E32)</f>
+        <v>106.25</v>
+      </c>
+      <c r="F33" s="68">
+        <f t="shared" ref="F33:AR33" si="5">SUM(F23:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="68">
+        <f>SUM(AN23:AN32)</f>
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="54"/>
+      <c r="D34" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="68">
+        <f>E33</f>
+        <v>106.25</v>
+      </c>
+      <c r="F34" s="68">
+        <f>E34-F33</f>
+        <v>106.25</v>
+      </c>
+      <c r="G34" s="68">
+        <f t="shared" ref="G34:AM34" si="6">F34-G33</f>
+        <v>106.25</v>
+      </c>
+      <c r="H34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="I34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="J34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="K34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="L34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="M34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="N34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="O34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="P34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="Q34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="R34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="S34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="T34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="U34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="V34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="W34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="X34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="Y34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="Z34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AA34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AB34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AC34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AD34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AE34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AF34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AG34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AH34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AI34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AJ34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AK34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AL34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+      <c r="AM34" s="68">
+        <f t="shared" si="6"/>
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D35" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="60">
+        <f>E33</f>
+        <v>106.25</v>
+      </c>
+      <c r="F35" s="60">
+        <f>$E$35-F21*$E$35/COUNT($F$22:$AM$22)</f>
+        <v>103.125</v>
+      </c>
+      <c r="G35" s="60">
+        <f t="shared" ref="G35:AM35" si="7">$E$35-G21*$E$35/COUNT($F$22:$AM$22)</f>
+        <v>100</v>
+      </c>
+      <c r="H35" s="60">
+        <f t="shared" si="7"/>
+        <v>96.875</v>
+      </c>
+      <c r="I35" s="60">
+        <f t="shared" si="7"/>
+        <v>93.75</v>
+      </c>
+      <c r="J35" s="60">
+        <f t="shared" si="7"/>
+        <v>90.625</v>
+      </c>
+      <c r="K35" s="60">
+        <f t="shared" si="7"/>
+        <v>87.5</v>
+      </c>
+      <c r="L35" s="60">
+        <f t="shared" si="7"/>
+        <v>84.375</v>
+      </c>
+      <c r="M35" s="60">
+        <f t="shared" si="7"/>
+        <v>81.25</v>
+      </c>
+      <c r="N35" s="60">
+        <f t="shared" si="7"/>
+        <v>78.125</v>
+      </c>
+      <c r="O35" s="60">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="P35" s="60">
+        <f t="shared" si="7"/>
+        <v>71.875</v>
+      </c>
+      <c r="Q35" s="60">
+        <f t="shared" si="7"/>
+        <v>68.75</v>
+      </c>
+      <c r="R35" s="60">
+        <f t="shared" si="7"/>
+        <v>65.625</v>
+      </c>
+      <c r="S35" s="60">
+        <f t="shared" si="7"/>
+        <v>62.5</v>
+      </c>
+      <c r="T35" s="60">
+        <f t="shared" si="7"/>
+        <v>59.375</v>
+      </c>
+      <c r="U35" s="60">
+        <f t="shared" si="7"/>
+        <v>56.25</v>
+      </c>
+      <c r="V35" s="60">
+        <f t="shared" si="7"/>
+        <v>53.125</v>
+      </c>
+      <c r="W35" s="60">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="X35" s="60">
+        <f t="shared" si="7"/>
+        <v>46.875</v>
+      </c>
+      <c r="Y35" s="60">
+        <f t="shared" si="7"/>
+        <v>43.75</v>
+      </c>
+      <c r="Z35" s="60">
+        <f t="shared" si="7"/>
+        <v>40.625</v>
+      </c>
+      <c r="AA35" s="60">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="AB35" s="60">
+        <f t="shared" si="7"/>
+        <v>34.375</v>
+      </c>
+      <c r="AC35" s="60">
+        <f t="shared" si="7"/>
+        <v>31.25</v>
+      </c>
+      <c r="AD35" s="60">
+        <f t="shared" si="7"/>
+        <v>28.125</v>
+      </c>
+      <c r="AE35" s="60">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="AF35" s="60">
+        <f t="shared" si="7"/>
+        <v>21.875</v>
+      </c>
+      <c r="AG35" s="60">
+        <f t="shared" si="7"/>
+        <v>18.75</v>
+      </c>
+      <c r="AH35" s="60">
+        <f t="shared" si="7"/>
+        <v>15.625</v>
+      </c>
+      <c r="AI35" s="60">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+      <c r="AJ35" s="60">
+        <f t="shared" si="7"/>
+        <v>9.375</v>
+      </c>
+      <c r="AK35" s="60">
+        <f t="shared" si="7"/>
+        <v>6.25</v>
+      </c>
+      <c r="AL35" s="60">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
+      <c r="AM35" s="60">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5661,7 +13552,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E4:Z6 E16:Y16 F7:Z13" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
+    <dataValidation type="list" allowBlank="1" sqref="E4:Z6 E16:Y16 F7:Z13 AN23:AN32 F26:AM32 E23:AM25 E35:AM35" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
       <formula1>$G$3:$L$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Charts.xlsx
+++ b/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisl\OneDrive\Documentos\GitHub\msp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3924EA-2A9E-4518-A335-79C5986E0043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B1F798-6443-465E-9484-376B67764AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>TASK</t>
   </si>
@@ -202,6 +202,42 @@
   </si>
   <si>
     <t>Burndown Chart - Sprint 2</t>
+  </si>
+  <si>
+    <t>Generate Sprint 2 Burndown Chart #1</t>
+  </si>
+  <si>
+    <t>Context Diagram</t>
+  </si>
+  <si>
+    <t>Logical View</t>
+  </si>
+  <si>
+    <t>Development View</t>
+  </si>
+  <si>
+    <t>Deployment View</t>
+  </si>
+  <si>
+    <t>Use Case Diagrams</t>
+  </si>
+  <si>
+    <t>Prototype Development</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>Feature Model</t>
+  </si>
+  <si>
+    <t>Review and refine Phase 1 Documents</t>
+  </si>
+  <si>
+    <t>Generate Sprint 2 Gantt Chart #1</t>
+  </si>
+  <si>
+    <t>Process View (Sequence Diagrams)</t>
   </si>
 </sst>
 </file>
@@ -379,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +480,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -727,7 +775,7 @@
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -932,6 +980,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,12 +998,77 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2595,1504 +2712,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16711534991553686"/>
-          <c:y val="6.9525384471449764E-2"/>
-          <c:w val="0.75415747986728798"/>
-          <c:h val="0.92045292026357972"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$F$5:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy;@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45769</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Blue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$G$5:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Red</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$H$5:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Green</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$I$5:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Brown</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$J$5:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Orange</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$K$5:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Purple</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'GANTT CHART'!$A$5:$B$15</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Define Team Roles and Responsibilities #1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Gantt Chart and Task Dependencies #2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Generate Sprint 1 Burndown Chart #3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>SysML diagram for 15 FR. #4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Model Main Business Process and Features (BPMN) #5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Implement Back-End Logic for Basic Features #8</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Design Front-End UI #6</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Implement Front-End #7</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality Check and Testing #9</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>Planning</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Documentation</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Back End</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Front End</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Quality</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$L$5:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="20"/>
-        <c:overlap val="100"/>
-        <c:axId val="123157888"/>
-        <c:axId val="123176064"/>
-      </c:barChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start Coding</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:alpha val="45000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="l"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('GANTT CHART'!$C$20,'GANTT CHART'!$C$20)</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yy;@</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$D$20:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1st Delivery</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:alpha val="44000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="l"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('GANTT CHART'!$C$21,'GANTT CHART'!$C$21)</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yy;@</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>45774</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$D$21:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'GANTT CHART'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:alpha val="41000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="l"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator>
-</c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('GANTT CHART'!$C$22,'GANTT CHART'!$C$22)</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yy;@</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'GANTT CHART'!$D$22:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-F960-4B86-B672-C2B2050D4195}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="123183488"/>
-        <c:axId val="123177600"/>
-      </c:scatterChart>
-      <c:catAx>
-        <c:axId val="123157888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="123176064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="123176064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45778"/>
-          <c:min val="45747"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$-409]mmm\ d\,\ yyyy;@" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="123157888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="30"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123177600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123183488"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="123183488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="dd/mm/yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123177600"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -6812,7 +5431,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -6847,8 +5466,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Ideal Burn vs Actual Burn</a:t>
+              <a:t>Ideal</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Burn vs Remaining Work</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6860,6 +5484,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6868,323 +5512,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="1"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7195,137 +5531,221 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:f>'BURNDOWN CHART'!$F$22:$AM$22</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45755</c:v>
+                  <c:v>45775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45756</c:v>
+                  <c:v>45776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45757</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45758</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45759</c:v>
+                  <c:v>45779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45760</c:v>
+                  <c:v>45780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45761</c:v>
+                  <c:v>45781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45762</c:v>
+                  <c:v>45782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45763</c:v>
+                  <c:v>45783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45764</c:v>
+                  <c:v>45784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45765</c:v>
+                  <c:v>45785</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45766</c:v>
+                  <c:v>45786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45767</c:v>
+                  <c:v>45787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45768</c:v>
+                  <c:v>45788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45769</c:v>
+                  <c:v>45789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45770</c:v>
+                  <c:v>45790</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45771</c:v>
+                  <c:v>45791</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45772</c:v>
+                  <c:v>45792</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45773</c:v>
+                  <c:v>45793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45774</c:v>
+                  <c:v>45794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45795</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45803</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45806</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
+              <c:f>'BURNDOWN CHART'!$F$39:$AM$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>101.75</c:v>
+                  <c:v>72.794117647058826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.75</c:v>
+                  <c:v>70.588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.75</c:v>
+                  <c:v>68.382352941176464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.75</c:v>
+                  <c:v>66.17647058823529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.75</c:v>
+                  <c:v>63.970588235294116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.75</c:v>
+                  <c:v>61.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.25</c:v>
+                  <c:v>59.558823529411768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.75</c:v>
+                  <c:v>57.352941176470587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.5</c:v>
+                  <c:v>55.147058823529413</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79</c:v>
+                  <c:v>52.941176470588232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.5</c:v>
+                  <c:v>50.735294117647058</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66</c:v>
+                  <c:v>48.529411764705884</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>64</c:v>
+                  <c:v>46.32352941176471</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57</c:v>
+                  <c:v>44.117647058823529</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>41.911764705882355</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41</c:v>
+                  <c:v>39.705882352941174</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.5</c:v>
+                  <c:v>35.294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.5</c:v>
+                  <c:v>33.088235294117645</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>30.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.676470588235297</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.264705882352942</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.852941176470587</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.441176470588232</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.029411764705884</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.8235294117647101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6176470588235361</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4117647058823479</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.205882352941174</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7334,20 +5754,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5A3A-47B8-B909-F7A3D93431D8}"/>
+              <c16:uniqueId val="{00000004-7EB6-4900-81AF-77E52F11B800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
+          <c:idx val="2"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Ideal Burn</c:v>
+            <c:v>Remaining</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7358,137 +5778,221 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
+              <c:f>'BURNDOWN CHART'!$F$22:$AM$22</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>45755</c:v>
+                  <c:v>45775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45756</c:v>
+                  <c:v>45776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45757</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45758</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45759</c:v>
+                  <c:v>45779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45760</c:v>
+                  <c:v>45780</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45761</c:v>
+                  <c:v>45781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45762</c:v>
+                  <c:v>45782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45763</c:v>
+                  <c:v>45783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45764</c:v>
+                  <c:v>45784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45765</c:v>
+                  <c:v>45785</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45766</c:v>
+                  <c:v>45786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45767</c:v>
+                  <c:v>45787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45768</c:v>
+                  <c:v>45788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45769</c:v>
+                  <c:v>45789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45770</c:v>
+                  <c:v>45790</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45771</c:v>
+                  <c:v>45791</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45772</c:v>
+                  <c:v>45792</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45773</c:v>
+                  <c:v>45793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45774</c:v>
+                  <c:v>45794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45795</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45803</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45806</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
+              <c:f>'BURNDOWN CHART'!$F$38:$AM$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>100.9375</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.625</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.3125</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.6875</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.375</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.0625</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.75</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.4375</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.125</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.8125</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.5</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.1875</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.875</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.5625</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.25</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.9375</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.625</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3125</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7497,1909 +6001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>Actual Burn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>101.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>92.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>84.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-5A3A-47B8-B909-F7A3D93431D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>Ideal Burn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$3:$Y$3</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BURNDOWN CHART'!$F$16:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>100.9375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>95.625</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90.3125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69.0625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.4375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47.8125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.1875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>31.875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.5625</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.9375</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.625</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.3125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-5A3A-47B8-B909-F7A3D93431D8}"/>
+              <c16:uniqueId val="{00000005-7EB6-4900-81AF-77E52F11B800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9412,11 +6014,548 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="16859088"/>
-        <c:axId val="16873968"/>
+        <c:axId val="1784745855"/>
+        <c:axId val="1784743455"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'BURNDOWN CHART'!$F$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>28/abr</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'BURNDOWN CHART'!$F$22:$AM$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>d\-mmm</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>45775</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45776</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45777</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45778</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45779</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45780</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45781</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45782</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45783</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45784</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45785</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45786</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45787</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45788</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45789</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>45794</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>45795</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>45801</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>45802</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45808</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'BURNDOWN CHART'!$F$22:$AM$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>d\-mmm</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>45775</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45776</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45777</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45778</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45779</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45780</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45781</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45782</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45783</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45784</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45785</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45786</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45787</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45788</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45789</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>45794</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>45795</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>45801</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>45802</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45808</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-7EB6-4900-81AF-77E52F11B800}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'BURNDOWN CHART'!$F$22:$AM$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>d\-mmm</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>45775</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>45776</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>45777</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45778</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>45779</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>45780</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>45781</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45782</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45783</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45784</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45785</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45786</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45787</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>45788</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>45789</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>45794</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>45795</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>45801</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>45802</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>45808</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'BURNDOWN CHART'!$F$39:$AM$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>72.794117647058826</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>70.588235294117652</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>68.382352941176464</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>66.17647058823529</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>63.970588235294116</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>61.764705882352942</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>59.558823529411768</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57.352941176470587</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>55.147058823529413</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>52.941176470588232</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50.735294117647058</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>48.529411764705884</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>46.32352941176471</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>44.117647058823529</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>41.911764705882355</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>39.705882352941174</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>37.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>35.294117647058826</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>33.088235294117645</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>30.882352941176471</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>28.676470588235297</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>26.470588235294116</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>24.264705882352942</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>22.058823529411768</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>19.852941176470587</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>17.647058823529413</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>15.441176470588232</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>13.235294117647058</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>11.029411764705884</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>8.8235294117647101</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.6176470588235361</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.4117647058823479</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2.205882352941174</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7EB6-4900-81AF-77E52F11B800}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="16859088"/>
+        <c:axId val="1784745855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9459,14 +6598,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16873968"/>
+        <c:crossAx val="1784743455"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="16873968"/>
+        <c:axId val="1784743455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9517,16 +6656,75 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16859088"/>
+        <c:crossAx val="1784745855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -9543,6 +6741,562 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9585,42 +7339,48 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>155457</xdr:rowOff>
+      <xdr:colOff>164122</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>638734</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>145335</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>40201</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 4">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9BE1BB-319E-4B0A-993C-A100C833C392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037A29C8-FFB0-B5F9-CFF2-50D48874DD42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277599" y="7115908"/>
+          <a:ext cx="12384228" cy="4553585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9666,29 +7426,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>609340</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>26580</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>173373</xdr:rowOff>
+      <xdr:rowOff>147970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>630311</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>620232</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>55821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95075466-4A2C-4B06-909A-19D8349D193C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C128D12-313A-4906-BA1D-A301BDDDA8B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10016,10 +7774,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AC72"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A22" zoomScale="52" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:AC68"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A19" zoomScale="44" zoomScaleNormal="94" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AH48" sqref="AH48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10030,7 +7788,7 @@
     <col min="4" max="4" width="9.69921875" customWidth="1"/>
     <col min="5" max="5" width="11.3984375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="6.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.296875" customWidth="1"/>
     <col min="8" max="13" width="6" customWidth="1"/>
     <col min="15" max="15" width="22.5" customWidth="1"/>
   </cols>
@@ -10125,7 +7883,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -10173,7 +7931,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
@@ -10219,7 +7977,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -10267,7 +8025,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
@@ -10313,7 +8071,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
@@ -10407,7 +8165,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10454,7 +8212,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
@@ -10685,19 +8443,35 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="59">
+        <v>45775</v>
+      </c>
+      <c r="D40" s="59">
+        <v>45775</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="59">
+        <v>45775</v>
+      </c>
+      <c r="G40" s="83">
+        <f>_xlfn.DAYS(D40, C40)+1</f>
+        <v>1</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="3"/>
+      <c r="M40" s="84">
+        <f>G40</f>
+        <v>1</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -10716,50 +8490,48 @@
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="34">
-        <v>45755</v>
-      </c>
-      <c r="D41" s="35">
-        <v>45755</v>
+      <c r="A41" s="72"/>
+      <c r="B41" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="59">
+        <v>45775</v>
+      </c>
+      <c r="D41" s="59">
+        <v>45775</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="30">
-        <f>IF(ISBLANK(C41),0,C41)</f>
-        <v>45755</v>
-      </c>
-      <c r="G41" s="31">
-        <f t="shared" ref="G41:L49" si="3">IF(ISBLANK($D41),0,IF($E41=G$4,$D41-$C41+1,0))</f>
+      <c r="F41" s="59">
+        <v>45775</v>
+      </c>
+      <c r="G41" s="83">
+        <f t="shared" ref="G41:G52" si="3">_xlfn.DAYS(D41, C41)+1</f>
         <v>1</v>
       </c>
       <c r="H41" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D54),0,IF($E41=H$4,$D54-$C54+1,0))</f>
         <v>0</v>
       </c>
       <c r="I41" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D54),0,IF($E41=I$4,$D54-$C54+1,0))</f>
         <v>0</v>
       </c>
       <c r="J41" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D54),0,IF($E41=J$4,$D54-$C54+1,0))</f>
         <v>0</v>
       </c>
       <c r="K41" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D54),0,IF($E41=K$4,$D54-$C54+1,0))</f>
         <v>0</v>
       </c>
       <c r="L41" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="32">
+        <f>IF(ISBLANK($D54),0,IF($E41=L$4,$D54-$C54+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="84">
+        <f t="shared" ref="M41:M52" si="4">G41</f>
         <v>1</v>
       </c>
       <c r="N41" s="3"/>
@@ -10780,49 +8552,49 @@
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="34">
-        <v>45755</v>
-      </c>
-      <c r="D42" s="35">
-        <v>45755</v>
+      <c r="A42" s="71"/>
+      <c r="B42" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="59">
+        <v>45776</v>
+      </c>
+      <c r="D42" s="59">
+        <v>45782</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="30">
-        <f t="shared" ref="F42:F49" si="4">IF(ISBLANK(C42),0,C42)</f>
-        <v>45755</v>
-      </c>
-      <c r="G42" s="31">
+      <c r="F42" s="59">
+        <v>45776</v>
+      </c>
+      <c r="G42" s="83">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H42" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D55),0,IF($E42=H$4,$D55-$C55+1,0))</f>
         <v>0</v>
       </c>
       <c r="I42" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D55),0,IF($E42=I$4,$D55-$C55+1,0))</f>
         <v>0</v>
       </c>
       <c r="J42" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D55),0,IF($E42=J$4,$D55-$C55+1,0))</f>
         <v>0</v>
       </c>
       <c r="K42" s="31">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($D55),0,IF($E42=K$4,$D55-$C55+1,0))</f>
         <v>0</v>
       </c>
       <c r="L42" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="32">
-        <v>1</v>
+        <f>IF(ISBLANK($D55),0,IF($E42=L$4,$D55-$C55+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="84">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -10842,51 +8614,49 @@
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="34">
-        <v>45756</v>
-      </c>
-      <c r="D43" s="35">
-        <v>45757</v>
+      <c r="A43" s="73"/>
+      <c r="B43" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="59">
+        <v>45783</v>
+      </c>
+      <c r="D43" s="59">
+        <v>45794</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="59">
+        <v>45783</v>
+      </c>
+      <c r="G43" s="83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H43" s="31">
+        <f>IF(ISBLANK($D56),0,IF($E43=H$4,$D56-$C56+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <f>IF(ISBLANK($D56),0,IF($E43=I$4,$D56-$C56+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="31">
+        <f>IF(ISBLANK($D56),0,IF($E43=J$4,$D56-$C56+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="31">
+        <f>IF(ISBLANK($D56),0,IF($E43=K$4,$D56-$C56+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="32">
+        <f>IF(ISBLANK($D56),0,IF($E43=L$4,$D56-$C56+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="84">
         <f t="shared" si="4"/>
-        <v>45756</v>
-      </c>
-      <c r="G43" s="31">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H43" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="32">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -10906,49 +8676,49 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="34">
-        <v>45757</v>
-      </c>
-      <c r="D44" s="35">
-        <v>45762</v>
+      <c r="A44" s="72"/>
+      <c r="B44" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="59">
+        <v>45783</v>
+      </c>
+      <c r="D44" s="59">
+        <v>45794</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="59">
+        <v>45783</v>
+      </c>
+      <c r="G44" s="83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H44" s="31">
+        <f>IF(ISBLANK($D57),0,IF($E44=H$4,$D57-$C57+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <f>IF(ISBLANK($D57),0,IF($E44=I$4,$D57-$C57+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="31">
+        <f>IF(ISBLANK($D57),0,IF($E44=J$4,$D57-$C57+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="31">
+        <f>IF(ISBLANK($D57),0,IF($E44=K$4,$D57-$C57+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="32">
+        <f>IF(ISBLANK($D57),0,IF($E44=L$4,$D57-$C57+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="84">
         <f t="shared" si="4"/>
-        <v>45757</v>
-      </c>
-      <c r="G44" s="31">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H44" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -10968,49 +8738,49 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="34">
-        <v>45759</v>
-      </c>
-      <c r="D45" s="35">
-        <v>45763</v>
+      <c r="A45" s="64"/>
+      <c r="B45" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="59">
+        <v>45783</v>
+      </c>
+      <c r="D45" s="59">
+        <v>45794</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="30">
+        <v>8</v>
+      </c>
+      <c r="F45" s="59">
+        <v>45783</v>
+      </c>
+      <c r="G45" s="83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H45" s="31">
+        <f>IF(ISBLANK($D58),0,IF($E45=H$4,$D58-$C58+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="31">
+        <f>IF(ISBLANK($D58),0,IF($E45=I$4,$D58-$C58+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="31">
+        <f>IF(ISBLANK($D58),0,IF($E45=J$4,$D58-$C58+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="31">
+        <f>IF(ISBLANK($D58),0,IF($E45=K$4,$D58-$C58+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="32">
+        <f>IF(ISBLANK($D58),0,IF($E45=L$4,$D58-$C58+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="84">
         <f t="shared" si="4"/>
-        <v>45759</v>
-      </c>
-      <c r="G45" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="31">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I45" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="32">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -11030,51 +8800,49 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="34">
-        <v>45762</v>
-      </c>
-      <c r="D46" s="35">
-        <v>45769</v>
+      <c r="A46" s="71"/>
+      <c r="B46" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="59">
+        <v>45783</v>
+      </c>
+      <c r="D46" s="59">
+        <v>45794</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="30">
+        <v>8</v>
+      </c>
+      <c r="F46" s="59">
+        <v>45783</v>
+      </c>
+      <c r="G46" s="83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H46" s="31">
+        <f>IF(ISBLANK($D59),0,IF($E46=H$4,$D59-$C59+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="31">
+        <f>IF(ISBLANK($D59),0,IF($E46=I$4,$D59-$C59+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="31">
+        <f>IF(ISBLANK($D59),0,IF($E46=J$4,$D59-$C59+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="31">
+        <f>IF(ISBLANK($D59),0,IF($E46=K$4,$D59-$C59+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="32">
+        <f>IF(ISBLANK($D59),0,IF($E46=L$4,$D59-$C59+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="84">
         <f t="shared" si="4"/>
-        <v>45762</v>
-      </c>
-      <c r="G46" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="31">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="I46" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -11094,50 +8862,46 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="34">
-        <v>45763</v>
-      </c>
-      <c r="D47" s="35">
-        <v>45767</v>
+      <c r="A47" s="72"/>
+      <c r="B47" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="59">
+        <v>45795</v>
+      </c>
+      <c r="D47" s="59">
+        <v>45804</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="30">
+        <v>8</v>
+      </c>
+      <c r="F47" s="59">
+        <v>45795</v>
+      </c>
+      <c r="G47" s="83">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31">
+        <f>IF(ISBLANK($D60),0,IF($E47=I$4,$D60-$C60+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="31">
+        <f>IF(ISBLANK($D60),0,IF($E47=J$4,$D60-$C60+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="31">
+        <f>IF(ISBLANK($D60),0,IF($E47=K$4,$D60-$C60+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="32">
+        <f>IF(ISBLANK($D60),0,IF($E47=L$4,$D60-$C60+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="84">
         <f t="shared" si="4"/>
-        <v>45763</v>
-      </c>
-      <c r="G47" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="31">
-        <v>1</v>
-      </c>
-      <c r="I47" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -11157,49 +8921,49 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="34">
-        <v>45765</v>
-      </c>
-      <c r="D48" s="35">
-        <v>45770</v>
+      <c r="A48" s="72"/>
+      <c r="B48" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="59">
+        <v>45795</v>
+      </c>
+      <c r="D48" s="59">
+        <v>45804</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="30">
+        <v>8</v>
+      </c>
+      <c r="F48" s="59">
+        <v>45795</v>
+      </c>
+      <c r="G48" s="83">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H48" s="31">
+        <f>IF(ISBLANK($D61),0,IF($E48=H$4,$D61-$C61+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="31">
+        <f>IF(ISBLANK($D61),0,IF($E48=I$4,$D61-$C61+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="31">
+        <f>IF(ISBLANK($D61),0,IF($E48=J$4,$D61-$C61+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="31">
+        <f>IF(ISBLANK($D61),0,IF($E48=K$4,$D61-$C61+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="32">
+        <f>IF(ISBLANK($D61),0,IF($E48=L$4,$D61-$C61+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="84">
         <f t="shared" si="4"/>
-        <v>45765</v>
-      </c>
-      <c r="G48" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="31">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I48" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -11219,51 +8983,49 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" s="34">
-        <v>45769</v>
-      </c>
-      <c r="D49" s="35">
-        <v>45774</v>
+      <c r="A49" s="72"/>
+      <c r="B49" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="59">
+        <v>45805</v>
+      </c>
+      <c r="D49" s="59">
+        <v>45808</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="30">
+        <v>8</v>
+      </c>
+      <c r="F49" s="59">
+        <v>45805</v>
+      </c>
+      <c r="G49" s="83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H49" s="31">
+        <f>IF(ISBLANK($D62),0,IF($E49=H$4,$D62-$C62+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="31">
+        <f>IF(ISBLANK($D62),0,IF($E49=I$4,$D62-$C62+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="31">
+        <f>IF(ISBLANK($D62),0,IF($E49=J$4,$D62-$C62+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="31">
+        <f>IF(ISBLANK($D62),0,IF($E49=K$4,$D62-$C62+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="32">
+        <f>IF(ISBLANK($D62),0,IF($E49=L$4,$D62-$C62+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="84">
         <f t="shared" si="4"/>
-        <v>45769</v>
-      </c>
-      <c r="G49" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="31">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J49" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -11282,22 +9044,51 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="72"/>
+      <c r="B50" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="59">
+        <v>45789</v>
+      </c>
+      <c r="D50" s="59">
+        <v>45804</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="59">
+        <v>45789</v>
+      </c>
+      <c r="G50" s="83">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H50" s="31">
+        <f t="shared" ref="G50:L50" si="5">IF(ISBLANK($D63),0,IF($E50=H$4,$D63-$C63+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="84">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -11316,73 +9107,268 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D51" s="46"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="59">
+        <v>45783</v>
+      </c>
+      <c r="D51" s="59">
+        <v>45794</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="59">
+        <v>45783</v>
+      </c>
+      <c r="G51" s="83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H51" s="31">
+        <f t="shared" ref="G51:L51" si="6">IF(ISBLANK($D64),0,IF($E51=H$4,$D64-$C64+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="84">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="54" spans="1:29" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>17</v>
-      </c>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="71"/>
+      <c r="B52" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="86">
+        <v>45805</v>
+      </c>
+      <c r="D52" s="86">
+        <v>45808</v>
+      </c>
+      <c r="E52" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="86">
+        <v>45805</v>
+      </c>
+      <c r="G52" s="83">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H52" s="31">
+        <f t="shared" ref="G52:L52" si="7">IF(ISBLANK($D65),0,IF($E52=H$4,$D65-$C65+1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="84">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="93"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="33">
-        <v>45764</v>
-      </c>
-      <c r="D55" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="24">
-        <v>0.95</v>
-      </c>
+      <c r="A55" s="93"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="98"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B56" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="39">
-        <v>45774</v>
-      </c>
-      <c r="D56" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E56" s="40">
-        <v>0.95</v>
-      </c>
+      <c r="A56" s="93"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="98"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="43"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="98"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="98"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="100"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="93"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="93"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="100"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+    </row>
+    <row r="63" spans="1:29" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="101"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="98"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="98"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="98"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="98"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="98"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="98"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="98"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="98"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="98"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A60:A61"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E5:E14 E40:E49" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E14 E40:E52" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$G$4:$L$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -11395,10 +9381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C3C6B9-B96F-4FA2-ABBE-ACB72B75F1F2}">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="AK40" sqref="AK40"/>
+    <sheetView tabSelected="1" topLeftCell="AM17" zoomScale="115" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11566,7 +9552,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="79" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="58" t="s">
@@ -11609,7 +9595,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="58" t="s">
         <v>25</v>
       </c>
@@ -11650,7 +9636,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="79" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -11693,7 +9679,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="62" t="s">
         <v>24</v>
       </c>
@@ -11750,7 +9736,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="62" t="s">
         <v>46</v>
       </c>
@@ -11860,7 +9846,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="79" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="65" t="s">
@@ -11910,7 +9896,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="62" t="s">
         <v>49</v>
       </c>
@@ -12336,106 +10322,106 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="F21" s="80">
+      <c r="F21" s="74">
         <v>1</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="74">
         <v>2</v>
       </c>
-      <c r="H21" s="80">
+      <c r="H21" s="74">
         <v>3</v>
       </c>
-      <c r="I21" s="80">
+      <c r="I21" s="74">
         <v>4</v>
       </c>
-      <c r="J21" s="80">
+      <c r="J21" s="74">
         <v>5</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="74">
         <v>6</v>
       </c>
-      <c r="L21" s="80">
+      <c r="L21" s="74">
         <v>7</v>
       </c>
-      <c r="M21" s="80">
+      <c r="M21" s="74">
         <v>8</v>
       </c>
-      <c r="N21" s="80">
+      <c r="N21" s="74">
         <v>9</v>
       </c>
-      <c r="O21" s="80">
+      <c r="O21" s="74">
         <v>10</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="74">
         <v>11</v>
       </c>
-      <c r="Q21" s="80">
+      <c r="Q21" s="74">
         <v>12</v>
       </c>
-      <c r="R21" s="80">
+      <c r="R21" s="74">
         <v>13</v>
       </c>
-      <c r="S21" s="80">
+      <c r="S21" s="74">
         <v>14</v>
       </c>
-      <c r="T21" s="80">
+      <c r="T21" s="74">
         <v>15</v>
       </c>
-      <c r="U21" s="80">
+      <c r="U21" s="74">
         <v>16</v>
       </c>
-      <c r="V21" s="80">
+      <c r="V21" s="74">
         <v>17</v>
       </c>
-      <c r="W21" s="80">
+      <c r="W21" s="74">
         <v>18</v>
       </c>
-      <c r="X21" s="80">
+      <c r="X21" s="74">
         <v>19</v>
       </c>
-      <c r="Y21" s="80">
+      <c r="Y21" s="74">
         <v>20</v>
       </c>
-      <c r="Z21" s="80">
+      <c r="Z21" s="74">
         <v>21</v>
       </c>
-      <c r="AA21" s="80">
+      <c r="AA21" s="74">
         <v>22</v>
       </c>
-      <c r="AB21" s="80">
+      <c r="AB21" s="74">
         <v>23</v>
       </c>
-      <c r="AC21" s="80">
+      <c r="AC21" s="74">
         <v>24</v>
       </c>
-      <c r="AD21" s="80">
+      <c r="AD21" s="74">
         <v>25</v>
       </c>
-      <c r="AE21" s="80">
+      <c r="AE21" s="74">
         <v>26</v>
       </c>
-      <c r="AF21" s="80">
+      <c r="AF21" s="74">
         <v>27</v>
       </c>
-      <c r="AG21" s="80">
+      <c r="AG21" s="74">
         <v>28</v>
       </c>
-      <c r="AH21" s="80">
+      <c r="AH21" s="74">
         <v>29</v>
       </c>
-      <c r="AI21" s="80">
+      <c r="AI21" s="74">
         <v>30</v>
       </c>
-      <c r="AJ21" s="80">
+      <c r="AJ21" s="74">
         <v>31</v>
       </c>
-      <c r="AK21" s="80">
+      <c r="AK21" s="74">
         <v>32</v>
       </c>
-      <c r="AL21" s="80">
+      <c r="AL21" s="74">
         <v>33</v>
       </c>
-      <c r="AM21" s="80">
+      <c r="AM21" s="74">
         <v>34</v>
       </c>
     </row>
@@ -12562,984 +10548,1282 @@
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>22</v>
+      <c r="A23" s="71"/>
+      <c r="B23" s="75" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="59">
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="D23" s="59">
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="E23" s="60">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
-      <c r="AC23" s="82"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60">
+        <v>1</v>
+      </c>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
       <c r="AN23" s="60">
         <f>E23-SUM(F23:AM23)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
-      <c r="B24" s="81" t="s">
-        <v>25</v>
+      <c r="B24" s="75" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="59">
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="D24" s="59">
-        <v>45755</v>
+        <v>45775</v>
       </c>
       <c r="E24" s="60">
-        <v>3</v>
-      </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60">
+        <v>1</v>
+      </c>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
       <c r="AN24" s="60">
-        <f t="shared" ref="AN24:AN32" si="4">E24-SUM(F24:AM24)</f>
-        <v>3</v>
+        <f t="shared" ref="AN24:AN36" si="4">E24-SUM(F24:AM24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="81" t="s">
-        <v>23</v>
+      <c r="B25" s="75" t="s">
+        <v>61</v>
       </c>
       <c r="C25" s="59">
-        <v>45756</v>
+        <v>45776</v>
       </c>
       <c r="D25" s="59">
-        <v>45757</v>
+        <v>45782</v>
       </c>
       <c r="E25" s="60">
+        <v>5</v>
+      </c>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="O25" s="60">
         <v>1</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="82"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-      <c r="AI25" s="82"/>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="82"/>
-      <c r="AM25" s="82"/>
+      <c r="P25" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
       <c r="AN25" s="60">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="73"/>
-      <c r="B26" s="81" t="s">
-        <v>24</v>
+      <c r="B26" s="75" t="s">
+        <v>53</v>
       </c>
       <c r="C26" s="59">
-        <v>45757</v>
+        <v>45783</v>
       </c>
       <c r="D26" s="59">
-        <v>45762</v>
+        <v>45794</v>
       </c>
       <c r="E26" s="60">
-        <v>24.25</v>
-      </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
-      <c r="AC26" s="82"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-      <c r="AI26" s="82"/>
-      <c r="AJ26" s="82"/>
-      <c r="AK26" s="82"/>
-      <c r="AL26" s="82"/>
-      <c r="AM26" s="82"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60">
+        <v>1</v>
+      </c>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
       <c r="AN26" s="60">
         <f t="shared" si="4"/>
-        <v>24.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
-      <c r="B27" s="81" t="s">
-        <v>46</v>
+      <c r="B27" s="75" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="59">
-        <v>45759</v>
+        <v>45783</v>
       </c>
       <c r="D27" s="59">
-        <v>45763</v>
+        <v>45794</v>
       </c>
       <c r="E27" s="60">
-        <v>25.5</v>
-      </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-      <c r="AL27" s="82"/>
-      <c r="AM27" s="82"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60">
+        <v>1</v>
+      </c>
+      <c r="U27" s="60">
+        <v>1</v>
+      </c>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60"/>
       <c r="AN27" s="60">
         <f t="shared" si="4"/>
-        <v>25.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="81" t="s">
-        <v>30</v>
+      <c r="B28" s="75" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="59">
-        <v>45762</v>
+        <v>45783</v>
       </c>
       <c r="D28" s="59">
-        <v>45769</v>
+        <v>45794</v>
       </c>
       <c r="E28" s="60">
-        <v>20</v>
-      </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60">
+        <v>1</v>
+      </c>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60">
+        <v>1</v>
+      </c>
+      <c r="X28" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="Y28" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
       <c r="AN28" s="60">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="81" t="s">
-        <v>28</v>
+      <c r="B29" s="75" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="59">
-        <v>45763</v>
+        <v>45783</v>
       </c>
       <c r="D29" s="59">
-        <v>45767</v>
+        <v>45794</v>
       </c>
       <c r="E29" s="60">
-        <v>7.5</v>
-      </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
-      <c r="AC29" s="82"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="V29" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="W29" s="60">
+        <v>1</v>
+      </c>
+      <c r="X29" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="60"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="60"/>
       <c r="AN29" s="60">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
-      <c r="B30" s="81" t="s">
-        <v>49</v>
+      <c r="B30" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="59">
-        <v>45765</v>
+        <v>45795</v>
       </c>
       <c r="D30" s="59">
-        <v>45770</v>
+        <v>45804</v>
       </c>
       <c r="E30" s="60">
-        <v>5</v>
-      </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="82"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="82"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="82"/>
+        <v>10</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60">
+        <v>1</v>
+      </c>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60">
+        <v>3</v>
+      </c>
+      <c r="U30" s="60">
+        <v>1</v>
+      </c>
+      <c r="V30" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
       <c r="AN30" s="60">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>31</v>
+      <c r="A31" s="72"/>
+      <c r="B31" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="59">
-        <v>45769</v>
+        <v>45795</v>
       </c>
       <c r="D31" s="59">
-        <v>45774</v>
+        <v>45804</v>
       </c>
       <c r="E31" s="60">
-        <v>11.5</v>
-      </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-      <c r="AL31" s="82"/>
-      <c r="AM31" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60">
+        <v>1</v>
+      </c>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60">
+        <v>1</v>
+      </c>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
       <c r="AN31" s="60">
         <f t="shared" si="4"/>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>48</v>
+      <c r="A32" s="72"/>
+      <c r="B32" s="75" t="s">
+        <v>59</v>
       </c>
       <c r="C32" s="59">
-        <v>45770</v>
+        <v>45805</v>
       </c>
       <c r="D32" s="59">
-        <v>45774</v>
+        <v>45808</v>
       </c>
       <c r="E32" s="60">
-        <v>8</v>
-      </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
-      <c r="AC32" s="82"/>
-      <c r="AD32" s="82"/>
-      <c r="AE32" s="82"/>
-      <c r="AF32" s="82"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-      <c r="AI32" s="82"/>
-      <c r="AJ32" s="82"/>
-      <c r="AK32" s="82"/>
-      <c r="AL32" s="82"/>
-      <c r="AM32" s="82"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="60"/>
       <c r="AN32" s="60">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D33" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="68">
-        <f>SUM(E23:E32)</f>
-        <v>106.25</v>
-      </c>
-      <c r="F33" s="68">
-        <f t="shared" ref="F33:AR33" si="5">SUM(F23:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM33" s="68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="68">
-        <f>SUM(AN23:AN32)</f>
-        <v>106.25</v>
+      <c r="A33" s="72"/>
+      <c r="B33" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="59">
+        <v>45789</v>
+      </c>
+      <c r="D33" s="59">
+        <v>45804</v>
+      </c>
+      <c r="E33" s="60">
+        <v>25</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60">
+        <v>2</v>
+      </c>
+      <c r="W33" s="60">
+        <v>2</v>
+      </c>
+      <c r="X33" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="Y33" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="Z33" s="60">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="60">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="60">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="60">
+        <v>2</v>
+      </c>
+      <c r="AD33" s="60">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="60">
+        <v>2</v>
+      </c>
+      <c r="AF33" s="60">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="60">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="60">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="54"/>
-      <c r="D34" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="68">
-        <f>E33</f>
-        <v>106.25</v>
-      </c>
-      <c r="F34" s="68">
-        <f>E34-F33</f>
-        <v>106.25</v>
-      </c>
-      <c r="G34" s="68">
-        <f t="shared" ref="G34:AM34" si="6">F34-G33</f>
-        <v>106.25</v>
-      </c>
-      <c r="H34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="I34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="J34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="K34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="L34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="M34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="N34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="O34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="P34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="Q34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="R34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="S34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="T34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="U34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="V34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="W34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="X34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="Y34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="Z34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AA34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AB34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AC34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AD34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AE34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AF34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AG34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AH34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AI34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AJ34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AK34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AL34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
-      </c>
-      <c r="AM34" s="68">
-        <f t="shared" si="6"/>
-        <v>106.25</v>
+      <c r="A34" s="72"/>
+      <c r="B34" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="59">
+        <v>45783</v>
+      </c>
+      <c r="D34" s="59">
+        <v>45794</v>
+      </c>
+      <c r="E34" s="60">
+        <v>5</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="60">
+        <v>2</v>
+      </c>
+      <c r="R34" s="60">
+        <v>1</v>
+      </c>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
+      <c r="AN34" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="D35" s="67" t="s">
+      <c r="A35" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="59">
+        <v>45805</v>
+      </c>
+      <c r="D35" s="59">
+        <v>45808</v>
+      </c>
+      <c r="E35" s="60">
+        <v>5</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="75"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60">
+        <v>0</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D37" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="60">
+        <f>SUM(E23:E36)</f>
+        <v>75</v>
+      </c>
+      <c r="F37" s="68">
+        <f t="shared" ref="F37:AM37" si="5">SUM(F23:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N37" s="68">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="O37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="68">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q37" s="68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="R37" s="68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="S37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="68">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="U37" s="68">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="V37" s="68">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="W37" s="68">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X37" s="68">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Y37" s="68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Z37" s="68">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="AA37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB37" s="68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AC37" s="68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AD37" s="68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AE37" s="68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="AF37" s="68">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AG37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AJ37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AK37" s="68">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AL37" s="68">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AM37" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="68">
+        <f>SUM(AN23:AN36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="54"/>
+      <c r="D38" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="68">
+        <f>E37</f>
+        <v>75</v>
+      </c>
+      <c r="F38" s="68">
+        <f>E38-F37</f>
+        <v>75</v>
+      </c>
+      <c r="G38" s="68">
+        <f t="shared" ref="G38:AM38" si="6">F38-G37</f>
+        <v>75</v>
+      </c>
+      <c r="H38" s="68">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="I38" s="68">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="J38" s="68">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="K38" s="68">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="L38" s="68">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="M38" s="68">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="N38" s="68">
+        <f t="shared" si="6"/>
+        <v>70.5</v>
+      </c>
+      <c r="O38" s="68">
+        <f t="shared" si="6"/>
+        <v>69.5</v>
+      </c>
+      <c r="P38" s="68">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="Q38" s="68">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="R38" s="68">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="S38" s="68">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="T38" s="68">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="U38" s="68">
+        <f t="shared" si="6"/>
+        <v>52.5</v>
+      </c>
+      <c r="V38" s="68">
+        <f t="shared" si="6"/>
+        <v>45.5</v>
+      </c>
+      <c r="W38" s="68">
+        <f t="shared" si="6"/>
+        <v>41.5</v>
+      </c>
+      <c r="X38" s="68">
+        <f t="shared" si="6"/>
+        <v>36.5</v>
+      </c>
+      <c r="Y38" s="68">
+        <f t="shared" si="6"/>
+        <v>33.5</v>
+      </c>
+      <c r="Z38" s="68">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="AA38" s="68">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="AB38" s="68">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AC38" s="68">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AD38" s="68">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AE38" s="68">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AF38" s="68">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AG38" s="68">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AH38" s="68">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AI38" s="68">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AJ38" s="68">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AK38" s="68">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AL38" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D39" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="60">
-        <f>E33</f>
-        <v>106.25</v>
-      </c>
-      <c r="F35" s="60">
-        <f>$E$35-F21*$E$35/COUNT($F$22:$AM$22)</f>
-        <v>103.125</v>
-      </c>
-      <c r="G35" s="60">
-        <f t="shared" ref="G35:AM35" si="7">$E$35-G21*$E$35/COUNT($F$22:$AM$22)</f>
-        <v>100</v>
-      </c>
-      <c r="H35" s="60">
+      <c r="E39" s="60">
+        <f>E37</f>
+        <v>75</v>
+      </c>
+      <c r="F39" s="60">
+        <f>$E$39-F21*$E$39/COUNT($F$22:$AM$22)</f>
+        <v>72.794117647058826</v>
+      </c>
+      <c r="G39" s="60">
+        <f t="shared" ref="G39:AM39" si="7">$E$39-G21*$E$39/COUNT($F$22:$AM$22)</f>
+        <v>70.588235294117652</v>
+      </c>
+      <c r="H39" s="60">
         <f t="shared" si="7"/>
-        <v>96.875</v>
-      </c>
-      <c r="I35" s="60">
+        <v>68.382352941176464</v>
+      </c>
+      <c r="I39" s="60">
         <f t="shared" si="7"/>
-        <v>93.75</v>
-      </c>
-      <c r="J35" s="60">
+        <v>66.17647058823529</v>
+      </c>
+      <c r="J39" s="60">
         <f t="shared" si="7"/>
-        <v>90.625</v>
-      </c>
-      <c r="K35" s="60">
+        <v>63.970588235294116</v>
+      </c>
+      <c r="K39" s="60">
         <f t="shared" si="7"/>
-        <v>87.5</v>
-      </c>
-      <c r="L35" s="60">
+        <v>61.764705882352942</v>
+      </c>
+      <c r="L39" s="60">
         <f t="shared" si="7"/>
-        <v>84.375</v>
-      </c>
-      <c r="M35" s="60">
+        <v>59.558823529411768</v>
+      </c>
+      <c r="M39" s="60">
         <f t="shared" si="7"/>
-        <v>81.25</v>
-      </c>
-      <c r="N35" s="60">
+        <v>57.352941176470587</v>
+      </c>
+      <c r="N39" s="60">
         <f t="shared" si="7"/>
-        <v>78.125</v>
-      </c>
-      <c r="O35" s="60">
+        <v>55.147058823529413</v>
+      </c>
+      <c r="O39" s="60">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="P35" s="60">
+        <v>52.941176470588232</v>
+      </c>
+      <c r="P39" s="60">
         <f t="shared" si="7"/>
-        <v>71.875</v>
-      </c>
-      <c r="Q35" s="60">
+        <v>50.735294117647058</v>
+      </c>
+      <c r="Q39" s="60">
         <f t="shared" si="7"/>
-        <v>68.75</v>
-      </c>
-      <c r="R35" s="60">
+        <v>48.529411764705884</v>
+      </c>
+      <c r="R39" s="60">
         <f t="shared" si="7"/>
-        <v>65.625</v>
-      </c>
-      <c r="S35" s="60">
+        <v>46.32352941176471</v>
+      </c>
+      <c r="S39" s="60">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="T35" s="60">
+        <v>44.117647058823529</v>
+      </c>
+      <c r="T39" s="60">
         <f t="shared" si="7"/>
-        <v>59.375</v>
-      </c>
-      <c r="U35" s="60">
+        <v>41.911764705882355</v>
+      </c>
+      <c r="U39" s="60">
         <f t="shared" si="7"/>
-        <v>56.25</v>
-      </c>
-      <c r="V35" s="60">
-        <f t="shared" si="7"/>
-        <v>53.125</v>
-      </c>
-      <c r="W35" s="60">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="X35" s="60">
-        <f t="shared" si="7"/>
-        <v>46.875</v>
-      </c>
-      <c r="Y35" s="60">
-        <f t="shared" si="7"/>
-        <v>43.75</v>
-      </c>
-      <c r="Z35" s="60">
-        <f t="shared" si="7"/>
-        <v>40.625</v>
-      </c>
-      <c r="AA35" s="60">
+        <v>39.705882352941174</v>
+      </c>
+      <c r="V39" s="60">
         <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="AB35" s="60">
+      <c r="W39" s="60">
         <f t="shared" si="7"/>
-        <v>34.375</v>
-      </c>
-      <c r="AC35" s="60">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="X39" s="60">
         <f t="shared" si="7"/>
-        <v>31.25</v>
-      </c>
-      <c r="AD35" s="60">
+        <v>33.088235294117645</v>
+      </c>
+      <c r="Y39" s="60">
         <f t="shared" si="7"/>
-        <v>28.125</v>
-      </c>
-      <c r="AE35" s="60">
+        <v>30.882352941176471</v>
+      </c>
+      <c r="Z39" s="60">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="AF35" s="60">
+        <v>28.676470588235297</v>
+      </c>
+      <c r="AA39" s="60">
         <f t="shared" si="7"/>
-        <v>21.875</v>
-      </c>
-      <c r="AG35" s="60">
+        <v>26.470588235294116</v>
+      </c>
+      <c r="AB39" s="60">
         <f t="shared" si="7"/>
-        <v>18.75</v>
-      </c>
-      <c r="AH35" s="60">
+        <v>24.264705882352942</v>
+      </c>
+      <c r="AC39" s="60">
         <f t="shared" si="7"/>
-        <v>15.625</v>
-      </c>
-      <c r="AI35" s="60">
+        <v>22.058823529411768</v>
+      </c>
+      <c r="AD39" s="60">
         <f t="shared" si="7"/>
-        <v>12.5</v>
-      </c>
-      <c r="AJ35" s="60">
+        <v>19.852941176470587</v>
+      </c>
+      <c r="AE39" s="60">
         <f t="shared" si="7"/>
-        <v>9.375</v>
-      </c>
-      <c r="AK35" s="60">
+        <v>17.647058823529413</v>
+      </c>
+      <c r="AF39" s="60">
         <f t="shared" si="7"/>
-        <v>6.25</v>
-      </c>
-      <c r="AL35" s="60">
+        <v>15.441176470588232</v>
+      </c>
+      <c r="AG39" s="60">
         <f t="shared" si="7"/>
-        <v>3.125</v>
-      </c>
-      <c r="AM35" s="60">
+        <v>13.235294117647058</v>
+      </c>
+      <c r="AH39" s="60">
+        <f t="shared" si="7"/>
+        <v>11.029411764705884</v>
+      </c>
+      <c r="AI39" s="60">
+        <f t="shared" si="7"/>
+        <v>8.8235294117647101</v>
+      </c>
+      <c r="AJ39" s="60">
+        <f t="shared" si="7"/>
+        <v>6.6176470588235361</v>
+      </c>
+      <c r="AK39" s="60">
+        <f t="shared" si="7"/>
+        <v>4.4117647058823479</v>
+      </c>
+      <c r="AL39" s="60">
+        <f t="shared" si="7"/>
+        <v>2.205882352941174</v>
+      </c>
+      <c r="AM39" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -13552,11 +11836,33 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E4:Z6 E16:Y16 F7:Z13 AN23:AN32 F26:AM32 E23:AM25 E35:AM35" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
+    <dataValidation type="list" allowBlank="1" sqref="E4:Z6 E16:Y16 F7:Z13 E39:AM39 E23:E37 F23:AN36" xr:uid="{71679858-1939-4B9F-A4D7-63892D4A7839}">
       <formula1>$G$3:$L$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1DD4A886-8857-478E-B93A-2CDB956918D7}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'BURNDOWN CHART'!F39:AM39</xm:f>
+              <xm:sqref>AP22</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>